--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="279">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -505,7 +505,10 @@
     <t>#1 - Setup Node JS, Install Visual Studio Code Editor, Write First Code with JavaScript</t>
   </si>
   <si>
-    <t>Testing comments</t>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>#2 - Var vs Let vs Const in JavaScript</t>
@@ -861,7 +864,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,13 +874,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF6a6f73"/>
       <name val="Var(--font-stack-text)"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -967,14 +976,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -982,6 +985,9 @@
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -999,70 +1005,79 @@
     <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1071,43 +1086,55 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1418,99 +1445,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="53" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="51" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="51" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="51" width="41.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="23"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="17">
         <v>2</v>
       </c>
       <c r="F4" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>257</v>
-      </c>
       <c r="H4" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="17">
         <v>3</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="17">
         <v>4</v>
       </c>
@@ -1518,209 +1545,209 @@
         <v>8</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H6" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="17">
         <v>5</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="H7" s="52" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="17">
         <v>6</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="17">
         <v>7</v>
       </c>
       <c r="F9" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>264</v>
-      </c>
       <c r="H9" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="17">
         <v>8</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H10" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="17">
         <v>9</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H11" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="17">
         <v>10</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H12" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="17">
         <v>11</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H13" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="17">
         <v>12</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H14" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="17">
         <v>13</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H15" s="47" t="s">
         <v>273</v>
       </c>
+      <c r="H15" s="52" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="17">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>276</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="17">
         <v>15</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>277</v>
+        <v>273</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="22"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="22"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1742,25 +1769,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="37.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="33" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="51" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="36" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="26" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="26" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="15" t="s">
@@ -1769,10 +1796,10 @@
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="16" t="s">
@@ -1781,7 +1808,7 @@
       <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="17">
@@ -1790,52 +1817,58 @@
       <c r="B3" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="31">
         <v>8.03</v>
       </c>
       <c r="D3" s="20">
         <v>45355</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="F3" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="17">
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="29">
+        <v>163</v>
+      </c>
+      <c r="C4" s="31">
         <v>20.56</v>
       </c>
       <c r="D4" s="20">
         <v>45355</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="17">
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="29">
+        <v>164</v>
+      </c>
+      <c r="C5" s="31">
         <v>34.45</v>
       </c>
       <c r="D5" s="20">
         <v>45355</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="39" t="s">
-        <v>164</v>
+      <c r="G5" s="42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -1843,9 +1876,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="29">
+        <v>166</v>
+      </c>
+      <c r="C6" s="31">
         <v>32.53</v>
       </c>
       <c r="D6" s="20">
@@ -1853,16 +1886,16 @@
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="29">
+        <v>167</v>
+      </c>
+      <c r="C7" s="31">
         <v>28.2</v>
       </c>
       <c r="D7" s="20">
@@ -1870,16 +1903,16 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="17">
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="29">
+        <v>168</v>
+      </c>
+      <c r="C8" s="31">
         <v>32.09</v>
       </c>
       <c r="D8" s="20">
@@ -1887,16 +1920,16 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="17">
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="29">
+        <v>169</v>
+      </c>
+      <c r="C9" s="31">
         <v>15.04</v>
       </c>
       <c r="D9" s="20">
@@ -1904,16 +1937,16 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="29">
+        <v>170</v>
+      </c>
+      <c r="C10" s="31">
         <v>29.46</v>
       </c>
       <c r="D10" s="20">
@@ -1921,16 +1954,16 @@
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="17">
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="29">
+        <v>171</v>
+      </c>
+      <c r="C11" s="31">
         <v>26.4</v>
       </c>
       <c r="D11" s="20">
@@ -1938,16 +1971,16 @@
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="17">
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="29">
+        <v>172</v>
+      </c>
+      <c r="C12" s="31">
         <v>24.52</v>
       </c>
       <c r="D12" s="20">
@@ -1955,16 +1988,16 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="17">
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="29">
+        <v>173</v>
+      </c>
+      <c r="C13" s="31">
         <v>7.19</v>
       </c>
       <c r="D13" s="20">
@@ -1972,16 +2005,16 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="17">
         <v>12</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="29">
+        <v>174</v>
+      </c>
+      <c r="C14" s="31">
         <v>13.33</v>
       </c>
       <c r="D14" s="20">
@@ -1989,16 +2022,16 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="17">
         <v>13</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="29">
+        <v>175</v>
+      </c>
+      <c r="C15" s="31">
         <v>19.1</v>
       </c>
       <c r="D15" s="20">
@@ -2006,16 +2039,16 @@
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="17">
         <v>14</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="29">
+        <v>176</v>
+      </c>
+      <c r="C16" s="31">
         <v>25.43</v>
       </c>
       <c r="D16" s="20">
@@ -2023,16 +2056,16 @@
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="17">
         <v>15</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="29">
+        <v>177</v>
+      </c>
+      <c r="C17" s="31">
         <v>37.1</v>
       </c>
       <c r="D17" s="20">
@@ -2040,16 +2073,16 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="17">
         <v>16</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="29">
+        <v>178</v>
+      </c>
+      <c r="C18" s="31">
         <v>19.22</v>
       </c>
       <c r="D18" s="20">
@@ -2057,16 +2090,16 @@
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="17">
         <v>17</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="29">
+        <v>179</v>
+      </c>
+      <c r="C19" s="31">
         <v>9.48</v>
       </c>
       <c r="D19" s="20">
@@ -2074,16 +2107,16 @@
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="17">
         <v>18</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="29">
+        <v>180</v>
+      </c>
+      <c r="C20" s="31">
         <v>22.52</v>
       </c>
       <c r="D20" s="20">
@@ -2091,16 +2124,16 @@
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="17">
         <v>19</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="29">
+        <v>181</v>
+      </c>
+      <c r="C21" s="31">
         <v>10.07</v>
       </c>
       <c r="D21" s="20">
@@ -2108,16 +2141,16 @@
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="17">
         <v>20</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="29">
+        <v>182</v>
+      </c>
+      <c r="C22" s="31">
         <v>18.28</v>
       </c>
       <c r="D22" s="20">
@@ -2125,16 +2158,16 @@
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="17">
         <v>21</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="29">
+        <v>183</v>
+      </c>
+      <c r="C23" s="31">
         <v>16.07</v>
       </c>
       <c r="D23" s="20">
@@ -2142,16 +2175,16 @@
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="17">
         <v>22</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="29">
+        <v>184</v>
+      </c>
+      <c r="C24" s="31">
         <v>12.29</v>
       </c>
       <c r="D24" s="20">
@@ -2159,16 +2192,16 @@
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="17">
         <v>23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="29">
+        <v>185</v>
+      </c>
+      <c r="C25" s="31">
         <v>13.4</v>
       </c>
       <c r="D25" s="20">
@@ -2176,16 +2209,16 @@
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="17">
         <v>24</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="29">
+        <v>186</v>
+      </c>
+      <c r="C26" s="31">
         <v>8.25</v>
       </c>
       <c r="D26" s="20">
@@ -2193,16 +2226,16 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="17">
         <v>25</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="29">
+        <v>187</v>
+      </c>
+      <c r="C27" s="31">
         <v>5.13</v>
       </c>
       <c r="D27" s="20">
@@ -2210,16 +2243,16 @@
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="17">
         <v>26</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="29">
+        <v>188</v>
+      </c>
+      <c r="C28" s="31">
         <v>6.04</v>
       </c>
       <c r="D28" s="20">
@@ -2227,16 +2260,16 @@
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="17">
         <v>27</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="29">
+        <v>189</v>
+      </c>
+      <c r="C29" s="31">
         <v>6.09</v>
       </c>
       <c r="D29" s="20">
@@ -2244,16 +2277,16 @@
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="17">
         <v>28</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="29">
+        <v>190</v>
+      </c>
+      <c r="C30" s="31">
         <v>12.09</v>
       </c>
       <c r="D30" s="20">
@@ -2261,16 +2294,16 @@
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="17">
         <v>29</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="29">
+        <v>191</v>
+      </c>
+      <c r="C31" s="31">
         <v>12.09</v>
       </c>
       <c r="D31" s="20">
@@ -2278,16 +2311,16 @@
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="17">
         <v>30</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="29">
+        <v>192</v>
+      </c>
+      <c r="C32" s="31">
         <v>25.47</v>
       </c>
       <c r="D32" s="20">
@@ -2295,16 +2328,16 @@
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="17">
         <v>31</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="29">
+        <v>193</v>
+      </c>
+      <c r="C33" s="31">
         <v>10.16</v>
       </c>
       <c r="D33" s="20">
@@ -2312,16 +2345,16 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="17">
         <v>32</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="29">
+        <v>194</v>
+      </c>
+      <c r="C34" s="31">
         <v>17.23</v>
       </c>
       <c r="D34" s="20">
@@ -2329,16 +2362,16 @@
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="17">
         <v>33</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="29">
+        <v>195</v>
+      </c>
+      <c r="C35" s="31">
         <v>13.18</v>
       </c>
       <c r="D35" s="20">
@@ -2346,16 +2379,16 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="17">
         <v>34</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="29">
+        <v>196</v>
+      </c>
+      <c r="C36" s="31">
         <v>10.06</v>
       </c>
       <c r="D36" s="20">
@@ -2363,16 +2396,16 @@
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="17">
         <v>35</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="29">
+        <v>197</v>
+      </c>
+      <c r="C37" s="31">
         <v>2.3</v>
       </c>
       <c r="D37" s="20">
@@ -2380,16 +2413,16 @@
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="17">
         <v>36</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C38" s="29">
+        <v>198</v>
+      </c>
+      <c r="C38" s="31">
         <v>14.17</v>
       </c>
       <c r="D38" s="20">
@@ -2397,16 +2430,16 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="17">
         <v>37</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="29">
+        <v>199</v>
+      </c>
+      <c r="C39" s="31">
         <v>27.06</v>
       </c>
       <c r="D39" s="20">
@@ -2414,24 +2447,24 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="23"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="B40" s="43"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="4"/>
@@ -2443,10 +2476,10 @@
       <c r="B42" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="16" t="s">
@@ -2455,16 +2488,16 @@
       <c r="F42" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="17">
         <v>1</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="29">
+        <v>201</v>
+      </c>
+      <c r="C43" s="31">
         <v>17.33</v>
       </c>
       <c r="D43" s="20">
@@ -2472,16 +2505,16 @@
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="17">
         <v>2</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="29">
+        <v>202</v>
+      </c>
+      <c r="C44" s="31">
         <v>18.21</v>
       </c>
       <c r="D44" s="20">
@@ -2489,16 +2522,16 @@
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="17">
         <v>3</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="29">
+        <v>203</v>
+      </c>
+      <c r="C45" s="31">
         <v>13.01</v>
       </c>
       <c r="D45" s="20">
@@ -2506,16 +2539,16 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="17">
         <v>4</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="29">
+        <v>204</v>
+      </c>
+      <c r="C46" s="31">
         <v>10.17</v>
       </c>
       <c r="D46" s="20">
@@ -2523,16 +2556,16 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="17">
         <v>5</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="29">
+        <v>205</v>
+      </c>
+      <c r="C47" s="31">
         <v>16.56</v>
       </c>
       <c r="D47" s="20">
@@ -2540,16 +2573,16 @@
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="17">
         <v>6</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="29">
+        <v>206</v>
+      </c>
+      <c r="C48" s="31">
         <v>7.56</v>
       </c>
       <c r="D48" s="20">
@@ -2557,16 +2590,16 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="17">
         <v>7</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="29">
+        <v>207</v>
+      </c>
+      <c r="C49" s="31">
         <v>12.49</v>
       </c>
       <c r="D49" s="20">
@@ -2574,16 +2607,16 @@
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="17">
         <v>8</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="29">
+        <v>208</v>
+      </c>
+      <c r="C50" s="31">
         <v>7.13</v>
       </c>
       <c r="D50" s="20">
@@ -2591,16 +2624,16 @@
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="17">
         <v>9</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="29">
+        <v>209</v>
+      </c>
+      <c r="C51" s="31">
         <v>18.22</v>
       </c>
       <c r="D51" s="20">
@@ -2608,16 +2641,16 @@
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="17">
         <v>10</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" s="29">
+        <v>210</v>
+      </c>
+      <c r="C52" s="31">
         <v>23.21</v>
       </c>
       <c r="D52" s="20">
@@ -2625,16 +2658,16 @@
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="17">
         <v>11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" s="29">
+        <v>211</v>
+      </c>
+      <c r="C53" s="31">
         <v>28.28</v>
       </c>
       <c r="D53" s="20">
@@ -2642,16 +2675,16 @@
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="17">
         <v>12</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" s="29">
+        <v>212</v>
+      </c>
+      <c r="C54" s="31">
         <v>17.27</v>
       </c>
       <c r="D54" s="20">
@@ -2659,16 +2692,16 @@
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="17">
         <v>13</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="29">
+        <v>213</v>
+      </c>
+      <c r="C55" s="31">
         <v>11.51</v>
       </c>
       <c r="D55" s="20">
@@ -2676,16 +2709,16 @@
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="17">
         <v>14</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="29">
+        <v>214</v>
+      </c>
+      <c r="C56" s="31">
         <v>7.15</v>
       </c>
       <c r="D56" s="20">
@@ -2693,16 +2726,16 @@
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="17">
         <v>15</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="29">
+        <v>215</v>
+      </c>
+      <c r="C57" s="31">
         <v>9.02</v>
       </c>
       <c r="D57" s="20">
@@ -2710,24 +2743,24 @@
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="43"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A58" s="44"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A59" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B59" s="14"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="4"/>
@@ -2739,10 +2772,10 @@
       <c r="B60" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="16" t="s">
@@ -2751,16 +2784,16 @@
       <c r="F60" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="17">
         <v>1</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="29">
+        <v>217</v>
+      </c>
+      <c r="C61" s="31">
         <v>26.05</v>
       </c>
       <c r="D61" s="20">
@@ -2768,16 +2801,16 @@
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="17">
         <v>2</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C62" s="29">
+        <v>218</v>
+      </c>
+      <c r="C62" s="31">
         <v>12.51</v>
       </c>
       <c r="D62" s="20">
@@ -2785,16 +2818,16 @@
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="17">
         <v>3</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="29">
+        <v>219</v>
+      </c>
+      <c r="C63" s="31">
         <v>13.31</v>
       </c>
       <c r="D63" s="20">
@@ -2802,16 +2835,16 @@
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="17">
         <v>4</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="29">
+        <v>220</v>
+      </c>
+      <c r="C64" s="31">
         <v>24.56</v>
       </c>
       <c r="D64" s="20">
@@ -2819,16 +2852,16 @@
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="17">
         <v>5</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="29">
+        <v>221</v>
+      </c>
+      <c r="C65" s="31">
         <v>18.08</v>
       </c>
       <c r="D65" s="20">
@@ -2836,16 +2869,16 @@
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="17">
         <v>6</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C66" s="29">
+        <v>222</v>
+      </c>
+      <c r="C66" s="31">
         <v>13.55</v>
       </c>
       <c r="D66" s="20">
@@ -2853,16 +2886,16 @@
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="17">
         <v>7</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C67" s="29">
+        <v>223</v>
+      </c>
+      <c r="C67" s="31">
         <v>29.41</v>
       </c>
       <c r="D67" s="20">
@@ -2870,16 +2903,16 @@
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="17">
         <v>8</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C68" s="29">
+        <v>224</v>
+      </c>
+      <c r="C68" s="31">
         <v>10.49</v>
       </c>
       <c r="D68" s="20">
@@ -2887,16 +2920,16 @@
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="17">
         <v>9</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" s="29">
+        <v>225</v>
+      </c>
+      <c r="C69" s="31">
         <v>16.02</v>
       </c>
       <c r="D69" s="20">
@@ -2904,16 +2937,16 @@
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="17">
         <v>10</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="29">
+        <v>226</v>
+      </c>
+      <c r="C70" s="31">
         <v>10.48</v>
       </c>
       <c r="D70" s="20">
@@ -2921,16 +2954,16 @@
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="17">
         <v>11</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" s="29">
+        <v>227</v>
+      </c>
+      <c r="C71" s="31">
         <v>20.49</v>
       </c>
       <c r="D71" s="20">
@@ -2938,24 +2971,24 @@
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="23"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="B72" s="43"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="14"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="4"/>
@@ -2967,10 +3000,10 @@
       <c r="B74" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="16" t="s">
@@ -2979,84 +3012,84 @@
       <c r="F74" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="1"/>
+      <c r="G74" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="17">
         <v>1</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="44">
-        <v>1.121400462962963</v>
+        <v>228</v>
+      </c>
+      <c r="C75" s="48">
+        <v>2.121284722222222</v>
       </c>
       <c r="D75" s="20">
         <v>45374</v>
       </c>
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="17">
         <v>2</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" s="44">
-        <v>1.121400462962963</v>
+        <v>228</v>
+      </c>
+      <c r="C76" s="48">
+        <v>2.121284722222222</v>
       </c>
       <c r="D76" s="20">
         <v>45375</v>
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="17">
         <v>3</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C77" s="44">
-        <v>1.121400462962963</v>
+        <v>228</v>
+      </c>
+      <c r="C77" s="48">
+        <v>2.121284722222222</v>
       </c>
       <c r="D77" s="20">
         <v>45376</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="17">
         <v>4</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="44">
-        <v>1.121400462962963</v>
+        <v>228</v>
+      </c>
+      <c r="C78" s="48">
+        <v>2.121284722222222</v>
       </c>
       <c r="D78" s="20">
         <v>45377</v>
       </c>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="17">
         <v>5</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="29">
+        <v>229</v>
+      </c>
+      <c r="C79" s="31">
         <v>10.13</v>
       </c>
       <c r="D79" s="20">
@@ -3064,16 +3097,16 @@
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="17">
         <v>6</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C80" s="29">
+        <v>230</v>
+      </c>
+      <c r="C80" s="31">
         <v>9.05</v>
       </c>
       <c r="D80" s="20">
@@ -3081,16 +3114,16 @@
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="17">
         <v>7</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" s="29">
+        <v>231</v>
+      </c>
+      <c r="C81" s="31">
         <v>3.39</v>
       </c>
       <c r="D81" s="20">
@@ -3098,16 +3131,16 @@
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="17">
         <v>8</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="29">
+        <v>232</v>
+      </c>
+      <c r="C82" s="31">
         <v>8.27</v>
       </c>
       <c r="D82" s="20">
@@ -3115,16 +3148,16 @@
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="17">
         <v>9</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="C83" s="29">
+        <v>233</v>
+      </c>
+      <c r="C83" s="31">
         <v>7.21</v>
       </c>
       <c r="D83" s="20">
@@ -3132,16 +3165,16 @@
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="17">
         <v>10</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" s="29">
+        <v>234</v>
+      </c>
+      <c r="C84" s="31">
         <v>9.04</v>
       </c>
       <c r="D84" s="20">
@@ -3149,16 +3182,16 @@
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="17">
         <v>11</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="C85" s="29">
+        <v>235</v>
+      </c>
+      <c r="C85" s="31">
         <v>14.14</v>
       </c>
       <c r="D85" s="20">
@@ -3166,16 +3199,16 @@
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="17">
         <v>12</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="29">
+        <v>236</v>
+      </c>
+      <c r="C86" s="31">
         <v>14.01</v>
       </c>
       <c r="D86" s="20">
@@ -3183,16 +3216,16 @@
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="1"/>
+      <c r="G86" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="17">
         <v>13</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" s="29">
+        <v>237</v>
+      </c>
+      <c r="C87" s="31">
         <v>11.17</v>
       </c>
       <c r="D87" s="20">
@@ -3200,14 +3233,14 @@
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="1"/>
+      <c r="G87" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="17">
         <v>14</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C88" s="17">
         <v>12</v>
@@ -3217,16 +3250,16 @@
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="1"/>
+      <c r="G88" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="17">
         <v>15</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C89" s="29">
+        <v>239</v>
+      </c>
+      <c r="C89" s="31">
         <v>12.33</v>
       </c>
       <c r="D89" s="20">
@@ -3234,16 +3267,16 @@
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="1"/>
+      <c r="G89" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="17">
         <v>16</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C90" s="29">
+        <v>240</v>
+      </c>
+      <c r="C90" s="31">
         <v>10.57</v>
       </c>
       <c r="D90" s="20">
@@ -3251,16 +3284,16 @@
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="17">
         <v>17</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C91" s="29">
+        <v>241</v>
+      </c>
+      <c r="C91" s="31">
         <v>10.13</v>
       </c>
       <c r="D91" s="20">
@@ -3268,16 +3301,16 @@
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="19"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="17">
         <v>18</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C92" s="29">
+        <v>242</v>
+      </c>
+      <c r="C92" s="31">
         <v>17.37</v>
       </c>
       <c r="D92" s="20">
@@ -3285,16 +3318,16 @@
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="17">
         <v>19</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C93" s="29">
+        <v>243</v>
+      </c>
+      <c r="C93" s="31">
         <v>9.28</v>
       </c>
       <c r="D93" s="20">
@@ -3302,16 +3335,16 @@
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="19"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="17">
         <v>20</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C94" s="29">
+        <v>244</v>
+      </c>
+      <c r="C94" s="31">
         <v>7.18</v>
       </c>
       <c r="D94" s="20">
@@ -3319,16 +3352,16 @@
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="19"/>
-      <c r="G94" s="1"/>
+      <c r="G94" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="17">
         <v>21</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C95" s="29">
+        <v>245</v>
+      </c>
+      <c r="C95" s="31">
         <v>7.54</v>
       </c>
       <c r="D95" s="20">
@@ -3336,16 +3369,16 @@
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="19"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="17">
         <v>22</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C96" s="29">
+        <v>246</v>
+      </c>
+      <c r="C96" s="31">
         <v>25.46</v>
       </c>
       <c r="D96" s="20">
@@ -3353,16 +3386,16 @@
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="19"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="17">
         <v>23</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C97" s="29">
+        <v>247</v>
+      </c>
+      <c r="C97" s="31">
         <v>8.47</v>
       </c>
       <c r="D97" s="20">
@@ -3370,16 +3403,16 @@
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="19"/>
-      <c r="G97" s="1"/>
+      <c r="G97" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="17">
         <v>24</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C98" s="29">
+        <v>248</v>
+      </c>
+      <c r="C98" s="31">
         <v>5.43</v>
       </c>
       <c r="D98" s="20">
@@ -3387,16 +3420,16 @@
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="19"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="17">
         <v>25</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C99" s="29">
+        <v>249</v>
+      </c>
+      <c r="C99" s="31">
         <v>12.35</v>
       </c>
       <c r="D99" s="20">
@@ -3404,16 +3437,16 @@
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="19"/>
-      <c r="G99" s="1"/>
+      <c r="G99" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="17">
         <v>26</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C100" s="29">
+        <v>250</v>
+      </c>
+      <c r="C100" s="31">
         <v>4.06</v>
       </c>
       <c r="D100" s="20">
@@ -3421,16 +3454,16 @@
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="19"/>
-      <c r="G100" s="1"/>
+      <c r="G100" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="17">
         <v>27</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C101" s="29">
+        <v>251</v>
+      </c>
+      <c r="C101" s="31">
         <v>14.59</v>
       </c>
       <c r="D101" s="20">
@@ -3438,16 +3471,16 @@
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="19"/>
-      <c r="G101" s="1"/>
+      <c r="G101" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="17">
         <v>28</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="C102" s="29">
+        <v>252</v>
+      </c>
+      <c r="C102" s="31">
         <v>18.2</v>
       </c>
       <c r="D102" s="20">
@@ -3455,16 +3488,16 @@
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="19"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="17">
         <v>29</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C103" s="29">
+        <v>253</v>
+      </c>
+      <c r="C103" s="31">
         <v>13.41</v>
       </c>
       <c r="D103" s="20">
@@ -3472,16 +3505,16 @@
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="19"/>
-      <c r="G103" s="1"/>
+      <c r="G103" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="17">
         <v>30</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="C104" s="29">
+        <v>254</v>
+      </c>
+      <c r="C104" s="31">
         <v>11.59</v>
       </c>
       <c r="D104" s="20">
@@ -3489,850 +3522,850 @@
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="19"/>
-      <c r="G104" s="1"/>
+      <c r="G104" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="23"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="23"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="23"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="23"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="23"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="23"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="23"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="23"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="23"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="23"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="23"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="23"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="23"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="23"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="23"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="23"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="23"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="23"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="23"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="23"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="23"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="23"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="23"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="23"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="23"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="23"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="45"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="23"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="45"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="23"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="23"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="23"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="45"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="23"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="23"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="23"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="45"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="23"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="45"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="23"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="45"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="23"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="23"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="45"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="23"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="45"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="23"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="45"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="23"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="23"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="45"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="49"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="23"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="23"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="45"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="23"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="23"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="23"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="23"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="49"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="23"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="23"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="23"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="45"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="23"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="45"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="49"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="23"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="45"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="23"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="31"/>
-      <c r="E157" s="45"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="B157" s="43"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="49"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="23"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="45"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="49"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="23"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="45"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="B159" s="43"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="49"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="23"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="45"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="49"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="23"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="45"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="49"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="23"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="45"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="23"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="45"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="49"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="23"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="45"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="49"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="23"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="45"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="49"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="23"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="45"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="49"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="23"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="45"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="49"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="23"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="45"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="23"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="45"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="49"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="23"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="45"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
+      <c r="B170" s="43"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="49"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="23"/>
-      <c r="B171" s="41"/>
-      <c r="C171" s="46"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A172" s="40"/>
-      <c r="B172" s="41"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="43"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A172" s="44"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="47"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A173" s="40"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="43"/>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A173" s="44"/>
+      <c r="B173" s="45"/>
+      <c r="C173" s="46"/>
+      <c r="D173" s="47"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A174" s="40"/>
-      <c r="B174" s="41"/>
-      <c r="C174" s="42"/>
-      <c r="D174" s="43"/>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A174" s="44"/>
+      <c r="B174" s="45"/>
+      <c r="C174" s="46"/>
+      <c r="D174" s="47"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A175" s="40"/>
-      <c r="B175" s="41"/>
-      <c r="C175" s="42"/>
-      <c r="D175" s="43"/>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A175" s="44"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="47"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A176" s="40"/>
-      <c r="B176" s="41"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="43"/>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A176" s="44"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="47"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A177" s="40"/>
-      <c r="B177" s="41"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="43"/>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A177" s="44"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="46"/>
+      <c r="D177" s="47"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A178" s="40"/>
-      <c r="B178" s="41"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="43"/>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A178" s="44"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="46"/>
+      <c r="D178" s="47"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A179" s="40"/>
-      <c r="B179" s="41"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="43"/>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A179" s="44"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="47"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A180" s="40"/>
-      <c r="B180" s="41"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="43"/>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A180" s="44"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="47"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A181" s="40"/>
-      <c r="B181" s="41"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="43"/>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A181" s="44"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="46"/>
+      <c r="D181" s="47"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A182" s="40"/>
-      <c r="B182" s="41"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="43"/>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A182" s="44"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="47"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A183" s="40"/>
-      <c r="B183" s="41"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="43"/>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A183" s="44"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="47"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A184" s="40"/>
-      <c r="B184" s="41"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="43"/>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A184" s="44"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="47"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A185" s="40"/>
-      <c r="B185" s="41"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="43"/>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A185" s="44"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="47"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A186" s="40"/>
-      <c r="B186" s="41"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="43"/>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A186" s="44"/>
+      <c r="B186" s="45"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="47"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A187" s="40"/>
-      <c r="B187" s="41"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="43"/>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A187" s="44"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="46"/>
+      <c r="D187" s="47"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A188" s="40"/>
-      <c r="B188" s="41"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="43"/>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A188" s="44"/>
+      <c r="B188" s="45"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="47"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A189" s="40"/>
-      <c r="B189" s="41"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="43"/>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A189" s="44"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="47"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A190" s="40"/>
-      <c r="B190" s="41"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="43"/>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A190" s="44"/>
+      <c r="B190" s="45"/>
+      <c r="C190" s="46"/>
+      <c r="D190" s="47"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A191" s="40"/>
-      <c r="B191" s="41"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="43"/>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A191" s="44"/>
+      <c r="B191" s="45"/>
+      <c r="C191" s="46"/>
+      <c r="D191" s="47"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A192" s="40"/>
-      <c r="B192" s="41"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="43"/>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A192" s="44"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="47"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A193" s="40"/>
-      <c r="B193" s="41"/>
-      <c r="C193" s="42"/>
-      <c r="D193" s="43"/>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A193" s="44"/>
+      <c r="B193" s="45"/>
+      <c r="C193" s="46"/>
+      <c r="D193" s="47"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A194" s="40"/>
-      <c r="B194" s="41"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="43"/>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A194" s="44"/>
+      <c r="B194" s="45"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="47"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A195" s="40"/>
-      <c r="B195" s="41"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="43"/>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A195" s="44"/>
+      <c r="B195" s="45"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="47"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A196" s="40"/>
-      <c r="B196" s="41"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="43"/>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A196" s="44"/>
+      <c r="B196" s="45"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="47"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A197" s="40"/>
-      <c r="B197" s="41"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="43"/>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A197" s="44"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="47"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A198" s="40"/>
-      <c r="B198" s="41"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="43"/>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A198" s="44"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="46"/>
+      <c r="D198" s="47"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -4359,22 +4392,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="43.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="33" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="43.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="26" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="26" width="9.862142857142858" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="4"/>
@@ -4386,10 +4419,10 @@
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="16" t="s">
@@ -4398,7 +4431,7 @@
       <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="17">
@@ -4407,7 +4440,7 @@
       <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="31">
         <v>15.45</v>
       </c>
       <c r="D3" s="20">
@@ -4415,7 +4448,7 @@
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="17">
@@ -4424,7 +4457,7 @@
       <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="31">
         <v>1.08</v>
       </c>
       <c r="D4" s="20">
@@ -4432,7 +4465,7 @@
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="17">
@@ -4441,7 +4474,7 @@
       <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="31">
         <v>13.03</v>
       </c>
       <c r="D5" s="20">
@@ -4449,7 +4482,7 @@
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="17">
@@ -4458,7 +4491,7 @@
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="31">
         <v>19.1</v>
       </c>
       <c r="D6" s="20">
@@ -4466,7 +4499,7 @@
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="17">
@@ -4475,7 +4508,7 @@
       <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="31">
         <v>0.16</v>
       </c>
       <c r="D7" s="20">
@@ -4483,7 +4516,7 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="17">
@@ -4492,7 +4525,7 @@
       <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="31">
         <v>14.01</v>
       </c>
       <c r="D8" s="20">
@@ -4500,7 +4533,7 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="17">
@@ -4509,7 +4542,7 @@
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="31">
         <v>8.52</v>
       </c>
       <c r="D9" s="20">
@@ -4517,7 +4550,7 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="17">
@@ -4526,7 +4559,7 @@
       <c r="B10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="31">
         <v>0.18</v>
       </c>
       <c r="D10" s="20">
@@ -4534,7 +4567,7 @@
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="17">
@@ -4543,7 +4576,7 @@
       <c r="B11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="31">
         <v>8.35</v>
       </c>
       <c r="D11" s="20">
@@ -4551,7 +4584,7 @@
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="17">
@@ -4560,7 +4593,7 @@
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="31">
         <v>7.35</v>
       </c>
       <c r="D12" s="20">
@@ -4568,7 +4601,7 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="17">
@@ -4577,7 +4610,7 @@
       <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="31">
         <v>11.4</v>
       </c>
       <c r="D13" s="20">
@@ -4585,7 +4618,7 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="17">
@@ -4594,7 +4627,7 @@
       <c r="B14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="31">
         <v>11.09</v>
       </c>
       <c r="D14" s="20">
@@ -4602,7 +4635,7 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="17">
@@ -4611,7 +4644,7 @@
       <c r="B15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="31">
         <v>15.16</v>
       </c>
       <c r="D15" s="20">
@@ -4619,7 +4652,7 @@
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="17">
@@ -4628,7 +4661,7 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="31">
         <v>9.31</v>
       </c>
       <c r="D16" s="20">
@@ -4636,7 +4669,7 @@
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="17">
@@ -4645,7 +4678,7 @@
       <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="31">
         <v>9.16</v>
       </c>
       <c r="D17" s="20">
@@ -4653,7 +4686,7 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="17">
@@ -4662,7 +4695,7 @@
       <c r="B18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="31">
         <v>14.09</v>
       </c>
       <c r="D18" s="20">
@@ -4670,7 +4703,7 @@
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="17">
@@ -4679,7 +4712,7 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="31">
         <v>14.54</v>
       </c>
       <c r="D19" s="20">
@@ -4687,7 +4720,7 @@
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="17">
@@ -4696,7 +4729,7 @@
       <c r="B20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="31">
         <v>8.57</v>
       </c>
       <c r="D20" s="20">
@@ -4704,7 +4737,7 @@
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="17">
@@ -4713,7 +4746,7 @@
       <c r="B21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="31">
         <v>16.55</v>
       </c>
       <c r="D21" s="20">
@@ -4721,7 +4754,7 @@
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="17">
@@ -4738,7 +4771,7 @@
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="17">
@@ -4747,7 +4780,7 @@
       <c r="B23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="31">
         <v>4.25</v>
       </c>
       <c r="D23" s="20">
@@ -4755,7 +4788,7 @@
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="17">
@@ -4764,7 +4797,7 @@
       <c r="B24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="31">
         <v>10.16</v>
       </c>
       <c r="D24" s="20">
@@ -4772,7 +4805,7 @@
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="17">
@@ -4781,7 +4814,7 @@
       <c r="B25" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="31">
         <v>24.08</v>
       </c>
       <c r="D25" s="20">
@@ -4789,7 +4822,7 @@
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="17">
@@ -4798,7 +4831,7 @@
       <c r="B26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="31">
         <v>0.29</v>
       </c>
       <c r="D26" s="20">
@@ -4806,7 +4839,7 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="17">
@@ -4815,7 +4848,7 @@
       <c r="B27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="31">
         <v>24.46</v>
       </c>
       <c r="D27" s="20">
@@ -4823,7 +4856,7 @@
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="17">
@@ -4832,7 +4865,7 @@
       <c r="B28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="31">
         <v>0.19</v>
       </c>
       <c r="D28" s="20">
@@ -4840,7 +4873,7 @@
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="17">
@@ -4849,7 +4882,7 @@
       <c r="B29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="31">
         <v>15.03</v>
       </c>
       <c r="D29" s="20">
@@ -4857,7 +4890,7 @@
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="17">
@@ -4866,7 +4899,7 @@
       <c r="B30" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="31">
         <v>5.51</v>
       </c>
       <c r="D30" s="20">
@@ -4874,7 +4907,7 @@
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="17">
@@ -4883,7 +4916,7 @@
       <c r="B31" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="31">
         <v>8.45</v>
       </c>
       <c r="D31" s="20">
@@ -4891,7 +4924,7 @@
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="17">
@@ -4900,7 +4933,7 @@
       <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="31">
         <v>0.18</v>
       </c>
       <c r="D32" s="20">
@@ -4908,7 +4941,7 @@
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="17">
@@ -4917,7 +4950,7 @@
       <c r="B33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="31">
         <v>8.36</v>
       </c>
       <c r="D33" s="20">
@@ -4925,7 +4958,7 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="17">
@@ -4934,7 +4967,7 @@
       <c r="B34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="31">
         <v>16.52</v>
       </c>
       <c r="D34" s="20">
@@ -4942,7 +4975,7 @@
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="17">
@@ -4951,7 +4984,7 @@
       <c r="B35" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="31">
         <v>13.16</v>
       </c>
       <c r="D35" s="20">
@@ -4959,7 +4992,7 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="17">
@@ -4968,7 +5001,7 @@
       <c r="B36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="31">
         <v>17.01</v>
       </c>
       <c r="D36" s="20">
@@ -4976,7 +5009,7 @@
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="17">
@@ -4985,7 +5018,7 @@
       <c r="B37" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="31">
         <v>15.07</v>
       </c>
       <c r="D37" s="20">
@@ -4993,7 +5026,7 @@
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="17">
@@ -5002,7 +5035,7 @@
       <c r="B38" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="31">
         <v>10.21</v>
       </c>
       <c r="D38" s="20">
@@ -5010,7 +5043,7 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="17">
@@ -5019,7 +5052,7 @@
       <c r="B39" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="31">
         <v>0.34</v>
       </c>
       <c r="D39" s="20">
@@ -5027,7 +5060,7 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="17">
@@ -5036,7 +5069,7 @@
       <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="31">
         <v>14.22</v>
       </c>
       <c r="D40" s="20">
@@ -5044,7 +5077,7 @@
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="17">
@@ -5053,7 +5086,7 @@
       <c r="B41" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="31">
         <v>10.5</v>
       </c>
       <c r="D41" s="20">
@@ -5061,7 +5094,7 @@
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="17">
@@ -5070,7 +5103,7 @@
       <c r="B42" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="31">
         <v>7.57</v>
       </c>
       <c r="D42" s="20">
@@ -5078,7 +5111,7 @@
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="17">
@@ -5087,7 +5120,7 @@
       <c r="B43" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="31">
         <v>5.11</v>
       </c>
       <c r="D43" s="20">
@@ -5095,7 +5128,7 @@
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="17">
@@ -5104,7 +5137,7 @@
       <c r="B44" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="31">
         <v>10.07</v>
       </c>
       <c r="D44" s="20">
@@ -5112,7 +5145,7 @@
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="17">
@@ -5121,7 +5154,7 @@
       <c r="B45" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="31">
         <v>7.39</v>
       </c>
       <c r="D45" s="20">
@@ -5129,7 +5162,7 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="17">
@@ -5138,7 +5171,7 @@
       <c r="B46" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="31">
         <v>9.22</v>
       </c>
       <c r="D46" s="20">
@@ -5146,7 +5179,7 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="17">
@@ -5155,7 +5188,7 @@
       <c r="B47" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="31">
         <v>9.29</v>
       </c>
       <c r="D47" s="20">
@@ -5163,7 +5196,7 @@
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="17">
@@ -5172,7 +5205,7 @@
       <c r="B48" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="31">
         <v>7.16</v>
       </c>
       <c r="D48" s="20">
@@ -5180,7 +5213,7 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="17">
@@ -5189,7 +5222,7 @@
       <c r="B49" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="31">
         <v>6.1</v>
       </c>
       <c r="D49" s="20">
@@ -5197,7 +5230,7 @@
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="17">
@@ -5206,7 +5239,7 @@
       <c r="B50" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="31">
         <v>6.36</v>
       </c>
       <c r="D50" s="20">
@@ -5214,7 +5247,7 @@
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="17">
@@ -5223,7 +5256,7 @@
       <c r="B51" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="31">
         <v>7.32</v>
       </c>
       <c r="D51" s="20">
@@ -5231,7 +5264,7 @@
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="17">
@@ -5240,7 +5273,7 @@
       <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="31">
         <v>6.15</v>
       </c>
       <c r="D52" s="20">
@@ -5248,7 +5281,7 @@
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="17">
@@ -5257,7 +5290,7 @@
       <c r="B53" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="31">
         <v>6.07</v>
       </c>
       <c r="D53" s="20">
@@ -5265,7 +5298,7 @@
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="17">
@@ -5274,7 +5307,7 @@
       <c r="B54" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="31">
         <v>5.04</v>
       </c>
       <c r="D54" s="20">
@@ -5282,7 +5315,7 @@
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="17">
@@ -5291,7 +5324,7 @@
       <c r="B55" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="31">
         <v>9.41</v>
       </c>
       <c r="D55" s="20">
@@ -5299,7 +5332,7 @@
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="17">
@@ -5308,7 +5341,7 @@
       <c r="B56" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="31">
         <v>6.12</v>
       </c>
       <c r="D56" s="20">
@@ -5316,7 +5349,7 @@
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="17">
@@ -5325,7 +5358,7 @@
       <c r="B57" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="31">
         <v>4.11</v>
       </c>
       <c r="D57" s="20">
@@ -5333,7 +5366,7 @@
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="17">
@@ -5342,7 +5375,7 @@
       <c r="B58" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="31">
         <v>9.3</v>
       </c>
       <c r="D58" s="20">
@@ -5350,7 +5383,7 @@
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="17">
@@ -5359,7 +5392,7 @@
       <c r="B59" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="31">
         <v>8.06</v>
       </c>
       <c r="D59" s="20">
@@ -5367,7 +5400,7 @@
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="17">
@@ -5376,7 +5409,7 @@
       <c r="B60" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="29">
+      <c r="C60" s="31">
         <v>10.35</v>
       </c>
       <c r="D60" s="20">
@@ -5384,7 +5417,7 @@
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="17">
@@ -5393,7 +5426,7 @@
       <c r="B61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="29">
+      <c r="C61" s="31">
         <v>9.22</v>
       </c>
       <c r="D61" s="20">
@@ -5401,7 +5434,7 @@
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="17">
@@ -5410,7 +5443,7 @@
       <c r="B62" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="29">
+      <c r="C62" s="31">
         <v>8.05</v>
       </c>
       <c r="D62" s="20">
@@ -5418,7 +5451,7 @@
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="17">
@@ -5427,7 +5460,7 @@
       <c r="B63" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="31">
         <v>14.14</v>
       </c>
       <c r="D63" s="20">
@@ -5435,7 +5468,7 @@
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="17">
@@ -5444,7 +5477,7 @@
       <c r="B64" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="31">
         <v>14.38</v>
       </c>
       <c r="D64" s="20">
@@ -5452,7 +5485,7 @@
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="17">
@@ -5461,7 +5494,7 @@
       <c r="B65" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="29">
+      <c r="C65" s="31">
         <v>13.16</v>
       </c>
       <c r="D65" s="20">
@@ -5469,7 +5502,7 @@
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="17">
@@ -5478,7 +5511,7 @@
       <c r="B66" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="31">
         <v>5.57</v>
       </c>
       <c r="D66" s="20">
@@ -5486,7 +5519,7 @@
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="17">
@@ -5495,7 +5528,7 @@
       <c r="B67" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C67" s="31">
         <v>12.55</v>
       </c>
       <c r="D67" s="20">
@@ -5503,7 +5536,7 @@
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="17">
@@ -5512,7 +5545,7 @@
       <c r="B68" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="31">
         <v>0.15</v>
       </c>
       <c r="D68" s="20">
@@ -5520,24 +5553,24 @@
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="23"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="29" customFormat="1" s="3">
+      <c r="B69" s="24"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="29" customFormat="1" s="1">
       <c r="A70" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="14"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="4"/>
@@ -5549,10 +5582,10 @@
       <c r="B71" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="16" t="s">
@@ -5561,7 +5594,7 @@
       <c r="F71" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="17">
@@ -5570,7 +5603,7 @@
       <c r="B72" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="29">
+      <c r="C72" s="31">
         <v>4.13</v>
       </c>
       <c r="D72" s="20">
@@ -5578,7 +5611,7 @@
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="17">
@@ -5587,7 +5620,7 @@
       <c r="B73" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="29">
+      <c r="C73" s="31">
         <v>6.33</v>
       </c>
       <c r="D73" s="20">
@@ -5595,7 +5628,7 @@
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="17">
@@ -5604,7 +5637,7 @@
       <c r="B74" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="29">
+      <c r="C74" s="31">
         <v>7.05</v>
       </c>
       <c r="D74" s="20">
@@ -5612,7 +5645,7 @@
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="17">
@@ -5621,7 +5654,7 @@
       <c r="B75" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="29">
+      <c r="C75" s="31">
         <v>5.05</v>
       </c>
       <c r="D75" s="20">
@@ -5629,7 +5662,7 @@
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="17">
@@ -5638,7 +5671,7 @@
       <c r="B76" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="29">
+      <c r="C76" s="31">
         <v>2.29</v>
       </c>
       <c r="D76" s="20">
@@ -5646,7 +5679,7 @@
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="17">
@@ -5655,7 +5688,7 @@
       <c r="B77" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="29">
+      <c r="C77" s="31">
         <v>4.42</v>
       </c>
       <c r="D77" s="20">
@@ -5663,7 +5696,7 @@
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="17">
@@ -5672,7 +5705,7 @@
       <c r="B78" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="29">
+      <c r="C78" s="31">
         <v>11.17</v>
       </c>
       <c r="D78" s="20">
@@ -5680,7 +5713,7 @@
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="17">
@@ -5689,7 +5722,7 @@
       <c r="B79" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="31">
         <v>6.17</v>
       </c>
       <c r="D79" s="20">
@@ -5697,7 +5730,7 @@
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="17">
@@ -5706,7 +5739,7 @@
       <c r="B80" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="29">
+      <c r="C80" s="31">
         <v>9.02</v>
       </c>
       <c r="D80" s="20">
@@ -5714,7 +5747,7 @@
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="17">
@@ -5723,7 +5756,7 @@
       <c r="B81" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="29">
+      <c r="C81" s="31">
         <v>8.02</v>
       </c>
       <c r="D81" s="20">
@@ -5731,7 +5764,7 @@
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="17">
@@ -5740,7 +5773,7 @@
       <c r="B82" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="29">
+      <c r="C82" s="31">
         <v>9.4</v>
       </c>
       <c r="D82" s="20">
@@ -5748,7 +5781,7 @@
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="17">
@@ -5757,7 +5790,7 @@
       <c r="B83" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="29">
+      <c r="C83" s="31">
         <v>8.21</v>
       </c>
       <c r="D83" s="20">
@@ -5765,7 +5798,7 @@
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="17">
@@ -5774,7 +5807,7 @@
       <c r="B84" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="29">
+      <c r="C84" s="31">
         <v>9.29</v>
       </c>
       <c r="D84" s="20">
@@ -5782,7 +5815,7 @@
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="17">
@@ -5791,7 +5824,7 @@
       <c r="B85" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="29">
+      <c r="C85" s="31">
         <v>15.19</v>
       </c>
       <c r="D85" s="20">
@@ -5799,7 +5832,7 @@
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="17">
@@ -5808,7 +5841,7 @@
       <c r="B86" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="29">
+      <c r="C86" s="31">
         <v>6.57</v>
       </c>
       <c r="D86" s="20">
@@ -5816,7 +5849,7 @@
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="1"/>
+      <c r="G86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="17">
@@ -5825,7 +5858,7 @@
       <c r="B87" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="29">
+      <c r="C87" s="31">
         <v>6.18</v>
       </c>
       <c r="D87" s="20">
@@ -5833,7 +5866,7 @@
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="1"/>
+      <c r="G87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="17">
@@ -5842,7 +5875,7 @@
       <c r="B88" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="29">
+      <c r="C88" s="31">
         <v>5.48</v>
       </c>
       <c r="D88" s="20">
@@ -5850,7 +5883,7 @@
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="1"/>
+      <c r="G88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="17">
@@ -5859,7 +5892,7 @@
       <c r="B89" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="29">
+      <c r="C89" s="31">
         <v>7.1</v>
       </c>
       <c r="D89" s="20">
@@ -5867,7 +5900,7 @@
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="1"/>
+      <c r="G89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="17">
@@ -5876,7 +5909,7 @@
       <c r="B90" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="29">
+      <c r="C90" s="31">
         <v>6.34</v>
       </c>
       <c r="D90" s="20">
@@ -5884,7 +5917,7 @@
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="17">
@@ -5893,7 +5926,7 @@
       <c r="B91" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="29">
+      <c r="C91" s="31">
         <v>7.14</v>
       </c>
       <c r="D91" s="20">
@@ -5901,7 +5934,7 @@
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="17">
@@ -5910,7 +5943,7 @@
       <c r="B92" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="29">
+      <c r="C92" s="31">
         <v>9.45</v>
       </c>
       <c r="D92" s="20">
@@ -5918,7 +5951,7 @@
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="17">
@@ -5927,7 +5960,7 @@
       <c r="B93" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="29">
+      <c r="C93" s="31">
         <v>7.12</v>
       </c>
       <c r="D93" s="20">
@@ -5935,7 +5968,7 @@
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="17">
@@ -5944,7 +5977,7 @@
       <c r="B94" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="29">
+      <c r="C94" s="31">
         <v>5.46</v>
       </c>
       <c r="D94" s="20">
@@ -5952,7 +5985,7 @@
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
-      <c r="G94" s="1"/>
+      <c r="G94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="17">
@@ -5961,7 +5994,7 @@
       <c r="B95" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="29">
+      <c r="C95" s="31">
         <v>13.51</v>
       </c>
       <c r="D95" s="20">
@@ -5969,7 +6002,7 @@
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="17">
@@ -5978,7 +6011,7 @@
       <c r="B96" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="29">
+      <c r="C96" s="31">
         <v>12.21</v>
       </c>
       <c r="D96" s="20">
@@ -5986,7 +6019,7 @@
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="17">
@@ -5995,7 +6028,7 @@
       <c r="B97" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="29">
+      <c r="C97" s="31">
         <v>8.45</v>
       </c>
       <c r="D97" s="20">
@@ -6003,7 +6036,7 @@
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
-      <c r="G97" s="1"/>
+      <c r="G97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="17">
@@ -6012,7 +6045,7 @@
       <c r="B98" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="29">
+      <c r="C98" s="31">
         <v>12.35</v>
       </c>
       <c r="D98" s="20">
@@ -6020,7 +6053,7 @@
       </c>
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="17">
@@ -6029,7 +6062,7 @@
       <c r="B99" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="29">
+      <c r="C99" s="31">
         <v>5.39</v>
       </c>
       <c r="D99" s="20">
@@ -6037,7 +6070,7 @@
       </c>
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
-      <c r="G99" s="1"/>
+      <c r="G99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="17">
@@ -6046,7 +6079,7 @@
       <c r="B100" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="29">
+      <c r="C100" s="31">
         <v>9.59</v>
       </c>
       <c r="D100" s="20">
@@ -6054,7 +6087,7 @@
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
-      <c r="G100" s="1"/>
+      <c r="G100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="17">
@@ -6063,7 +6096,7 @@
       <c r="B101" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="29">
+      <c r="C101" s="31">
         <v>9.57</v>
       </c>
       <c r="D101" s="20">
@@ -6071,7 +6104,7 @@
       </c>
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
-      <c r="G101" s="1"/>
+      <c r="G101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="17">
@@ -6080,7 +6113,7 @@
       <c r="B102" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="29">
+      <c r="C102" s="31">
         <v>17.55</v>
       </c>
       <c r="D102" s="20">
@@ -6088,7 +6121,7 @@
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="17">
@@ -6097,7 +6130,7 @@
       <c r="B103" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C103" s="29">
+      <c r="C103" s="31">
         <v>12.14</v>
       </c>
       <c r="D103" s="20">
@@ -6105,7 +6138,7 @@
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
-      <c r="G103" s="1"/>
+      <c r="G103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="17">
@@ -6114,7 +6147,7 @@
       <c r="B104" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C104" s="29">
+      <c r="C104" s="31">
         <v>8.33</v>
       </c>
       <c r="D104" s="20">
@@ -6122,7 +6155,7 @@
       </c>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
-      <c r="G104" s="1"/>
+      <c r="G104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="17">
@@ -6131,7 +6164,7 @@
       <c r="B105" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="29">
+      <c r="C105" s="31">
         <v>7.41</v>
       </c>
       <c r="D105" s="20">
@@ -6139,7 +6172,7 @@
       </c>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
-      <c r="G105" s="1"/>
+      <c r="G105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="17">
@@ -6148,7 +6181,7 @@
       <c r="B106" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="29">
+      <c r="C106" s="31">
         <v>8.54</v>
       </c>
       <c r="D106" s="20">
@@ -6156,7 +6189,7 @@
       </c>
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
-      <c r="G106" s="1"/>
+      <c r="G106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="17">
@@ -6165,7 +6198,7 @@
       <c r="B107" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="29">
+      <c r="C107" s="31">
         <v>16.08</v>
       </c>
       <c r="D107" s="20">
@@ -6173,7 +6206,7 @@
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
-      <c r="G107" s="1"/>
+      <c r="G107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="17">
@@ -6182,7 +6215,7 @@
       <c r="B108" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C108" s="29">
+      <c r="C108" s="31">
         <v>7.01</v>
       </c>
       <c r="D108" s="20">
@@ -6190,7 +6223,7 @@
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
-      <c r="G108" s="1"/>
+      <c r="G108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="17">
@@ -6199,7 +6232,7 @@
       <c r="B109" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="29">
+      <c r="C109" s="31">
         <v>7.29</v>
       </c>
       <c r="D109" s="20">
@@ -6207,7 +6240,7 @@
       </c>
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
-      <c r="G109" s="1"/>
+      <c r="G109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="17">
@@ -6216,7 +6249,7 @@
       <c r="B110" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="29">
+      <c r="C110" s="31">
         <v>16.33</v>
       </c>
       <c r="D110" s="20">
@@ -6224,7 +6257,7 @@
       </c>
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
-      <c r="G110" s="1"/>
+      <c r="G110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="17">
@@ -6233,7 +6266,7 @@
       <c r="B111" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="29">
+      <c r="C111" s="31">
         <v>10.58</v>
       </c>
       <c r="D111" s="20">
@@ -6241,7 +6274,7 @@
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="19"/>
-      <c r="G111" s="1"/>
+      <c r="G111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="17">
@@ -6250,7 +6283,7 @@
       <c r="B112" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="29">
+      <c r="C112" s="31">
         <v>7.33</v>
       </c>
       <c r="D112" s="20">
@@ -6258,7 +6291,7 @@
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
-      <c r="G112" s="1"/>
+      <c r="G112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="17">
@@ -6267,7 +6300,7 @@
       <c r="B113" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="29">
+      <c r="C113" s="31">
         <v>17.3</v>
       </c>
       <c r="D113" s="20">
@@ -6275,7 +6308,7 @@
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
-      <c r="G113" s="1"/>
+      <c r="G113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="17">
@@ -6284,7 +6317,7 @@
       <c r="B114" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="29">
+      <c r="C114" s="31">
         <v>16.01</v>
       </c>
       <c r="D114" s="20">
@@ -6292,7 +6325,7 @@
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
-      <c r="G114" s="1"/>
+      <c r="G114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="17">
@@ -6301,7 +6334,7 @@
       <c r="B115" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C115" s="29">
+      <c r="C115" s="31">
         <v>10.06</v>
       </c>
       <c r="D115" s="20">
@@ -6309,7 +6342,7 @@
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
-      <c r="G115" s="1"/>
+      <c r="G115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="17">
@@ -6318,7 +6351,7 @@
       <c r="B116" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="29">
+      <c r="C116" s="31">
         <v>7.13</v>
       </c>
       <c r="D116" s="20">
@@ -6326,7 +6359,7 @@
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
-      <c r="G116" s="1"/>
+      <c r="G116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="17">
@@ -6335,7 +6368,7 @@
       <c r="B117" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="29">
+      <c r="C117" s="31">
         <v>9.06</v>
       </c>
       <c r="D117" s="20">
@@ -6343,7 +6376,7 @@
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
-      <c r="G117" s="1"/>
+      <c r="G117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="17">
@@ -6352,7 +6385,7 @@
       <c r="B118" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="29">
+      <c r="C118" s="31">
         <v>10.49</v>
       </c>
       <c r="D118" s="20">
@@ -6360,7 +6393,7 @@
       </c>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
-      <c r="G118" s="1"/>
+      <c r="G118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="17">
@@ -6369,7 +6402,7 @@
       <c r="B119" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C119" s="29">
+      <c r="C119" s="31">
         <v>8.08</v>
       </c>
       <c r="D119" s="20">
@@ -6377,7 +6410,7 @@
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
-      <c r="G119" s="1"/>
+      <c r="G119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="17">
@@ -6386,7 +6419,7 @@
       <c r="B120" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C120" s="29">
+      <c r="C120" s="31">
         <v>13.4</v>
       </c>
       <c r="D120" s="20">
@@ -6394,7 +6427,7 @@
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
-      <c r="G120" s="1"/>
+      <c r="G120" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="17">
@@ -6403,7 +6436,7 @@
       <c r="B121" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C121" s="29">
+      <c r="C121" s="31">
         <v>12.54</v>
       </c>
       <c r="D121" s="20">
@@ -6411,7 +6444,7 @@
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
-      <c r="G121" s="1"/>
+      <c r="G121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="17">
@@ -6420,7 +6453,7 @@
       <c r="B122" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C122" s="29">
+      <c r="C122" s="31">
         <v>9.57</v>
       </c>
       <c r="D122" s="20">
@@ -6428,7 +6461,7 @@
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
-      <c r="G122" s="1"/>
+      <c r="G122" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="17">
@@ -6437,7 +6470,7 @@
       <c r="B123" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="29">
+      <c r="C123" s="31">
         <v>7.29</v>
       </c>
       <c r="D123" s="20">
@@ -6445,7 +6478,7 @@
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
-      <c r="G123" s="1"/>
+      <c r="G123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="17">
@@ -6454,7 +6487,7 @@
       <c r="B124" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="29">
+      <c r="C124" s="31">
         <v>10.29</v>
       </c>
       <c r="D124" s="20">
@@ -6462,7 +6495,7 @@
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
-      <c r="G124" s="1"/>
+      <c r="G124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="17">
@@ -6471,7 +6504,7 @@
       <c r="B125" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="29">
+      <c r="C125" s="31">
         <v>9.01</v>
       </c>
       <c r="D125" s="20">
@@ -6479,7 +6512,7 @@
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
-      <c r="G125" s="1"/>
+      <c r="G125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="17">
@@ -6488,7 +6521,7 @@
       <c r="B126" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="29">
+      <c r="C126" s="31">
         <v>7.38</v>
       </c>
       <c r="D126" s="20">
@@ -6496,7 +6529,7 @@
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
-      <c r="G126" s="1"/>
+      <c r="G126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="17">
@@ -6505,7 +6538,7 @@
       <c r="B127" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C127" s="29">
+      <c r="C127" s="31">
         <v>9.29</v>
       </c>
       <c r="D127" s="20">
@@ -6513,7 +6546,7 @@
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
-      <c r="G127" s="1"/>
+      <c r="G127" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="17">
@@ -6522,7 +6555,7 @@
       <c r="B128" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C128" s="29">
+      <c r="C128" s="31">
         <v>23.01</v>
       </c>
       <c r="D128" s="20">
@@ -6530,7 +6563,7 @@
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
-      <c r="G128" s="1"/>
+      <c r="G128" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="17">
@@ -6539,7 +6572,7 @@
       <c r="B129" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C129" s="29">
+      <c r="C129" s="31">
         <v>15.51</v>
       </c>
       <c r="D129" s="20">
@@ -6547,7 +6580,7 @@
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
-      <c r="G129" s="1"/>
+      <c r="G129" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="17">
@@ -6556,7 +6589,7 @@
       <c r="B130" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C130" s="29">
+      <c r="C130" s="31">
         <v>9.19</v>
       </c>
       <c r="D130" s="20">
@@ -6564,7 +6597,7 @@
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
-      <c r="G130" s="1"/>
+      <c r="G130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="17">
@@ -6573,7 +6606,7 @@
       <c r="B131" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C131" s="29">
+      <c r="C131" s="31">
         <v>9.27</v>
       </c>
       <c r="D131" s="20">
@@ -6581,7 +6614,7 @@
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
-      <c r="G131" s="1"/>
+      <c r="G131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="17">
@@ -6590,7 +6623,7 @@
       <c r="B132" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C132" s="29">
+      <c r="C132" s="31">
         <v>5.56</v>
       </c>
       <c r="D132" s="20">
@@ -6598,7 +6631,7 @@
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
-      <c r="G132" s="1"/>
+      <c r="G132" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="17">
@@ -6607,7 +6640,7 @@
       <c r="B133" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C133" s="29">
+      <c r="C133" s="31">
         <v>8.48</v>
       </c>
       <c r="D133" s="20">
@@ -6615,7 +6648,7 @@
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
-      <c r="G133" s="1"/>
+      <c r="G133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="17">
@@ -6624,7 +6657,7 @@
       <c r="B134" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C134" s="29">
+      <c r="C134" s="31">
         <v>8.42</v>
       </c>
       <c r="D134" s="20">
@@ -6632,7 +6665,7 @@
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
-      <c r="G134" s="1"/>
+      <c r="G134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="17">
@@ -6641,7 +6674,7 @@
       <c r="B135" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C135" s="29">
+      <c r="C135" s="31">
         <v>10.04</v>
       </c>
       <c r="D135" s="20">
@@ -6649,7 +6682,7 @@
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
-      <c r="G135" s="1"/>
+      <c r="G135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="17">
@@ -6658,7 +6691,7 @@
       <c r="B136" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C136" s="29">
+      <c r="C136" s="31">
         <v>8.35</v>
       </c>
       <c r="D136" s="20">
@@ -6666,7 +6699,7 @@
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
-      <c r="G136" s="1"/>
+      <c r="G136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="17">
@@ -6675,7 +6708,7 @@
       <c r="B137" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C137" s="29">
+      <c r="C137" s="31">
         <v>19.21</v>
       </c>
       <c r="D137" s="20">
@@ -6683,7 +6716,7 @@
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
-      <c r="G137" s="1"/>
+      <c r="G137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="17">
@@ -6692,7 +6725,7 @@
       <c r="B138" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C138" s="29">
+      <c r="C138" s="31">
         <v>12.06</v>
       </c>
       <c r="D138" s="20">
@@ -6700,7 +6733,7 @@
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
-      <c r="G138" s="1"/>
+      <c r="G138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="17">
@@ -6709,7 +6742,7 @@
       <c r="B139" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C139" s="29">
+      <c r="C139" s="31">
         <v>12.52</v>
       </c>
       <c r="D139" s="20">
@@ -6717,7 +6750,7 @@
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
-      <c r="G139" s="1"/>
+      <c r="G139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="17">
@@ -6726,7 +6759,7 @@
       <c r="B140" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C140" s="29">
+      <c r="C140" s="31">
         <v>14.16</v>
       </c>
       <c r="D140" s="20">
@@ -6734,7 +6767,7 @@
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
-      <c r="G140" s="1"/>
+      <c r="G140" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="17">
@@ -6743,7 +6776,7 @@
       <c r="B141" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C141" s="29">
+      <c r="C141" s="31">
         <v>12.49</v>
       </c>
       <c r="D141" s="20">
@@ -6751,7 +6784,7 @@
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
-      <c r="G141" s="1"/>
+      <c r="G141" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="17">
@@ -6760,7 +6793,7 @@
       <c r="B142" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C142" s="29">
+      <c r="C142" s="31">
         <v>3.5</v>
       </c>
       <c r="D142" s="20">
@@ -6768,7 +6801,7 @@
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
-      <c r="G142" s="1"/>
+      <c r="G142" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="17">
@@ -6777,7 +6810,7 @@
       <c r="B143" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C143" s="29">
+      <c r="C143" s="31">
         <v>7.54</v>
       </c>
       <c r="D143" s="20">
@@ -6785,7 +6818,7 @@
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
-      <c r="G143" s="1"/>
+      <c r="G143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="17">
@@ -6794,7 +6827,7 @@
       <c r="B144" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C144" s="29">
+      <c r="C144" s="31">
         <v>6.43</v>
       </c>
       <c r="D144" s="20">
@@ -6802,7 +6835,7 @@
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
-      <c r="G144" s="1"/>
+      <c r="G144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="17">
@@ -6811,7 +6844,7 @@
       <c r="B145" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C145" s="29">
+      <c r="C145" s="31">
         <v>9.41</v>
       </c>
       <c r="D145" s="20">
@@ -6819,7 +6852,7 @@
       </c>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
-      <c r="G145" s="1"/>
+      <c r="G145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="17">
@@ -6828,7 +6861,7 @@
       <c r="B146" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C146" s="29">
+      <c r="C146" s="31">
         <v>19.37</v>
       </c>
       <c r="D146" s="20">
@@ -6836,7 +6869,7 @@
       </c>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
-      <c r="G146" s="1"/>
+      <c r="G146" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="17">
@@ -6845,7 +6878,7 @@
       <c r="B147" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C147" s="29">
+      <c r="C147" s="31">
         <v>0.56</v>
       </c>
       <c r="D147" s="20">
@@ -6853,7 +6886,7 @@
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
-      <c r="G147" s="1"/>
+      <c r="G147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="17">
@@ -6862,7 +6895,7 @@
       <c r="B148" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D148" s="20">
@@ -6870,7 +6903,7 @@
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
-      <c r="G148" s="1"/>
+      <c r="G148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="17">
@@ -6879,7 +6912,7 @@
       <c r="B149" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C149" s="32" t="s">
+      <c r="C149" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D149" s="20">
@@ -6887,7 +6920,7 @@
       </c>
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
-      <c r="G149" s="1"/>
+      <c r="G149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="17">
@@ -6896,7 +6929,7 @@
       <c r="B150" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C150" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D150" s="20">
@@ -6904,7 +6937,7 @@
       </c>
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
-      <c r="G150" s="1"/>
+      <c r="G150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="17">
@@ -6913,7 +6946,7 @@
       <c r="B151" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C151" s="32" t="s">
+      <c r="C151" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D151" s="20">
@@ -6921,7 +6954,7 @@
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
-      <c r="G151" s="1"/>
+      <c r="G151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="17">
@@ -6930,7 +6963,7 @@
       <c r="B152" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C152" s="32" t="s">
+      <c r="C152" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D152" s="20">
@@ -6938,7 +6971,7 @@
       </c>
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
-      <c r="G152" s="1"/>
+      <c r="G152" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="17">
@@ -6947,7 +6980,7 @@
       <c r="B153" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C153" s="32" t="s">
+      <c r="C153" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D153" s="20">
@@ -6955,142 +6988,142 @@
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
-      <c r="G153" s="1"/>
+      <c r="G153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="23"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="23"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="23"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="23"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="31"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="23"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="23"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="23"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="23"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="23"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="23"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="23"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="23"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="23"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="23"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="23"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7112,15 +7145,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7174,33 +7207,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="23"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="23"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="23"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7257,931 +7290,931 @@
     <col min="4" max="4" style="12" width="77.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="279">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -864,7 +864,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,12 +912,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -976,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1092,13 +1086,10 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -1122,7 +1113,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1440,10 +1431,10 @@
     <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="50" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="48" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="48" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="48" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="49" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="41.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1452,9 +1443,9 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="22"/>
@@ -1552,7 +1543,7 @@
       <c r="G7" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="48" t="s">
         <v>262</v>
       </c>
     </row>
@@ -1682,7 +1673,7 @@
       <c r="G15" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="48" t="s">
         <v>273</v>
       </c>
     </row>
@@ -1700,7 +1691,7 @@
       <c r="G16" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="48" t="s">
         <v>275</v>
       </c>
     </row>
@@ -1718,7 +1709,7 @@
       <c r="G17" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="48" t="s">
         <v>277</v>
       </c>
     </row>
@@ -1765,12 +1756,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="23" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="48" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="37.14785714285715" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="33" width="8.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="34" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="48" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="48" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="48" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1915,7 +1906,9 @@
       <c r="D8" s="18">
         <v>45357</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="39"/>
     </row>
@@ -1932,7 +1925,9 @@
       <c r="D9" s="18">
         <v>45357</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="F9" s="17"/>
       <c r="G9" s="39"/>
     </row>
@@ -2448,7 +2443,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="21"/>
-      <c r="B40" s="41"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="30"/>
       <c r="D40" s="31"/>
       <c r="E40" s="39"/>
@@ -2743,10 +2738,10 @@
       <c r="G57" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A58" s="42"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2972,7 +2967,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="21"/>
-      <c r="B72" s="41"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="30"/>
       <c r="D72" s="31"/>
       <c r="E72" s="39"/>
@@ -3018,8 +3013,8 @@
       <c r="B75" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="45">
-        <v>4.121053240740741</v>
+      <c r="C75" s="44">
+        <v>5.1209375</v>
       </c>
       <c r="D75" s="18">
         <v>45374</v>
@@ -3035,8 +3030,8 @@
       <c r="B76" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C76" s="45">
-        <v>4.121053240740741</v>
+      <c r="C76" s="44">
+        <v>5.1209375</v>
       </c>
       <c r="D76" s="18">
         <v>45375</v>
@@ -3052,8 +3047,8 @@
       <c r="B77" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="45">
-        <v>4.121053240740741</v>
+      <c r="C77" s="44">
+        <v>5.1209375</v>
       </c>
       <c r="D77" s="18">
         <v>45376</v>
@@ -3069,8 +3064,8 @@
       <c r="B78" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C78" s="45">
-        <v>4.121053240740741</v>
+      <c r="C78" s="44">
+        <v>5.1209375</v>
       </c>
       <c r="D78" s="18">
         <v>45377</v>
@@ -3523,846 +3518,846 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="21"/>
-      <c r="B105" s="41"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="30"/>
       <c r="D105" s="31"/>
-      <c r="E105" s="46"/>
+      <c r="E105" s="45"/>
       <c r="F105" s="39"/>
       <c r="G105" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="21"/>
-      <c r="B106" s="41"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
-      <c r="E106" s="46"/>
+      <c r="E106" s="45"/>
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="21"/>
-      <c r="B107" s="41"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="30"/>
       <c r="D107" s="31"/>
-      <c r="E107" s="46"/>
+      <c r="E107" s="45"/>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="21"/>
-      <c r="B108" s="41"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="30"/>
       <c r="D108" s="31"/>
-      <c r="E108" s="46"/>
+      <c r="E108" s="45"/>
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="21"/>
-      <c r="B109" s="41"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="30"/>
       <c r="D109" s="31"/>
-      <c r="E109" s="46"/>
+      <c r="E109" s="45"/>
       <c r="F109" s="39"/>
       <c r="G109" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="21"/>
-      <c r="B110" s="41"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="30"/>
       <c r="D110" s="31"/>
-      <c r="E110" s="46"/>
+      <c r="E110" s="45"/>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="21"/>
-      <c r="B111" s="41"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="30"/>
       <c r="D111" s="31"/>
-      <c r="E111" s="46"/>
+      <c r="E111" s="45"/>
       <c r="F111" s="39"/>
       <c r="G111" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="21"/>
-      <c r="B112" s="41"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="30"/>
       <c r="D112" s="31"/>
-      <c r="E112" s="46"/>
+      <c r="E112" s="45"/>
       <c r="F112" s="39"/>
       <c r="G112" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="21"/>
-      <c r="B113" s="41"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="30"/>
       <c r="D113" s="31"/>
-      <c r="E113" s="46"/>
+      <c r="E113" s="45"/>
       <c r="F113" s="39"/>
       <c r="G113" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="21"/>
-      <c r="B114" s="41"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="30"/>
       <c r="D114" s="31"/>
-      <c r="E114" s="46"/>
+      <c r="E114" s="45"/>
       <c r="F114" s="39"/>
       <c r="G114" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="21"/>
-      <c r="B115" s="41"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="30"/>
       <c r="D115" s="31"/>
-      <c r="E115" s="46"/>
+      <c r="E115" s="45"/>
       <c r="F115" s="39"/>
       <c r="G115" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="21"/>
-      <c r="B116" s="41"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="30"/>
       <c r="D116" s="31"/>
-      <c r="E116" s="46"/>
+      <c r="E116" s="45"/>
       <c r="F116" s="39"/>
       <c r="G116" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="21"/>
-      <c r="B117" s="41"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="30"/>
       <c r="D117" s="31"/>
-      <c r="E117" s="46"/>
+      <c r="E117" s="45"/>
       <c r="F117" s="39"/>
       <c r="G117" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="21"/>
-      <c r="B118" s="41"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="30"/>
       <c r="D118" s="31"/>
-      <c r="E118" s="46"/>
+      <c r="E118" s="45"/>
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="21"/>
-      <c r="B119" s="41"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="30"/>
       <c r="D119" s="31"/>
-      <c r="E119" s="46"/>
+      <c r="E119" s="45"/>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="21"/>
-      <c r="B120" s="41"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="30"/>
       <c r="D120" s="31"/>
-      <c r="E120" s="46"/>
+      <c r="E120" s="45"/>
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="21"/>
-      <c r="B121" s="41"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="30"/>
       <c r="D121" s="31"/>
-      <c r="E121" s="46"/>
+      <c r="E121" s="45"/>
       <c r="F121" s="39"/>
       <c r="G121" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="21"/>
-      <c r="B122" s="41"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="30"/>
       <c r="D122" s="31"/>
-      <c r="E122" s="46"/>
+      <c r="E122" s="45"/>
       <c r="F122" s="39"/>
       <c r="G122" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="21"/>
-      <c r="B123" s="41"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="30"/>
       <c r="D123" s="31"/>
-      <c r="E123" s="46"/>
+      <c r="E123" s="45"/>
       <c r="F123" s="39"/>
       <c r="G123" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="21"/>
-      <c r="B124" s="41"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="30"/>
       <c r="D124" s="31"/>
-      <c r="E124" s="46"/>
+      <c r="E124" s="45"/>
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="21"/>
-      <c r="B125" s="41"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="30"/>
       <c r="D125" s="31"/>
-      <c r="E125" s="46"/>
+      <c r="E125" s="45"/>
       <c r="F125" s="39"/>
       <c r="G125" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="21"/>
-      <c r="B126" s="41"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="30"/>
       <c r="D126" s="31"/>
-      <c r="E126" s="46"/>
+      <c r="E126" s="45"/>
       <c r="F126" s="39"/>
       <c r="G126" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="21"/>
-      <c r="B127" s="41"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="30"/>
       <c r="D127" s="31"/>
-      <c r="E127" s="46"/>
+      <c r="E127" s="45"/>
       <c r="F127" s="39"/>
       <c r="G127" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="21"/>
-      <c r="B128" s="41"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="30"/>
       <c r="D128" s="31"/>
-      <c r="E128" s="46"/>
+      <c r="E128" s="45"/>
       <c r="F128" s="39"/>
       <c r="G128" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="21"/>
-      <c r="B129" s="41"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="30"/>
       <c r="D129" s="31"/>
-      <c r="E129" s="46"/>
+      <c r="E129" s="45"/>
       <c r="F129" s="39"/>
       <c r="G129" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="21"/>
-      <c r="B130" s="41"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="30"/>
       <c r="D130" s="31"/>
-      <c r="E130" s="46"/>
+      <c r="E130" s="45"/>
       <c r="F130" s="39"/>
       <c r="G130" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="21"/>
-      <c r="B131" s="41"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="30"/>
       <c r="D131" s="31"/>
-      <c r="E131" s="46"/>
+      <c r="E131" s="45"/>
       <c r="F131" s="39"/>
       <c r="G131" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="21"/>
-      <c r="B132" s="41"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="30"/>
       <c r="D132" s="31"/>
-      <c r="E132" s="46"/>
+      <c r="E132" s="45"/>
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="21"/>
-      <c r="B133" s="41"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="30"/>
       <c r="D133" s="31"/>
-      <c r="E133" s="46"/>
+      <c r="E133" s="45"/>
       <c r="F133" s="39"/>
       <c r="G133" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="21"/>
-      <c r="B134" s="41"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="30"/>
       <c r="D134" s="31"/>
-      <c r="E134" s="46"/>
+      <c r="E134" s="45"/>
       <c r="F134" s="39"/>
       <c r="G134" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="21"/>
-      <c r="B135" s="41"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="30"/>
       <c r="D135" s="31"/>
-      <c r="E135" s="46"/>
+      <c r="E135" s="45"/>
       <c r="F135" s="39"/>
       <c r="G135" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="21"/>
-      <c r="B136" s="41"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="30"/>
       <c r="D136" s="31"/>
-      <c r="E136" s="46"/>
+      <c r="E136" s="45"/>
       <c r="F136" s="39"/>
       <c r="G136" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="21"/>
-      <c r="B137" s="41"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="30"/>
       <c r="D137" s="31"/>
-      <c r="E137" s="46"/>
+      <c r="E137" s="45"/>
       <c r="F137" s="39"/>
       <c r="G137" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="21"/>
-      <c r="B138" s="41"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="30"/>
       <c r="D138" s="31"/>
-      <c r="E138" s="46"/>
+      <c r="E138" s="45"/>
       <c r="F138" s="39"/>
       <c r="G138" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="21"/>
-      <c r="B139" s="41"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="30"/>
       <c r="D139" s="31"/>
-      <c r="E139" s="46"/>
+      <c r="E139" s="45"/>
       <c r="F139" s="39"/>
       <c r="G139" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="21"/>
-      <c r="B140" s="41"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="30"/>
       <c r="D140" s="31"/>
-      <c r="E140" s="46"/>
+      <c r="E140" s="45"/>
       <c r="F140" s="39"/>
       <c r="G140" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="21"/>
-      <c r="B141" s="41"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="30"/>
       <c r="D141" s="31"/>
-      <c r="E141" s="46"/>
+      <c r="E141" s="45"/>
       <c r="F141" s="39"/>
       <c r="G141" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="21"/>
-      <c r="B142" s="41"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="30"/>
       <c r="D142" s="31"/>
-      <c r="E142" s="46"/>
+      <c r="E142" s="45"/>
       <c r="F142" s="39"/>
       <c r="G142" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="21"/>
-      <c r="B143" s="41"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="30"/>
       <c r="D143" s="31"/>
-      <c r="E143" s="46"/>
+      <c r="E143" s="45"/>
       <c r="F143" s="39"/>
       <c r="G143" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="21"/>
-      <c r="B144" s="41"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="30"/>
       <c r="D144" s="31"/>
-      <c r="E144" s="46"/>
+      <c r="E144" s="45"/>
       <c r="F144" s="39"/>
       <c r="G144" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="21"/>
-      <c r="B145" s="41"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="30"/>
       <c r="D145" s="31"/>
-      <c r="E145" s="46"/>
+      <c r="E145" s="45"/>
       <c r="F145" s="39"/>
       <c r="G145" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="21"/>
-      <c r="B146" s="41"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="30"/>
       <c r="D146" s="31"/>
-      <c r="E146" s="46"/>
+      <c r="E146" s="45"/>
       <c r="F146" s="39"/>
       <c r="G146" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="21"/>
-      <c r="B147" s="41"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="30"/>
       <c r="D147" s="31"/>
-      <c r="E147" s="46"/>
+      <c r="E147" s="45"/>
       <c r="F147" s="39"/>
       <c r="G147" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="21"/>
-      <c r="B148" s="41"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="30"/>
       <c r="D148" s="31"/>
-      <c r="E148" s="46"/>
+      <c r="E148" s="45"/>
       <c r="F148" s="39"/>
       <c r="G148" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="21"/>
-      <c r="B149" s="41"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="30"/>
       <c r="D149" s="31"/>
-      <c r="E149" s="46"/>
+      <c r="E149" s="45"/>
       <c r="F149" s="39"/>
       <c r="G149" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="21"/>
-      <c r="B150" s="41"/>
+      <c r="B150" s="39"/>
       <c r="C150" s="30"/>
       <c r="D150" s="31"/>
-      <c r="E150" s="46"/>
+      <c r="E150" s="45"/>
       <c r="F150" s="39"/>
       <c r="G150" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="21"/>
-      <c r="B151" s="41"/>
+      <c r="B151" s="39"/>
       <c r="C151" s="30"/>
       <c r="D151" s="31"/>
-      <c r="E151" s="46"/>
+      <c r="E151" s="45"/>
       <c r="F151" s="39"/>
       <c r="G151" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="21"/>
-      <c r="B152" s="41"/>
+      <c r="B152" s="39"/>
       <c r="C152" s="30"/>
       <c r="D152" s="31"/>
-      <c r="E152" s="46"/>
+      <c r="E152" s="45"/>
       <c r="F152" s="39"/>
       <c r="G152" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="21"/>
-      <c r="B153" s="41"/>
+      <c r="B153" s="39"/>
       <c r="C153" s="30"/>
       <c r="D153" s="31"/>
-      <c r="E153" s="46"/>
+      <c r="E153" s="45"/>
       <c r="F153" s="39"/>
       <c r="G153" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="21"/>
-      <c r="B154" s="41"/>
+      <c r="B154" s="39"/>
       <c r="C154" s="30"/>
       <c r="D154" s="31"/>
-      <c r="E154" s="46"/>
+      <c r="E154" s="45"/>
       <c r="F154" s="39"/>
       <c r="G154" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="21"/>
-      <c r="B155" s="41"/>
+      <c r="B155" s="39"/>
       <c r="C155" s="30"/>
       <c r="D155" s="31"/>
-      <c r="E155" s="46"/>
+      <c r="E155" s="45"/>
       <c r="F155" s="39"/>
       <c r="G155" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="21"/>
-      <c r="B156" s="41"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="30"/>
       <c r="D156" s="31"/>
-      <c r="E156" s="46"/>
+      <c r="E156" s="45"/>
       <c r="F156" s="39"/>
       <c r="G156" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="21"/>
-      <c r="B157" s="41"/>
+      <c r="B157" s="39"/>
       <c r="C157" s="30"/>
       <c r="D157" s="31"/>
-      <c r="E157" s="46"/>
+      <c r="E157" s="45"/>
       <c r="F157" s="39"/>
       <c r="G157" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="21"/>
-      <c r="B158" s="41"/>
+      <c r="B158" s="39"/>
       <c r="C158" s="30"/>
       <c r="D158" s="31"/>
-      <c r="E158" s="46"/>
+      <c r="E158" s="45"/>
       <c r="F158" s="39"/>
       <c r="G158" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="21"/>
-      <c r="B159" s="41"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="30"/>
       <c r="D159" s="31"/>
-      <c r="E159" s="46"/>
+      <c r="E159" s="45"/>
       <c r="F159" s="39"/>
       <c r="G159" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="21"/>
-      <c r="B160" s="41"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="30"/>
       <c r="D160" s="31"/>
-      <c r="E160" s="46"/>
+      <c r="E160" s="45"/>
       <c r="F160" s="39"/>
       <c r="G160" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="21"/>
-      <c r="B161" s="41"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="30"/>
       <c r="D161" s="31"/>
-      <c r="E161" s="46"/>
+      <c r="E161" s="45"/>
       <c r="F161" s="39"/>
       <c r="G161" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="21"/>
-      <c r="B162" s="41"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="30"/>
       <c r="D162" s="31"/>
-      <c r="E162" s="46"/>
+      <c r="E162" s="45"/>
       <c r="F162" s="39"/>
       <c r="G162" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="21"/>
-      <c r="B163" s="41"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="30"/>
       <c r="D163" s="31"/>
-      <c r="E163" s="46"/>
+      <c r="E163" s="45"/>
       <c r="F163" s="39"/>
       <c r="G163" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="21"/>
-      <c r="B164" s="41"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="30"/>
       <c r="D164" s="31"/>
-      <c r="E164" s="46"/>
+      <c r="E164" s="45"/>
       <c r="F164" s="39"/>
       <c r="G164" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="21"/>
-      <c r="B165" s="41"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="30"/>
       <c r="D165" s="31"/>
-      <c r="E165" s="46"/>
+      <c r="E165" s="45"/>
       <c r="F165" s="39"/>
       <c r="G165" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="21"/>
-      <c r="B166" s="41"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="30"/>
       <c r="D166" s="31"/>
-      <c r="E166" s="46"/>
+      <c r="E166" s="45"/>
       <c r="F166" s="39"/>
       <c r="G166" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="21"/>
-      <c r="B167" s="41"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="30"/>
       <c r="D167" s="31"/>
-      <c r="E167" s="46"/>
+      <c r="E167" s="45"/>
       <c r="F167" s="39"/>
       <c r="G167" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="21"/>
-      <c r="B168" s="41"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="30"/>
       <c r="D168" s="31"/>
-      <c r="E168" s="46"/>
+      <c r="E168" s="45"/>
       <c r="F168" s="39"/>
       <c r="G168" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="21"/>
-      <c r="B169" s="41"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="30"/>
       <c r="D169" s="31"/>
-      <c r="E169" s="46"/>
+      <c r="E169" s="45"/>
       <c r="F169" s="39"/>
       <c r="G169" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="21"/>
-      <c r="B170" s="41"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="30"/>
       <c r="D170" s="31"/>
-      <c r="E170" s="46"/>
+      <c r="E170" s="45"/>
       <c r="F170" s="39"/>
       <c r="G170" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="21"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="47"/>
+      <c r="C171" s="46"/>
       <c r="D171" s="31"/>
       <c r="E171" s="39"/>
       <c r="F171" s="39"/>
       <c r="G171" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A172" s="42"/>
+      <c r="A172" s="41"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="43"/>
-      <c r="D172" s="44"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="43"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A173" s="42"/>
+      <c r="A173" s="41"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="43"/>
-      <c r="D173" s="44"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="43"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A174" s="42"/>
+      <c r="A174" s="41"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="43"/>
-      <c r="D174" s="44"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="43"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A175" s="42"/>
+      <c r="A175" s="41"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="43"/>
-      <c r="D175" s="44"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="43"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A176" s="42"/>
+      <c r="A176" s="41"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="43"/>
-      <c r="D176" s="44"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="43"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A177" s="42"/>
+      <c r="A177" s="41"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="43"/>
-      <c r="D177" s="44"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="43"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A178" s="42"/>
+      <c r="A178" s="41"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="43"/>
-      <c r="D178" s="44"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="43"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A179" s="42"/>
+      <c r="A179" s="41"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="43"/>
-      <c r="D179" s="44"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="43"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A180" s="42"/>
+      <c r="A180" s="41"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="43"/>
-      <c r="D180" s="44"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="43"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A181" s="42"/>
+      <c r="A181" s="41"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="43"/>
-      <c r="D181" s="44"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="43"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A182" s="42"/>
+      <c r="A182" s="41"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="44"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="43"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A183" s="42"/>
+      <c r="A183" s="41"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="43"/>
-      <c r="D183" s="44"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="43"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A184" s="42"/>
+      <c r="A184" s="41"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="43"/>
-      <c r="D184" s="44"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="43"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A185" s="42"/>
+      <c r="A185" s="41"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="43"/>
-      <c r="D185" s="44"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="43"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A186" s="42"/>
+      <c r="A186" s="41"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="43"/>
-      <c r="D186" s="44"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="43"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A187" s="42"/>
+      <c r="A187" s="41"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="43"/>
-      <c r="D187" s="44"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="43"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A188" s="42"/>
+      <c r="A188" s="41"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="43"/>
-      <c r="D188" s="44"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="43"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A189" s="42"/>
+      <c r="A189" s="41"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="43"/>
-      <c r="D189" s="44"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="43"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A190" s="42"/>
+      <c r="A190" s="41"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="43"/>
-      <c r="D190" s="44"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="43"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A191" s="42"/>
+      <c r="A191" s="41"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="43"/>
-      <c r="D191" s="44"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="43"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A192" s="42"/>
+      <c r="A192" s="41"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="43"/>
-      <c r="D192" s="44"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="43"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A193" s="42"/>
+      <c r="A193" s="41"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="43"/>
-      <c r="D193" s="44"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="43"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A194" s="42"/>
+      <c r="A194" s="41"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="43"/>
-      <c r="D194" s="44"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="43"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A195" s="42"/>
+      <c r="A195" s="41"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="43"/>
-      <c r="D195" s="44"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="43"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A196" s="42"/>
+      <c r="A196" s="41"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="43"/>
-      <c r="D196" s="44"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="43"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A197" s="42"/>
+      <c r="A197" s="41"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="43"/>
-      <c r="D197" s="44"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="43"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A198" s="42"/>
+      <c r="A198" s="41"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="43"/>
-      <c r="D198" s="44"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="43"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -4923,7 +4918,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="15">
         <v>30</v>
       </c>
@@ -4940,7 +4935,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="33">
       <c r="A33" s="15">
         <v>31</v>
       </c>
@@ -4957,7 +4952,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="33">
       <c r="A34" s="15">
         <v>32</v>
       </c>
@@ -4974,7 +4969,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="33">
       <c r="A35" s="15">
         <v>33</v>
       </c>
@@ -4991,7 +4986,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="33">
       <c r="A36" s="15">
         <v>34</v>
       </c>
@@ -5008,7 +5003,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="33">
       <c r="A37" s="15">
         <v>35</v>
       </c>
@@ -5025,7 +5020,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="33">
       <c r="A38" s="15">
         <v>36</v>
       </c>
@@ -5042,7 +5037,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="15">
         <v>37</v>
       </c>
@@ -5059,7 +5054,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="33">
       <c r="A40" s="15">
         <v>38</v>
       </c>
@@ -5076,7 +5071,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="33">
       <c r="A41" s="15">
         <v>39</v>
       </c>
@@ -5093,7 +5088,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="33">
       <c r="A42" s="15">
         <v>40</v>
       </c>
@@ -5110,7 +5105,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="33">
       <c r="A43" s="15">
         <v>41</v>
       </c>
@@ -5127,7 +5122,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="33">
       <c r="A44" s="15">
         <v>42</v>
       </c>
@@ -5144,7 +5139,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="33">
       <c r="A45" s="15">
         <v>43</v>
       </c>
@@ -5161,7 +5156,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="33">
       <c r="A46" s="15">
         <v>44</v>
       </c>
@@ -5178,7 +5173,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="33">
       <c r="A47" s="15">
         <v>45</v>
       </c>
@@ -5195,7 +5190,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="33">
       <c r="A48" s="15">
         <v>46</v>
       </c>
@@ -5212,7 +5207,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="33">
       <c r="A49" s="15">
         <v>47</v>
       </c>
@@ -5229,7 +5224,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="33">
       <c r="A50" s="15">
         <v>48</v>
       </c>
@@ -5246,7 +5241,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="33">
       <c r="A51" s="15">
         <v>49</v>
       </c>
@@ -5263,7 +5258,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="33">
       <c r="A52" s="15">
         <v>50</v>
       </c>
@@ -5280,7 +5275,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="33">
       <c r="A53" s="15">
         <v>51</v>
       </c>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="284">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -497,6 +497,23 @@
   </si>
   <si>
     <t>Revision Day 6</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch 1 video then practise it perfectly by writing notes and trying 
+on editor  </t>
+  </si>
+  <si>
+    <t>Revise previous days topics Next days</t>
+  </si>
+  <si>
+    <t>Practise more programs outside the course aswel, 
+Generate your own programs and scenarios and try to implement it</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>JavaScript - YouTube - NaveenAutoLabs</t>
@@ -970,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1072,6 +1089,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
@@ -1431,10 +1463,10 @@
     <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="49" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="47" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="47" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="47" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="52" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="52" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="52" width="41.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1443,9 +1475,9 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="22"/>
@@ -1456,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>6</v>
@@ -1474,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H3" s="17"/>
     </row>
@@ -1490,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H4" s="17"/>
     </row>
@@ -1506,10 +1538,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H5" s="17"/>
     </row>
@@ -1525,7 +1557,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H6" s="17"/>
     </row>
@@ -1538,13 +1570,13 @@
         <v>5</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>267</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -1556,10 +1588,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -1572,10 +1604,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H9" s="17"/>
     </row>
@@ -1588,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H10" s="17"/>
     </row>
@@ -1604,10 +1636,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H11" s="17"/>
     </row>
@@ -1620,10 +1652,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H12" s="17"/>
     </row>
@@ -1636,10 +1668,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H13" s="17"/>
     </row>
@@ -1652,10 +1684,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H14" s="17"/>
     </row>
@@ -1668,13 +1700,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -1686,13 +1718,13 @@
         <v>14</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>280</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -1704,13 +1736,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H17" s="48" t="s">
         <v>277</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>282</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -1722,10 +1754,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H18" s="17"/>
     </row>
@@ -1749,2625 +1781,2688 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="23" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="47" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="60.29071428571429" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="33" width="8.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="34" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="47" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="47" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="52" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="52" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="35" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="D1" s="38"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="13" t="s">
+      <c r="G1" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="B3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="31.5">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="B4" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="35"/>
+      <c r="B5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="29">
-        <v>8.03</v>
-      </c>
-      <c r="D3" s="18">
-        <v>45355</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="29">
-        <v>20.56</v>
-      </c>
-      <c r="D4" s="18">
-        <v>45355</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="29">
-        <v>34.45</v>
-      </c>
-      <c r="D5" s="18">
-        <v>45355</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="46.5">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="29">
-        <v>32.53</v>
-      </c>
-      <c r="D6" s="18">
-        <v>45356</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="29">
-        <v>28.2</v>
-      </c>
-      <c r="D7" s="18">
-        <v>45356</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
       <c r="A8" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="29">
+        <v>8.03</v>
+      </c>
+      <c r="D8" s="18">
+        <v>45355</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="29">
-        <v>32.09</v>
-      </c>
-      <c r="D8" s="18">
-        <v>45357</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="29">
+        <v>20.56</v>
+      </c>
+      <c r="D9" s="18">
+        <v>45355</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="29">
-        <v>15.04</v>
-      </c>
-      <c r="D9" s="18">
-        <v>45357</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
-      <c r="A10" s="15">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="29">
+        <v>34.45</v>
+      </c>
+      <c r="D10" s="18">
+        <v>45355</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="29">
-        <v>29.46</v>
-      </c>
-      <c r="D10" s="18">
-        <v>45358</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
       <c r="A11" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C11" s="29">
-        <v>26.4</v>
+        <v>32.53</v>
       </c>
       <c r="D11" s="18">
-        <v>45358</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>45356</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33">
+      <c r="G11" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C12" s="29">
-        <v>24.52</v>
+        <v>28.2</v>
       </c>
       <c r="D12" s="18">
-        <v>45359</v>
-      </c>
-      <c r="E12" s="17"/>
+        <v>45356</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="39"/>
+      <c r="G12" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="29">
-        <v>7.19</v>
+        <v>32.09</v>
       </c>
       <c r="D13" s="18">
-        <v>45359</v>
-      </c>
-      <c r="E13" s="17"/>
+        <v>45357</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
+      <c r="G13" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="29">
-        <v>13.33</v>
+        <v>15.04</v>
       </c>
       <c r="D14" s="18">
-        <v>45359</v>
-      </c>
-      <c r="E14" s="17"/>
+        <v>45357</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="G14" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>174</v>
       </c>
       <c r="C15" s="29">
-        <v>19.1</v>
+        <v>29.46</v>
       </c>
       <c r="D15" s="18">
-        <v>45359</v>
-      </c>
-      <c r="E15" s="17"/>
+        <v>45358</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="G15" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>175</v>
       </c>
       <c r="C16" s="29">
-        <v>25.43</v>
+        <v>26.4</v>
       </c>
       <c r="D16" s="18">
-        <v>45360</v>
+        <v>45358</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="G16" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C17" s="29">
-        <v>37.1</v>
+        <v>24.52</v>
       </c>
       <c r="D17" s="18">
-        <v>45360</v>
+        <v>45359</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="G17" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>177</v>
       </c>
       <c r="C18" s="29">
-        <v>19.22</v>
+        <v>7.19</v>
       </c>
       <c r="D18" s="18">
-        <v>45361</v>
+        <v>45359</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="G18" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="29">
-        <v>9.48</v>
+        <v>13.33</v>
       </c>
       <c r="D19" s="18">
-        <v>45361</v>
+        <v>45359</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>179</v>
       </c>
       <c r="C20" s="29">
-        <v>22.52</v>
+        <v>19.1</v>
       </c>
       <c r="D20" s="18">
-        <v>45361</v>
+        <v>45359</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="39"/>
+      <c r="G20" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>180</v>
       </c>
       <c r="C21" s="29">
-        <v>10.07</v>
+        <v>25.43</v>
       </c>
       <c r="D21" s="18">
-        <v>45361</v>
+        <v>45360</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>181</v>
       </c>
       <c r="C22" s="29">
-        <v>18.28</v>
+        <v>37.1</v>
       </c>
       <c r="D22" s="18">
-        <v>45362</v>
+        <v>45360</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="39"/>
+      <c r="G22" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>182</v>
       </c>
       <c r="C23" s="29">
-        <v>16.07</v>
+        <v>19.22</v>
       </c>
       <c r="D23" s="18">
-        <v>45362</v>
+        <v>45361</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="39"/>
+      <c r="G23" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>183</v>
       </c>
       <c r="C24" s="29">
-        <v>12.29</v>
+        <v>9.48</v>
       </c>
       <c r="D24" s="18">
-        <v>45362</v>
+        <v>45361</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="15">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>184</v>
       </c>
       <c r="C25" s="29">
-        <v>13.4</v>
+        <v>22.52</v>
       </c>
       <c r="D25" s="18">
-        <v>45362</v>
+        <v>45361</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="39"/>
+      <c r="G25" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="15">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>185</v>
       </c>
       <c r="C26" s="29">
-        <v>8.25</v>
+        <v>10.07</v>
       </c>
       <c r="D26" s="18">
-        <v>45363</v>
+        <v>45361</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="39"/>
+      <c r="G26" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>186</v>
       </c>
       <c r="C27" s="29">
-        <v>5.13</v>
+        <v>18.28</v>
       </c>
       <c r="D27" s="18">
-        <v>45363</v>
+        <v>45362</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="39"/>
+      <c r="G27" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="15">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>187</v>
       </c>
       <c r="C28" s="29">
-        <v>6.04</v>
+        <v>16.07</v>
       </c>
       <c r="D28" s="18">
-        <v>45363</v>
+        <v>45362</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="39"/>
+      <c r="G28" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>188</v>
       </c>
       <c r="C29" s="29">
-        <v>6.09</v>
+        <v>12.29</v>
       </c>
       <c r="D29" s="18">
-        <v>45363</v>
+        <v>45362</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="39"/>
+      <c r="G29" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>189</v>
       </c>
       <c r="C30" s="29">
-        <v>12.09</v>
+        <v>13.4</v>
       </c>
       <c r="D30" s="18">
-        <v>45363</v>
+        <v>45362</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="39"/>
+      <c r="G30" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="15">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C31" s="29">
-        <v>12.09</v>
+        <v>8.25</v>
       </c>
       <c r="D31" s="18">
         <v>45363</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="39"/>
+      <c r="G31" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C32" s="29">
-        <v>25.47</v>
+        <v>5.13</v>
       </c>
       <c r="D32" s="18">
-        <v>45364</v>
+        <v>45363</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="39"/>
+      <c r="G32" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="15">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C33" s="29">
-        <v>10.16</v>
+        <v>6.04</v>
       </c>
       <c r="D33" s="18">
-        <v>45364</v>
+        <v>45363</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="39"/>
+      <c r="G33" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="15">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>193</v>
       </c>
       <c r="C34" s="29">
-        <v>17.23</v>
+        <v>6.09</v>
       </c>
       <c r="D34" s="18">
-        <v>45364</v>
+        <v>45363</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="39"/>
+      <c r="G34" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="15">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C35" s="29">
-        <v>13.18</v>
+        <v>12.09</v>
       </c>
       <c r="D35" s="18">
-        <v>45364</v>
+        <v>45363</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="39"/>
+      <c r="G35" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="15">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>195</v>
       </c>
       <c r="C36" s="29">
-        <v>10.06</v>
+        <v>12.09</v>
       </c>
       <c r="D36" s="18">
-        <v>45365</v>
+        <v>45363</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="39"/>
+      <c r="G36" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="15">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>196</v>
       </c>
       <c r="C37" s="29">
-        <v>2.3</v>
+        <v>25.47</v>
       </c>
       <c r="D37" s="18">
-        <v>45365</v>
+        <v>45364</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="39"/>
+      <c r="G37" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="15">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>197</v>
       </c>
       <c r="C38" s="29">
-        <v>14.17</v>
+        <v>10.16</v>
       </c>
       <c r="D38" s="18">
-        <v>45365</v>
+        <v>45364</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="39"/>
+      <c r="G38" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="15">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>198</v>
       </c>
       <c r="C39" s="29">
-        <v>27.06</v>
+        <v>17.23</v>
       </c>
       <c r="D39" s="18">
-        <v>45365</v>
+        <v>45364</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="39"/>
+      <c r="G39" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="21"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A41" s="11" t="s">
+      <c r="A40" s="15">
+        <v>33</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="2"/>
+      <c r="C40" s="29">
+        <v>13.18</v>
+      </c>
+      <c r="D40" s="18">
+        <v>45364</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="15">
+        <v>34</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="29">
+        <v>10.06</v>
+      </c>
+      <c r="D41" s="18">
+        <v>45365</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="39"/>
+      <c r="A42" s="15">
+        <v>35</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="29">
+        <v>2.3</v>
+      </c>
+      <c r="D42" s="18">
+        <v>45365</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="15">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C43" s="29">
-        <v>17.33</v>
+        <v>14.17</v>
       </c>
       <c r="D43" s="18">
-        <v>45366</v>
+        <v>45365</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="39"/>
+      <c r="G43" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="15">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C44" s="29">
-        <v>18.21</v>
+        <v>27.06</v>
       </c>
       <c r="D44" s="18">
-        <v>45366</v>
+        <v>45365</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="39"/>
+      <c r="G44" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="15">
+      <c r="A45" s="21"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A46" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="29">
-        <v>13.01</v>
-      </c>
-      <c r="D45" s="18">
-        <v>45366</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="15">
+      <c r="D47" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="29">
-        <v>10.17</v>
-      </c>
-      <c r="D46" s="18">
-        <v>45366</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="15">
+      <c r="E47" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="29">
-        <v>16.56</v>
-      </c>
-      <c r="D47" s="18">
-        <v>45367</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="39"/>
+      <c r="F47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>205</v>
       </c>
       <c r="C48" s="29">
-        <v>7.56</v>
+        <v>17.33</v>
       </c>
       <c r="D48" s="18">
-        <v>45367</v>
+        <v>45366</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="39"/>
+      <c r="G48" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C49" s="29">
-        <v>12.49</v>
+        <v>18.21</v>
       </c>
       <c r="D49" s="18">
-        <v>45367</v>
+        <v>45366</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="39"/>
+      <c r="G49" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>207</v>
       </c>
       <c r="C50" s="29">
-        <v>7.13</v>
+        <v>13.01</v>
       </c>
       <c r="D50" s="18">
-        <v>45367</v>
+        <v>45366</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="39"/>
+      <c r="G50" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C51" s="29">
-        <v>18.22</v>
+        <v>10.17</v>
       </c>
       <c r="D51" s="18">
-        <v>45367</v>
+        <v>45366</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="39"/>
+      <c r="G51" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>209</v>
       </c>
       <c r="C52" s="29">
-        <v>23.21</v>
+        <v>16.56</v>
       </c>
       <c r="D52" s="18">
-        <v>45368</v>
+        <v>45367</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="39"/>
+      <c r="G52" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>210</v>
       </c>
       <c r="C53" s="29">
-        <v>28.28</v>
+        <v>7.56</v>
       </c>
       <c r="D53" s="18">
-        <v>45368</v>
+        <v>45367</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="39"/>
+      <c r="G53" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>211</v>
       </c>
       <c r="C54" s="29">
-        <v>17.27</v>
+        <v>12.49</v>
       </c>
       <c r="D54" s="18">
-        <v>45369</v>
+        <v>45367</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="39"/>
+      <c r="G54" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>212</v>
       </c>
       <c r="C55" s="29">
-        <v>11.51</v>
+        <v>7.13</v>
       </c>
       <c r="D55" s="18">
-        <v>45369</v>
+        <v>45367</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="39"/>
+      <c r="G55" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>213</v>
       </c>
       <c r="C56" s="29">
-        <v>7.15</v>
+        <v>18.22</v>
       </c>
       <c r="D56" s="18">
-        <v>45369</v>
+        <v>45367</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="39"/>
+      <c r="G56" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>214</v>
       </c>
       <c r="C57" s="29">
-        <v>9.02</v>
+        <v>23.21</v>
       </c>
       <c r="D57" s="18">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A58" s="41"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A59" s="11" t="s">
+      <c r="G57" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="15">
+        <v>11</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="2"/>
+      <c r="C58" s="29">
+        <v>28.28</v>
+      </c>
+      <c r="D58" s="18">
+        <v>45368</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="15">
+        <v>12</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="29">
+        <v>17.27</v>
+      </c>
+      <c r="D59" s="18">
+        <v>45369</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="39"/>
+      <c r="A60" s="15">
+        <v>13</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="29">
+        <v>11.51</v>
+      </c>
+      <c r="D60" s="18">
+        <v>45369</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C61" s="29">
-        <v>26.05</v>
+        <v>7.15</v>
       </c>
       <c r="D61" s="18">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="39"/>
+      <c r="G61" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="15">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C62" s="29">
-        <v>12.51</v>
+        <v>9.02</v>
       </c>
       <c r="D62" s="18">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="15">
+      <c r="G62" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A63" s="46"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A64" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="29">
-        <v>13.31</v>
-      </c>
-      <c r="D63" s="18">
-        <v>45370</v>
-      </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="15">
+      <c r="D65" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="29">
-        <v>24.56</v>
-      </c>
-      <c r="D64" s="18">
-        <v>45371</v>
-      </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="15">
+      <c r="E65" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="29">
-        <v>18.08</v>
-      </c>
-      <c r="D65" s="18">
-        <v>45371</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="39"/>
+      <c r="F65" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>221</v>
       </c>
       <c r="C66" s="29">
-        <v>13.55</v>
+        <v>26.05</v>
       </c>
       <c r="D66" s="18">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="39"/>
+      <c r="G66" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>222</v>
       </c>
       <c r="C67" s="29">
-        <v>29.41</v>
+        <v>12.51</v>
       </c>
       <c r="D67" s="18">
-        <v>45372</v>
+        <v>45370</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="39"/>
+      <c r="G67" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>223</v>
       </c>
       <c r="C68" s="29">
-        <v>10.49</v>
+        <v>13.31</v>
       </c>
       <c r="D68" s="18">
-        <v>45372</v>
+        <v>45370</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="39"/>
+      <c r="G68" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>224</v>
       </c>
       <c r="C69" s="29">
-        <v>16.02</v>
+        <v>24.56</v>
       </c>
       <c r="D69" s="18">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="39"/>
+      <c r="G69" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>225</v>
       </c>
       <c r="C70" s="29">
-        <v>10.48</v>
+        <v>18.08</v>
       </c>
       <c r="D70" s="18">
-        <v>45373</v>
+        <v>45371</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="39"/>
+      <c r="G70" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>226</v>
       </c>
       <c r="C71" s="29">
-        <v>20.49</v>
+        <v>13.55</v>
       </c>
       <c r="D71" s="18">
-        <v>45373</v>
+        <v>45371</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="39"/>
+      <c r="G71" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="21"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="2"/>
+      <c r="A72" s="15">
+        <v>7</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="29">
+        <v>29.41</v>
+      </c>
+      <c r="D72" s="18">
+        <v>45372</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="15">
+        <v>8</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="29">
+        <v>10.49</v>
+      </c>
+      <c r="D73" s="18">
+        <v>45372</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="39"/>
+      <c r="A74" s="15">
+        <v>9</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="29">
+        <v>16.02</v>
+      </c>
+      <c r="D74" s="18">
+        <v>45372</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="44">
-        <v>5.1209375</v>
+        <v>230</v>
+      </c>
+      <c r="C75" s="29">
+        <v>10.48</v>
       </c>
       <c r="D75" s="18">
-        <v>45374</v>
-      </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="39"/>
+        <v>45373</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="15">
+        <v>11</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="29">
+        <v>20.49</v>
+      </c>
+      <c r="D76" s="18">
+        <v>45373</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="21"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" s="44">
-        <v>5.1209375</v>
-      </c>
-      <c r="D76" s="18">
-        <v>45375</v>
-      </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="15">
+      <c r="C79" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C77" s="44">
-        <v>5.1209375</v>
-      </c>
-      <c r="D77" s="18">
-        <v>45376</v>
-      </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="15">
+      <c r="D79" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="44">
-        <v>5.1209375</v>
-      </c>
-      <c r="D78" s="18">
-        <v>45377</v>
-      </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="15">
+      <c r="E79" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="29">
-        <v>10.13</v>
-      </c>
-      <c r="D79" s="18">
-        <v>45378</v>
-      </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="39"/>
+      <c r="F79" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C80" s="29">
-        <v>9.05</v>
+        <v>232</v>
+      </c>
+      <c r="C80" s="49">
+        <v>5.1209375</v>
       </c>
       <c r="D80" s="18">
-        <v>45378</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="39"/>
+        <v>45374</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" s="29">
-        <v>3.39</v>
+        <v>232</v>
+      </c>
+      <c r="C81" s="49">
+        <v>5.1209375</v>
       </c>
       <c r="D81" s="18">
-        <v>45378</v>
-      </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="39"/>
+        <v>45375</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="29">
-        <v>8.27</v>
+        <v>232</v>
+      </c>
+      <c r="C82" s="49">
+        <v>5.1209375</v>
       </c>
       <c r="D82" s="18">
-        <v>45378</v>
-      </c>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="39"/>
+        <v>45376</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C83" s="29">
-        <v>7.21</v>
+      <c r="C83" s="49">
+        <v>5.1209375</v>
       </c>
       <c r="D83" s="18">
-        <v>45378</v>
-      </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="39"/>
+        <v>45377</v>
+      </c>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C84" s="29">
-        <v>9.04</v>
+        <v>10.13</v>
       </c>
       <c r="D84" s="18">
         <v>45378</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="39"/>
+      <c r="G84" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>234</v>
       </c>
       <c r="C85" s="29">
-        <v>14.14</v>
+        <v>9.05</v>
       </c>
       <c r="D85" s="18">
         <v>45378</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
-      <c r="G85" s="39"/>
+      <c r="G85" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C86" s="29">
-        <v>14.01</v>
+        <v>3.39</v>
       </c>
       <c r="D86" s="18">
-        <v>46840</v>
+        <v>45378</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
-      <c r="G86" s="39"/>
+      <c r="G86" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>236</v>
       </c>
       <c r="C87" s="29">
-        <v>11.17</v>
+        <v>8.27</v>
       </c>
       <c r="D87" s="18">
-        <v>46840</v>
+        <v>45378</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
-      <c r="G87" s="39"/>
+      <c r="G87" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C88" s="15">
-        <v>12</v>
+      <c r="C88" s="29">
+        <v>7.21</v>
       </c>
       <c r="D88" s="18">
-        <v>46840</v>
+        <v>45378</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
-      <c r="G88" s="39"/>
+      <c r="G88" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>238</v>
       </c>
       <c r="C89" s="29">
-        <v>12.33</v>
+        <v>9.04</v>
       </c>
       <c r="D89" s="18">
-        <v>46840</v>
+        <v>45378</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="39"/>
+      <c r="G89" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>239</v>
       </c>
       <c r="C90" s="29">
-        <v>10.57</v>
+        <v>14.14</v>
       </c>
       <c r="D90" s="18">
-        <v>46840</v>
+        <v>45378</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="39"/>
+      <c r="G90" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>240</v>
       </c>
       <c r="C91" s="29">
-        <v>10.13</v>
+        <v>14.01</v>
       </c>
       <c r="D91" s="18">
-        <v>45380</v>
-      </c>
-      <c r="E91" s="18"/>
+        <v>46840</v>
+      </c>
+      <c r="E91" s="17"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="39"/>
+      <c r="G91" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="29">
-        <v>17.37</v>
+        <v>11.17</v>
       </c>
       <c r="D92" s="18">
-        <v>45380</v>
-      </c>
-      <c r="E92" s="18"/>
+        <v>46840</v>
+      </c>
+      <c r="E92" s="17"/>
       <c r="F92" s="17"/>
-      <c r="G92" s="39"/>
+      <c r="G92" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C93" s="29">
-        <v>9.28</v>
+      <c r="C93" s="15">
+        <v>12</v>
       </c>
       <c r="D93" s="18">
-        <v>45380</v>
-      </c>
-      <c r="E93" s="18"/>
+        <v>46840</v>
+      </c>
+      <c r="E93" s="17"/>
       <c r="F93" s="17"/>
-      <c r="G93" s="39"/>
+      <c r="G93" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C94" s="29">
-        <v>7.18</v>
+        <v>12.33</v>
       </c>
       <c r="D94" s="18">
-        <v>45380</v>
-      </c>
-      <c r="E94" s="18"/>
+        <v>46840</v>
+      </c>
+      <c r="E94" s="17"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="39"/>
+      <c r="G94" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>244</v>
       </c>
       <c r="C95" s="29">
-        <v>7.54</v>
+        <v>10.57</v>
       </c>
       <c r="D95" s="18">
-        <v>45380</v>
-      </c>
-      <c r="E95" s="18"/>
+        <v>46840</v>
+      </c>
+      <c r="E95" s="17"/>
       <c r="F95" s="17"/>
-      <c r="G95" s="39"/>
+      <c r="G95" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>245</v>
       </c>
       <c r="C96" s="29">
-        <v>25.46</v>
+        <v>10.13</v>
       </c>
       <c r="D96" s="18">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="17"/>
-      <c r="G96" s="39"/>
+      <c r="G96" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="15">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>246</v>
       </c>
       <c r="C97" s="29">
-        <v>8.47</v>
+        <v>17.37</v>
       </c>
       <c r="D97" s="18">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="17"/>
-      <c r="G97" s="39"/>
+      <c r="G97" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="15">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>247</v>
       </c>
       <c r="C98" s="29">
-        <v>5.43</v>
+        <v>9.28</v>
       </c>
       <c r="D98" s="18">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="17"/>
-      <c r="G98" s="39"/>
+      <c r="G98" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>248</v>
       </c>
       <c r="C99" s="29">
-        <v>12.35</v>
+        <v>7.18</v>
       </c>
       <c r="D99" s="18">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="17"/>
-      <c r="G99" s="39"/>
+      <c r="G99" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="15">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B100" s="16" t="s">
         <v>249</v>
       </c>
       <c r="C100" s="29">
-        <v>4.06</v>
+        <v>7.54</v>
       </c>
       <c r="D100" s="18">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="39"/>
+      <c r="G100" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>250</v>
       </c>
       <c r="C101" s="29">
-        <v>14.59</v>
+        <v>25.46</v>
       </c>
       <c r="D101" s="18">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="39"/>
+      <c r="G101" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>251</v>
       </c>
       <c r="C102" s="29">
-        <v>18.2</v>
+        <v>8.47</v>
       </c>
       <c r="D102" s="18">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="17"/>
-      <c r="G102" s="39"/>
+      <c r="G102" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="15">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>252</v>
       </c>
       <c r="C103" s="29">
-        <v>13.41</v>
+        <v>5.43</v>
       </c>
       <c r="D103" s="18">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="17"/>
-      <c r="G103" s="39"/>
+      <c r="G103" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>253</v>
       </c>
       <c r="C104" s="29">
-        <v>11.59</v>
+        <v>12.35</v>
       </c>
       <c r="D104" s="18">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="17"/>
-      <c r="G104" s="39"/>
+      <c r="G104" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="21"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
+      <c r="A105" s="15">
+        <v>26</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C105" s="29">
+        <v>4.06</v>
+      </c>
+      <c r="D105" s="18">
+        <v>45381</v>
+      </c>
+      <c r="E105" s="18"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="21"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
+      <c r="A106" s="15">
+        <v>27</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" s="29">
+        <v>14.59</v>
+      </c>
+      <c r="D106" s="18">
+        <v>45382</v>
+      </c>
+      <c r="E106" s="18"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="21"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
+      <c r="A107" s="15">
+        <v>28</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" s="29">
+        <v>18.2</v>
+      </c>
+      <c r="D107" s="18">
+        <v>45382</v>
+      </c>
+      <c r="E107" s="18"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="21"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
+      <c r="A108" s="15">
+        <v>29</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" s="29">
+        <v>13.41</v>
+      </c>
+      <c r="D108" s="18">
+        <v>45382</v>
+      </c>
+      <c r="E108" s="18"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="21"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
+      <c r="A109" s="15">
+        <v>30</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" s="29">
+        <v>11.59</v>
+      </c>
+      <c r="D109" s="18">
+        <v>45382</v>
+      </c>
+      <c r="E109" s="18"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="21"/>
-      <c r="B110" s="39"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="30"/>
       <c r="D110" s="31"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
+      <c r="E110" s="50"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="21"/>
-      <c r="B111" s="39"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="30"/>
       <c r="D111" s="31"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="39"/>
-      <c r="G111" s="39"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="21"/>
-      <c r="B112" s="39"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="30"/>
       <c r="D112" s="31"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="21"/>
-      <c r="B113" s="39"/>
+      <c r="B113" s="44"/>
       <c r="C113" s="30"/>
       <c r="D113" s="31"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="21"/>
-      <c r="B114" s="39"/>
+      <c r="B114" s="44"/>
       <c r="C114" s="30"/>
       <c r="D114" s="31"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="39"/>
-      <c r="G114" s="39"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="21"/>
-      <c r="B115" s="39"/>
+      <c r="B115" s="44"/>
       <c r="C115" s="30"/>
       <c r="D115" s="31"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="21"/>
-      <c r="B116" s="39"/>
+      <c r="B116" s="44"/>
       <c r="C116" s="30"/>
       <c r="D116" s="31"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="21"/>
-      <c r="B117" s="39"/>
+      <c r="B117" s="44"/>
       <c r="C117" s="30"/>
       <c r="D117" s="31"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="21"/>
-      <c r="B118" s="39"/>
+      <c r="B118" s="44"/>
       <c r="C118" s="30"/>
       <c r="D118" s="31"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="21"/>
-      <c r="B119" s="39"/>
+      <c r="B119" s="44"/>
       <c r="C119" s="30"/>
       <c r="D119" s="31"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="21"/>
-      <c r="B120" s="39"/>
+      <c r="B120" s="44"/>
       <c r="C120" s="30"/>
       <c r="D120" s="31"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="21"/>
-      <c r="B121" s="39"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="30"/>
       <c r="D121" s="31"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="21"/>
-      <c r="B122" s="39"/>
+      <c r="B122" s="44"/>
       <c r="C122" s="30"/>
       <c r="D122" s="31"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="21"/>
-      <c r="B123" s="39"/>
+      <c r="B123" s="44"/>
       <c r="C123" s="30"/>
       <c r="D123" s="31"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="21"/>
-      <c r="B124" s="39"/>
+      <c r="B124" s="44"/>
       <c r="C124" s="30"/>
       <c r="D124" s="31"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="21"/>
-      <c r="B125" s="39"/>
+      <c r="B125" s="44"/>
       <c r="C125" s="30"/>
       <c r="D125" s="31"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="21"/>
-      <c r="B126" s="39"/>
+      <c r="B126" s="44"/>
       <c r="C126" s="30"/>
       <c r="D126" s="31"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="21"/>
-      <c r="B127" s="39"/>
+      <c r="B127" s="44"/>
       <c r="C127" s="30"/>
       <c r="D127" s="31"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="21"/>
-      <c r="B128" s="39"/>
+      <c r="B128" s="44"/>
       <c r="C128" s="30"/>
       <c r="D128" s="31"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="39"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="21"/>
-      <c r="B129" s="39"/>
+      <c r="B129" s="44"/>
       <c r="C129" s="30"/>
       <c r="D129" s="31"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="39"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="21"/>
-      <c r="B130" s="39"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="30"/>
       <c r="D130" s="31"/>
-      <c r="E130" s="45"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
+      <c r="E130" s="50"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="21"/>
-      <c r="B131" s="39"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="30"/>
       <c r="D131" s="31"/>
-      <c r="E131" s="45"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
+      <c r="E131" s="50"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="21"/>
-      <c r="B132" s="39"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="30"/>
       <c r="D132" s="31"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="21"/>
-      <c r="B133" s="39"/>
+      <c r="B133" s="44"/>
       <c r="C133" s="30"/>
       <c r="D133" s="31"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="21"/>
-      <c r="B134" s="39"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="30"/>
       <c r="D134" s="31"/>
-      <c r="E134" s="45"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="39"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="21"/>
-      <c r="B135" s="39"/>
+      <c r="B135" s="44"/>
       <c r="C135" s="30"/>
       <c r="D135" s="31"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="39"/>
-      <c r="G135" s="39"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="21"/>
-      <c r="B136" s="39"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="30"/>
       <c r="D136" s="31"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="39"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="21"/>
-      <c r="B137" s="39"/>
+      <c r="B137" s="44"/>
       <c r="C137" s="30"/>
       <c r="D137" s="31"/>
-      <c r="E137" s="45"/>
-      <c r="F137" s="39"/>
-      <c r="G137" s="39"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="21"/>
-      <c r="B138" s="39"/>
+      <c r="B138" s="44"/>
       <c r="C138" s="30"/>
       <c r="D138" s="31"/>
-      <c r="E138" s="45"/>
-      <c r="F138" s="39"/>
-      <c r="G138" s="39"/>
+      <c r="E138" s="50"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="21"/>
-      <c r="B139" s="39"/>
+      <c r="B139" s="44"/>
       <c r="C139" s="30"/>
       <c r="D139" s="31"/>
-      <c r="E139" s="45"/>
-      <c r="F139" s="39"/>
-      <c r="G139" s="39"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="21"/>
-      <c r="B140" s="39"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="30"/>
       <c r="D140" s="31"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="39"/>
-      <c r="G140" s="39"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="21"/>
-      <c r="B141" s="39"/>
+      <c r="B141" s="44"/>
       <c r="C141" s="30"/>
       <c r="D141" s="31"/>
-      <c r="E141" s="45"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="39"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="21"/>
-      <c r="B142" s="39"/>
+      <c r="B142" s="44"/>
       <c r="C142" s="30"/>
       <c r="D142" s="31"/>
-      <c r="E142" s="45"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="21"/>
-      <c r="B143" s="39"/>
+      <c r="B143" s="44"/>
       <c r="C143" s="30"/>
       <c r="D143" s="31"/>
-      <c r="E143" s="45"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="39"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="21"/>
-      <c r="B144" s="39"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="30"/>
       <c r="D144" s="31"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="21"/>
-      <c r="B145" s="39"/>
+      <c r="B145" s="44"/>
       <c r="C145" s="30"/>
       <c r="D145" s="31"/>
-      <c r="E145" s="45"/>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="21"/>
-      <c r="B146" s="39"/>
+      <c r="B146" s="44"/>
       <c r="C146" s="30"/>
       <c r="D146" s="31"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="39"/>
-      <c r="G146" s="39"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="21"/>
-      <c r="B147" s="39"/>
+      <c r="B147" s="44"/>
       <c r="C147" s="30"/>
       <c r="D147" s="31"/>
-      <c r="E147" s="45"/>
-      <c r="F147" s="39"/>
-      <c r="G147" s="39"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="21"/>
-      <c r="B148" s="39"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="30"/>
       <c r="D148" s="31"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="39"/>
-      <c r="G148" s="39"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="21"/>
-      <c r="B149" s="39"/>
+      <c r="B149" s="44"/>
       <c r="C149" s="30"/>
       <c r="D149" s="31"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="39"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="21"/>
-      <c r="B150" s="39"/>
+      <c r="B150" s="44"/>
       <c r="C150" s="30"/>
       <c r="D150" s="31"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="39"/>
-      <c r="G150" s="39"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="21"/>
-      <c r="B151" s="39"/>
+      <c r="B151" s="44"/>
       <c r="C151" s="30"/>
       <c r="D151" s="31"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="39"/>
-      <c r="G151" s="39"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="21"/>
-      <c r="B152" s="39"/>
+      <c r="B152" s="44"/>
       <c r="C152" s="30"/>
       <c r="D152" s="31"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="39"/>
-      <c r="G152" s="39"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="21"/>
-      <c r="B153" s="39"/>
+      <c r="B153" s="44"/>
       <c r="C153" s="30"/>
       <c r="D153" s="31"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="39"/>
-      <c r="G153" s="39"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="21"/>
-      <c r="B154" s="39"/>
+      <c r="B154" s="44"/>
       <c r="C154" s="30"/>
       <c r="D154" s="31"/>
-      <c r="E154" s="45"/>
-      <c r="F154" s="39"/>
-      <c r="G154" s="39"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="21"/>
-      <c r="B155" s="39"/>
+      <c r="B155" s="44"/>
       <c r="C155" s="30"/>
       <c r="D155" s="31"/>
-      <c r="E155" s="45"/>
-      <c r="F155" s="39"/>
-      <c r="G155" s="39"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="21"/>
-      <c r="B156" s="39"/>
+      <c r="B156" s="44"/>
       <c r="C156" s="30"/>
       <c r="D156" s="31"/>
-      <c r="E156" s="45"/>
-      <c r="F156" s="39"/>
-      <c r="G156" s="39"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="21"/>
-      <c r="B157" s="39"/>
+      <c r="B157" s="44"/>
       <c r="C157" s="30"/>
       <c r="D157" s="31"/>
-      <c r="E157" s="45"/>
-      <c r="F157" s="39"/>
-      <c r="G157" s="39"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="21"/>
-      <c r="B158" s="39"/>
+      <c r="B158" s="44"/>
       <c r="C158" s="30"/>
       <c r="D158" s="31"/>
-      <c r="E158" s="45"/>
-      <c r="F158" s="39"/>
-      <c r="G158" s="39"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="21"/>
-      <c r="B159" s="39"/>
+      <c r="B159" s="44"/>
       <c r="C159" s="30"/>
       <c r="D159" s="31"/>
-      <c r="E159" s="45"/>
-      <c r="F159" s="39"/>
-      <c r="G159" s="39"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="21"/>
-      <c r="B160" s="39"/>
+      <c r="B160" s="44"/>
       <c r="C160" s="30"/>
       <c r="D160" s="31"/>
-      <c r="E160" s="45"/>
-      <c r="F160" s="39"/>
-      <c r="G160" s="39"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="21"/>
-      <c r="B161" s="39"/>
+      <c r="B161" s="44"/>
       <c r="C161" s="30"/>
       <c r="D161" s="31"/>
-      <c r="E161" s="45"/>
-      <c r="F161" s="39"/>
-      <c r="G161" s="39"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="21"/>
-      <c r="B162" s="39"/>
+      <c r="B162" s="44"/>
       <c r="C162" s="30"/>
       <c r="D162" s="31"/>
-      <c r="E162" s="45"/>
-      <c r="F162" s="39"/>
-      <c r="G162" s="39"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="21"/>
-      <c r="B163" s="39"/>
+      <c r="B163" s="44"/>
       <c r="C163" s="30"/>
       <c r="D163" s="31"/>
-      <c r="E163" s="45"/>
-      <c r="F163" s="39"/>
-      <c r="G163" s="39"/>
+      <c r="E163" s="50"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="21"/>
-      <c r="B164" s="39"/>
+      <c r="B164" s="44"/>
       <c r="C164" s="30"/>
       <c r="D164" s="31"/>
-      <c r="E164" s="45"/>
-      <c r="F164" s="39"/>
-      <c r="G164" s="39"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="21"/>
-      <c r="B165" s="39"/>
+      <c r="B165" s="44"/>
       <c r="C165" s="30"/>
       <c r="D165" s="31"/>
-      <c r="E165" s="45"/>
-      <c r="F165" s="39"/>
-      <c r="G165" s="39"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="21"/>
-      <c r="B166" s="39"/>
+      <c r="B166" s="44"/>
       <c r="C166" s="30"/>
       <c r="D166" s="31"/>
-      <c r="E166" s="45"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="39"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="21"/>
-      <c r="B167" s="39"/>
+      <c r="B167" s="44"/>
       <c r="C167" s="30"/>
       <c r="D167" s="31"/>
-      <c r="E167" s="45"/>
-      <c r="F167" s="39"/>
-      <c r="G167" s="39"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="21"/>
-      <c r="B168" s="39"/>
+      <c r="B168" s="44"/>
       <c r="C168" s="30"/>
       <c r="D168" s="31"/>
-      <c r="E168" s="45"/>
-      <c r="F168" s="39"/>
-      <c r="G168" s="39"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="21"/>
-      <c r="B169" s="39"/>
+      <c r="B169" s="44"/>
       <c r="C169" s="30"/>
       <c r="D169" s="31"/>
-      <c r="E169" s="45"/>
-      <c r="F169" s="39"/>
-      <c r="G169" s="39"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="44"/>
+      <c r="G169" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="21"/>
-      <c r="B170" s="39"/>
+      <c r="B170" s="44"/>
       <c r="C170" s="30"/>
       <c r="D170" s="31"/>
-      <c r="E170" s="45"/>
-      <c r="F170" s="39"/>
-      <c r="G170" s="39"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="21"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="46"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="30"/>
       <c r="D171" s="31"/>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39"/>
-      <c r="G171" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A172" s="41"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="43"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A173" s="41"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="43"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A174" s="41"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="42"/>
-      <c r="D174" s="43"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A175" s="41"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="42"/>
-      <c r="D175" s="43"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A176" s="41"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="44"/>
+      <c r="G171" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+      <c r="A172" s="21"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+      <c r="A173" s="21"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+      <c r="A174" s="21"/>
+      <c r="B174" s="44"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+      <c r="A175" s="21"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+      <c r="A176" s="21"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="43"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
+      <c r="C176" s="51"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="44"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A177" s="41"/>
+      <c r="A177" s="46"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="43"/>
+      <c r="C177" s="47"/>
+      <c r="D177" s="48"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A178" s="41"/>
+      <c r="A178" s="46"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="43"/>
+      <c r="C178" s="47"/>
+      <c r="D178" s="48"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A179" s="41"/>
+      <c r="A179" s="46"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="43"/>
+      <c r="C179" s="47"/>
+      <c r="D179" s="48"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A180" s="41"/>
+      <c r="A180" s="46"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="43"/>
+      <c r="C180" s="47"/>
+      <c r="D180" s="48"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A181" s="41"/>
+      <c r="A181" s="46"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="43"/>
+      <c r="C181" s="47"/>
+      <c r="D181" s="48"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A182" s="41"/>
+      <c r="A182" s="46"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="43"/>
+      <c r="C182" s="47"/>
+      <c r="D182" s="48"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A183" s="41"/>
+      <c r="A183" s="46"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="43"/>
+      <c r="C183" s="47"/>
+      <c r="D183" s="48"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A184" s="41"/>
+      <c r="A184" s="46"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="43"/>
+      <c r="C184" s="47"/>
+      <c r="D184" s="48"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A185" s="41"/>
+      <c r="A185" s="46"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="43"/>
+      <c r="C185" s="47"/>
+      <c r="D185" s="48"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A186" s="41"/>
+      <c r="A186" s="46"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="43"/>
+      <c r="C186" s="47"/>
+      <c r="D186" s="48"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A187" s="41"/>
+      <c r="A187" s="46"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="43"/>
+      <c r="C187" s="47"/>
+      <c r="D187" s="48"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A188" s="41"/>
+      <c r="A188" s="46"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="43"/>
+      <c r="C188" s="47"/>
+      <c r="D188" s="48"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A189" s="41"/>
+      <c r="A189" s="46"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="43"/>
+      <c r="C189" s="47"/>
+      <c r="D189" s="48"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A190" s="41"/>
+      <c r="A190" s="46"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="43"/>
+      <c r="C190" s="47"/>
+      <c r="D190" s="48"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A191" s="41"/>
+      <c r="A191" s="46"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="43"/>
+      <c r="C191" s="47"/>
+      <c r="D191" s="48"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A192" s="41"/>
+      <c r="A192" s="46"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="43"/>
+      <c r="C192" s="47"/>
+      <c r="D192" s="48"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A193" s="41"/>
+      <c r="A193" s="46"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="42"/>
-      <c r="D193" s="43"/>
+      <c r="C193" s="47"/>
+      <c r="D193" s="48"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A194" s="41"/>
+      <c r="A194" s="46"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="43"/>
+      <c r="C194" s="47"/>
+      <c r="D194" s="48"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A195" s="41"/>
+      <c r="A195" s="46"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="43"/>
+      <c r="C195" s="47"/>
+      <c r="D195" s="48"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A196" s="41"/>
+      <c r="A196" s="46"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="43"/>
+      <c r="C196" s="47"/>
+      <c r="D196" s="48"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A197" s="41"/>
+      <c r="A197" s="46"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="43"/>
+      <c r="C197" s="47"/>
+      <c r="D197" s="48"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A198" s="41"/>
+      <c r="A198" s="46"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="43"/>
+      <c r="C198" s="47"/>
+      <c r="D198" s="48"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A199" s="46"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="47"/>
+      <c r="D199" s="48"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A200" s="46"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="47"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A201" s="46"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="47"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A202" s="46"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="47"/>
+      <c r="D202" s="48"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A203" s="46"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="47"/>
+      <c r="D203" s="48"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="287">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -502,378 +502,388 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Watch 1 video then practise it perfectly by writing notes and trying 
-on editor  </t>
-  </si>
-  <si>
-    <t>Revise previous days topics Next days</t>
+    <t>1. Round#1 - Watch video with full concentration.
+2. Round#2 - Write down in note book
+3. Round#3 - Code on your own in editor without seeing</t>
+  </si>
+  <si>
+    <t>Revise previous days topics Next days - find a way to achive this</t>
   </si>
   <si>
     <t>Practise more programs outside the course aswel, 
 Generate your own programs and scenarios and try to implement it</t>
   </si>
   <si>
+    <t>JavaScript - YouTube - NaveenAutoLabs</t>
+  </si>
+  <si>
+    <t>#1 - Setup Node JS, Install Visual Studio Code Editor, Write First Code with JavaScript</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>#2 - Var vs Let vs Const in JavaScript</t>
+  </si>
+  <si>
+    <t>#3 - IfElse, Nested IfElse and Switch-Case in JavaScript</t>
+  </si>
+  <si>
+    <t>Note: Only 1 hour video watch per day, rest 2 hours of the time only for practise and revision</t>
+  </si>
+  <si>
+    <t>#4 - Different Types of Loops in JavaScript | For - While - DoWhile - ForOf, ForIn Loops</t>
+  </si>
+  <si>
+    <t>#5 - Array &amp; 10 Most Important Arrays Functions in JavaScript</t>
+  </si>
+  <si>
+    <t>#6 - Difference between map(), filter() and reduce() in Javascript</t>
+  </si>
+  <si>
+    <t>#7 - Important Array Methods in JavaScript - Part 2</t>
+  </si>
+  <si>
+    <t>#8 - Top 9 Ways Of Declaring a Function in JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #9 - Arrow Function in JavaScript With Simple Examples</t>
+  </si>
+  <si>
+    <t>#10 - Various ways of creating Objects in JavaScript</t>
+  </si>
+  <si>
+    <t>#11 - typeOf Operator In JavaScript</t>
+  </si>
+  <si>
+    <t>#12 - Can We Overload a Function in JavaScript?</t>
+  </si>
+  <si>
+    <t>#13 - Class &amp; Objects In JavaScript || Can We Overload a Constructor in JS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#14 - Inheritance (Parent - Child Classes) In JavaScript </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#15 - Important Quick Tips in JavaScript - Top 20 JS Tips </t>
+  </si>
+  <si>
+    <t>#16 - Static Concept in JavaScript</t>
+  </si>
+  <si>
+    <t>#17 - Method Overriding in JavaScript</t>
+  </si>
+  <si>
+    <t>#18 - Callback Function In JavaScript</t>
+  </si>
+  <si>
+    <t>#19 - Synchronous vs ASynchronous Behaviour in JavaScript</t>
+  </si>
+  <si>
+    <t>#20 - Difference between Synchronization and ASynchronization Calls With Examples</t>
+  </si>
+  <si>
+    <t>#21 - Promise in JavaScript || Pending, Fulfilment and Reject States</t>
+  </si>
+  <si>
+    <t>#22 - Promise Chaining in JavaScript</t>
+  </si>
+  <si>
+    <t>#23 - Promise.all() function in JavaScript</t>
+  </si>
+  <si>
+    <t>#24 - Promise.all() vs Promise.AllSettled() in JavaScript</t>
+  </si>
+  <si>
+    <t>#25 - Promise.race() in JavaScript</t>
+  </si>
+  <si>
+    <t>#26 - Promise.any() function in JavaScript</t>
+  </si>
+  <si>
+    <t>#27 - Callback Hell or Pyramid of Doom In JavaScript</t>
+  </si>
+  <si>
+    <t>#28 - Make Coffee with Callback Hell Example || Why to avoid this callback hell in Javascript</t>
+  </si>
+  <si>
+    <t>#29 - CallBack Hell Vs Promise Chaining in JavaScript</t>
+  </si>
+  <si>
+    <t>#30 - Async - Await Concept in JavaScript With Easy Examples</t>
+  </si>
+  <si>
+    <t>#31 - Fetch API Data with Async-Await in javaScript</t>
+  </si>
+  <si>
+    <t>#32 - Various Console Log Methods in JavaScript || Don't use console.log(), use this instead of.</t>
+  </si>
+  <si>
+    <t>#33 - Destructuring in JavaScript</t>
+  </si>
+  <si>
+    <t>#34 - Template Literals in JavaScript || Backtick Concept</t>
+  </si>
+  <si>
+    <t>#35 - Remove Duplicate Elements From Array In JavaScript</t>
+  </si>
+  <si>
+    <t>#36 - Reverse a Number In Javascript</t>
+  </si>
+  <si>
+    <t>#37 - Most Important String Methods In JavaScript</t>
+  </si>
+  <si>
+    <t>TypeScript - Youtube - NaveenAutoLabs</t>
+  </si>
+  <si>
+    <t>#1 - What is TypeScript || Install Typescript || TypeScript vs JavaScript</t>
+  </si>
+  <si>
+    <t>#2 - Type, Type Inference, Type Annotations in TypeScript</t>
+  </si>
+  <si>
+    <t>#3 - Arrays In TypeScript</t>
+  </si>
+  <si>
+    <t>#4 - Tuple In TypeScript</t>
+  </si>
+  <si>
+    <t>#5 - Enum in TypeScript</t>
+  </si>
+  <si>
+    <t>#6 - Union Type in TypeScript</t>
+  </si>
+  <si>
+    <t>#7 - Any, Void, Never Data types in TypeScript</t>
+  </si>
+  <si>
+    <t>#8 - Type Assertions in TypeScript || Type Casting</t>
+  </si>
+  <si>
+    <t>#9 - If Else &amp; Ternary Operator in TypeScript</t>
+  </si>
+  <si>
+    <t>#10 - Switch Case In TypeScript || If Else vs Switch Case</t>
+  </si>
+  <si>
+    <t>#11 - Loops in TypeScript || For,  For..Of,  For..In,  While,  D0-While Loops</t>
+  </si>
+  <si>
+    <t>#12 - Functions in TypeScript || Anonymous Function</t>
+  </si>
+  <si>
+    <t>#13 - Arrow Functions in TypeScript</t>
+  </si>
+  <si>
+    <t>#14 - Optional &amp; Default Function Parameters in TypeScript</t>
+  </si>
+  <si>
+    <t>#15 - Function Overloading in Typescript</t>
+  </si>
+  <si>
+    <t>Playwright - YouTube - NaveenAutoLabs</t>
+  </si>
+  <si>
+    <t>#1 - Playwright with TypeScript - Setup &amp; Installation | First Script</t>
+  </si>
+  <si>
+    <t>#2 - Time Travel Debugging - UI Mode Feature In Playwright - Typescript</t>
+  </si>
+  <si>
+    <t>#3 - Playwright - Test Runner Installation &amp; Dependency Setup || tsConfig.json || package.json</t>
+  </si>
+  <si>
+    <t>#4 - Login Page Script With Playwright- TypeScript ||How To Launch Chrome, Chromium, Firefox, WebKit</t>
+  </si>
+  <si>
+    <t>#5 - BrowserContext in Playwright || Handle Two different user sessions with BrowserContext</t>
+  </si>
+  <si>
+    <t>#6 - How to handle Authentication Pop Up (Basic Auth) With Playwright+Typescript</t>
+  </si>
+  <si>
+    <t>#7 - Locators (ID, ClassName, Text, CSS Selector, XPath) in Playwright - Typescript</t>
+  </si>
+  <si>
+    <t>#8 - Data-Test-Id or Test-Data-ID - Locate by test id in Playwright+Typescript</t>
+  </si>
+  <si>
+    <t>#9 - getByRole() in Playwright | Find Elements using ARIA Roles || Accessibility Role</t>
+  </si>
+  <si>
+    <t>#10 - Open Browser without Incognito Mode (Normal Mode) with Playwright</t>
+  </si>
+  <si>
+    <t>#11 - Chaining Locators in Playwright + Typescript</t>
+  </si>
+  <si>
+    <t>Complete 3 hours JavaScript Tutorial for Automation Testing</t>
+  </si>
+  <si>
+    <t>Introduction to Playwright Features - Part 1</t>
+  </si>
+  <si>
+    <t>Introduction to Playwright Features - Part 2</t>
+  </si>
+  <si>
+    <t>How this Course is designed? Topics Breakup</t>
+  </si>
+  <si>
+    <t>Install Node.js &amp; Visual Studio for setting up Playwright Environment</t>
+  </si>
+  <si>
+    <t>Create npm  Project and install Playwright dependencies for testing</t>
+  </si>
+  <si>
+    <t>Importance of Playwright Test Annotation and async await understanding</t>
+  </si>
+  <si>
+    <t>What is browser context and Page fixtures in Playwright ? - Example</t>
+  </si>
+  <si>
+    <t>Importance of Playwright configuration file and its details to run the tests</t>
+  </si>
+  <si>
+    <t>Running Playwright tests in multiple browsers - chrome, Firefox 7 Webkit</t>
+  </si>
+  <si>
+    <t>Locators supported by playwright and how to type into elements on page</t>
+  </si>
+  <si>
+    <t>Extracting the text from browser and inserting valid expect assertions in test</t>
+  </si>
+  <si>
+    <t>How to work with locators which extract multiple webelements in page</t>
+  </si>
+  <si>
+    <t>Understanding how wait mechanism works if list of elements are returned</t>
+  </si>
+  <si>
+    <t>Techniques to wait dynamically for new page in Service based applications</t>
+  </si>
+  <si>
+    <t>Handling static Select dropdown options with Playwright</t>
+  </si>
+  <si>
+    <t>Selecting radio buttons, Checkboxes and implement expect assertions</t>
+  </si>
+  <si>
+    <t>Using async await with Assertions and understand validating the attributes</t>
+  </si>
+  <si>
+    <t>Handling Child windows &amp; Tabs with Playwright by switching browser context</t>
+  </si>
+  <si>
+    <t>What is Playwright Inspector? And how to debug the playwright script</t>
+  </si>
+  <si>
+    <t>Codegen tool to record &amp; Playback with generated automation script</t>
+  </si>
+  <si>
+    <t>Detailed view of Test Traces, HTML reports, logs &amp; Screenshots for test results</t>
+  </si>
+  <si>
+    <t>Demo of the Application and Test Scenarios which needs to be automated</t>
+  </si>
+  <si>
+    <t>Write the Script to dynamically find the product to buy from list of products</t>
+  </si>
+  <si>
+    <t>Add assertions for the actions performed and implement necessary Sync steps</t>
+  </si>
+  <si>
+    <t>Handling Auto suggestive dropdown options with playwright - Example</t>
+  </si>
+  <si>
+    <t>Complete E2E flow of Placing the order and grab the OrderID with Playwright</t>
+  </si>
+  <si>
+    <t>Course Names</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Teacher/Source</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>NaveenAutoLabs, Udemy</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Playwright</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Live Framework Practise</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLFGoYjJG_fqq6cHeqfsDes3pdVh3kpl74</t>
+  </si>
+  <si>
+    <t>RestAssured</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>BDD Cucumber</t>
+  </si>
+  <si>
+    <t>Java Basics for Automation testing</t>
+  </si>
+  <si>
+    <t>Python Basics for Automation testing</t>
+  </si>
+  <si>
+    <t>GitHub and other Repositories</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>Generative AI</t>
+  </si>
+  <si>
+    <t>Email Testing with Mailosaur API || Fetch OTP, Email Body, To, CC, BCC, Subject, Images, Attachments</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Il8efgsiJyw</t>
+  </si>
+  <si>
+    <t>Testing/QA - SDET Mock Interview - Manual + Automation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLFGoYjJG_fqrr6FPLvfwwAXZz8eDMacgD</t>
+  </si>
+  <si>
+    <t>Playwright with Java [2023 latest]  - UI + API Automation + End To End Framework</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLFGoYjJG_fqrjcgRUcc2ubbZGtbRcC6W8</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>AWS Certification</t>
+  </si>
+  <si>
+    <t>Azure Basics</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>JavaScript - YouTube - NaveenAutoLabs</t>
-  </si>
-  <si>
-    <t>#1 - Setup Node JS, Install Visual Studio Code Editor, Write First Code with JavaScript</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>#2 - Var vs Let vs Const in JavaScript</t>
-  </si>
-  <si>
-    <t>#3 - IfElse, Nested IfElse and Switch-Case in JavaScript</t>
-  </si>
-  <si>
-    <t>Note: Only 1 hour video watch per day, rest 2 hours of the time only for practise and revision</t>
-  </si>
-  <si>
-    <t>#4 - Different Types of Loops in JavaScript | For - While - DoWhile - ForOf, ForIn Loops</t>
-  </si>
-  <si>
-    <t>#5 - Array &amp; 10 Most Important Arrays Functions in JavaScript</t>
-  </si>
-  <si>
-    <t>#6 - Difference between map(), filter() and reduce() in Javascript</t>
-  </si>
-  <si>
-    <t>#7 - Important Array Methods in JavaScript - Part 2</t>
-  </si>
-  <si>
-    <t>#8 - Top 9 Ways Of Declaring a Function in JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #9 - Arrow Function in JavaScript With Simple Examples</t>
-  </si>
-  <si>
-    <t>#10 - Various ways of creating Objects in JavaScript</t>
-  </si>
-  <si>
-    <t>#11 - typeOf Operator In JavaScript</t>
-  </si>
-  <si>
-    <t>#12 - Can We Overload a Function in JavaScript?</t>
-  </si>
-  <si>
-    <t>#13 - Class &amp; Objects In JavaScript || Can We Overload a Constructor in JS?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#14 - Inheritance (Parent - Child Classes) In JavaScript </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#15 - Important Quick Tips in JavaScript - Top 20 JS Tips </t>
-  </si>
-  <si>
-    <t>#16 - Static Concept in JavaScript</t>
-  </si>
-  <si>
-    <t>#17 - Method Overriding in JavaScript</t>
-  </si>
-  <si>
-    <t>#18 - Callback Function In JavaScript</t>
-  </si>
-  <si>
-    <t>#19 - Synchronous vs ASynchronous Behaviour in JavaScript</t>
-  </si>
-  <si>
-    <t>#20 - Difference between Synchronization and ASynchronization Calls With Examples</t>
-  </si>
-  <si>
-    <t>#21 - Promise in JavaScript || Pending, Fulfilment and Reject States</t>
-  </si>
-  <si>
-    <t>#22 - Promise Chaining in JavaScript</t>
-  </si>
-  <si>
-    <t>#23 - Promise.all() function in JavaScript</t>
-  </si>
-  <si>
-    <t>#24 - Promise.all() vs Promise.AllSettled() in JavaScript</t>
-  </si>
-  <si>
-    <t>#25 - Promise.race() in JavaScript</t>
-  </si>
-  <si>
-    <t>#26 - Promise.any() function in JavaScript</t>
-  </si>
-  <si>
-    <t>#27 - Callback Hell or Pyramid of Doom In JavaScript</t>
-  </si>
-  <si>
-    <t>#28 - Make Coffee with Callback Hell Example || Why to avoid this callback hell in Javascript</t>
-  </si>
-  <si>
-    <t>#29 - CallBack Hell Vs Promise Chaining in JavaScript</t>
-  </si>
-  <si>
-    <t>#30 - Async - Await Concept in JavaScript With Easy Examples</t>
-  </si>
-  <si>
-    <t>#31 - Fetch API Data with Async-Await in javaScript</t>
-  </si>
-  <si>
-    <t>#32 - Various Console Log Methods in JavaScript || Don't use console.log(), use this instead of.</t>
-  </si>
-  <si>
-    <t>#33 - Destructuring in JavaScript</t>
-  </si>
-  <si>
-    <t>#34 - Template Literals in JavaScript || Backtick Concept</t>
-  </si>
-  <si>
-    <t>#35 - Remove Duplicate Elements From Array In JavaScript</t>
-  </si>
-  <si>
-    <t>#36 - Reverse a Number In Javascript</t>
-  </si>
-  <si>
-    <t>#37 - Most Important String Methods In JavaScript</t>
-  </si>
-  <si>
-    <t>TypeScript - Youtube - NaveenAutoLabs</t>
-  </si>
-  <si>
-    <t>#1 - What is TypeScript || Install Typescript || TypeScript vs JavaScript</t>
-  </si>
-  <si>
-    <t>#2 - Type, Type Inference, Type Annotations in TypeScript</t>
-  </si>
-  <si>
-    <t>#3 - Arrays In TypeScript</t>
-  </si>
-  <si>
-    <t>#4 - Tuple In TypeScript</t>
-  </si>
-  <si>
-    <t>#5 - Enum in TypeScript</t>
-  </si>
-  <si>
-    <t>#6 - Union Type in TypeScript</t>
-  </si>
-  <si>
-    <t>#7 - Any, Void, Never Data types in TypeScript</t>
-  </si>
-  <si>
-    <t>#8 - Type Assertions in TypeScript || Type Casting</t>
-  </si>
-  <si>
-    <t>#9 - If Else &amp; Ternary Operator in TypeScript</t>
-  </si>
-  <si>
-    <t>#10 - Switch Case In TypeScript || If Else vs Switch Case</t>
-  </si>
-  <si>
-    <t>#11 - Loops in TypeScript || For,  For..Of,  For..In,  While,  D0-While Loops</t>
-  </si>
-  <si>
-    <t>#12 - Functions in TypeScript || Anonymous Function</t>
-  </si>
-  <si>
-    <t>#13 - Arrow Functions in TypeScript</t>
-  </si>
-  <si>
-    <t>#14 - Optional &amp; Default Function Parameters in TypeScript</t>
-  </si>
-  <si>
-    <t>#15 - Function Overloading in Typescript</t>
-  </si>
-  <si>
-    <t>Playwright - YouTube - NaveenAutoLabs</t>
-  </si>
-  <si>
-    <t>#1 - Playwright with TypeScript - Setup &amp; Installation | First Script</t>
-  </si>
-  <si>
-    <t>#2 - Time Travel Debugging - UI Mode Feature In Playwright - Typescript</t>
-  </si>
-  <si>
-    <t>#3 - Playwright - Test Runner Installation &amp; Dependency Setup || tsConfig.json || package.json</t>
-  </si>
-  <si>
-    <t>#4 - Login Page Script With Playwright- TypeScript ||How To Launch Chrome, Chromium, Firefox, WebKit</t>
-  </si>
-  <si>
-    <t>#5 - BrowserContext in Playwright || Handle Two different user sessions with BrowserContext</t>
-  </si>
-  <si>
-    <t>#6 - How to handle Authentication Pop Up (Basic Auth) With Playwright+Typescript</t>
-  </si>
-  <si>
-    <t>#7 - Locators (ID, ClassName, Text, CSS Selector, XPath) in Playwright - Typescript</t>
-  </si>
-  <si>
-    <t>#8 - Data-Test-Id or Test-Data-ID - Locate by test id in Playwright+Typescript</t>
-  </si>
-  <si>
-    <t>#9 - getByRole() in Playwright | Find Elements using ARIA Roles || Accessibility Role</t>
-  </si>
-  <si>
-    <t>#10 - Open Browser without Incognito Mode (Normal Mode) with Playwright</t>
-  </si>
-  <si>
-    <t>#11 - Chaining Locators in Playwright + Typescript</t>
-  </si>
-  <si>
-    <t>Complete 3 hours JavaScript Tutorial for Automation Testing</t>
-  </si>
-  <si>
-    <t>Introduction to Playwright Features - Part 1</t>
-  </si>
-  <si>
-    <t>Introduction to Playwright Features - Part 2</t>
-  </si>
-  <si>
-    <t>How this Course is designed? Topics Breakup</t>
-  </si>
-  <si>
-    <t>Install Node.js &amp; Visual Studio for setting up Playwright Environment</t>
-  </si>
-  <si>
-    <t>Create npm  Project and install Playwright dependencies for testing</t>
-  </si>
-  <si>
-    <t>Importance of Playwright Test Annotation and async await understanding</t>
-  </si>
-  <si>
-    <t>What is browser context and Page fixtures in Playwright ? - Example</t>
-  </si>
-  <si>
-    <t>Importance of Playwright configuration file and its details to run the tests</t>
-  </si>
-  <si>
-    <t>Running Playwright tests in multiple browsers - chrome, Firefox 7 Webkit</t>
-  </si>
-  <si>
-    <t>Locators supported by playwright and how to type into elements on page</t>
-  </si>
-  <si>
-    <t>Extracting the text from browser and inserting valid expect assertions in test</t>
-  </si>
-  <si>
-    <t>How to work with locators which extract multiple webelements in page</t>
-  </si>
-  <si>
-    <t>Understanding how wait mechanism works if list of elements are returned</t>
-  </si>
-  <si>
-    <t>Techniques to wait dynamically for new page in Service based applications</t>
-  </si>
-  <si>
-    <t>Handling static Select dropdown options with Playwright</t>
-  </si>
-  <si>
-    <t>Selecting radio buttons, Checkboxes and implement expect assertions</t>
-  </si>
-  <si>
-    <t>Using async await with Assertions and understand validating the attributes</t>
-  </si>
-  <si>
-    <t>Handling Child windows &amp; Tabs with Playwright by switching browser context</t>
-  </si>
-  <si>
-    <t>What is Playwright Inspector? And how to debug the playwright script</t>
-  </si>
-  <si>
-    <t>Codegen tool to record &amp; Playback with generated automation script</t>
-  </si>
-  <si>
-    <t>Detailed view of Test Traces, HTML reports, logs &amp; Screenshots for test results</t>
-  </si>
-  <si>
-    <t>Demo of the Application and Test Scenarios which needs to be automated</t>
-  </si>
-  <si>
-    <t>Write the Script to dynamically find the product to buy from list of products</t>
-  </si>
-  <si>
-    <t>Add assertions for the actions performed and implement necessary Sync steps</t>
-  </si>
-  <si>
-    <t>Handling Auto suggestive dropdown options with playwright - Example</t>
-  </si>
-  <si>
-    <t>Complete E2E flow of Placing the order and grab the OrderID with Playwright</t>
-  </si>
-  <si>
-    <t>Course Names</t>
-  </si>
-  <si>
-    <t>Teacher/Source</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>NaveenAutoLabs, Udemy</t>
-  </si>
-  <si>
-    <t>TypeScript</t>
-  </si>
-  <si>
-    <t>Playwright</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Live Framework Practise</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/playlist?list=PLFGoYjJG_fqq6cHeqfsDes3pdVh3kpl74</t>
-  </si>
-  <si>
-    <t>RestAssured</t>
-  </si>
-  <si>
-    <t>Udemy</t>
-  </si>
-  <si>
-    <t>BDD Cucumber</t>
-  </si>
-  <si>
-    <t>Java Basics for Automation testing</t>
-  </si>
-  <si>
-    <t>Python Basics for Automation testing</t>
-  </si>
-  <si>
-    <t>GitHub and other Repositories</t>
-  </si>
-  <si>
-    <t>Postman</t>
-  </si>
-  <si>
-    <t>Generative AI</t>
-  </si>
-  <si>
-    <t>Email Testing with Mailosaur API || Fetch OTP, Email Body, To, CC, BCC, Subject, Images, Attachments</t>
-  </si>
-  <si>
-    <t>YouTube</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Il8efgsiJyw</t>
-  </si>
-  <si>
-    <t>Testing/QA - SDET Mock Interview - Manual + Automation</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/playlist?list=PLFGoYjJG_fqrr6FPLvfwwAXZz8eDMacgD</t>
-  </si>
-  <si>
-    <t>Playwright with Java [2023 latest]  - UI + API Automation + End To End Framework</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/playlist?list=PLFGoYjJG_fqrjcgRUcc2ubbZGtbRcC6W8</t>
-  </si>
-  <si>
-    <t>Power BI</t>
   </si>
 </sst>
 </file>
@@ -881,7 +891,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +939,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -987,7 +1003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1091,19 +1107,16 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
@@ -1145,7 +1158,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1453,7 +1478,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1462,32 +1487,34 @@
     <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="52" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="52" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="52" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="57" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="51" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="24" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="51" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="51" width="41.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>259</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -1501,12 +1528,14 @@
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="15">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>261</v>
+      </c>
+      <c r="F3" s="52">
+        <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>262</v>
@@ -1517,12 +1546,14 @@
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="15">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>263</v>
+      </c>
+      <c r="F4" s="52">
+        <v>1</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>262</v>
@@ -1533,12 +1564,14 @@
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="15">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>264</v>
+      </c>
+      <c r="F5" s="52">
+        <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>262</v>
@@ -1549,12 +1582,14 @@
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="15">
+      <c r="D6" s="15">
         <v>4</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="F6" s="52">
+        <v>1</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>265</v>
@@ -1565,12 +1600,14 @@
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="15">
+      <c r="D7" s="15">
         <v>5</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>266</v>
+      </c>
+      <c r="F7" s="52">
+        <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>265</v>
@@ -1583,12 +1620,14 @@
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="15">
+      <c r="D8" s="15">
         <v>6</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>268</v>
+      </c>
+      <c r="F8" s="52">
+        <v>2</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>269</v>
@@ -1599,12 +1638,14 @@
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="15">
+      <c r="D9" s="15">
         <v>7</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>270</v>
+      </c>
+      <c r="F9" s="52">
+        <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>269</v>
@@ -1615,12 +1656,14 @@
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="15">
+      <c r="D10" s="15">
         <v>8</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>271</v>
+      </c>
+      <c r="F10" s="52">
+        <v>3</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>269</v>
@@ -1631,12 +1674,14 @@
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="15">
+      <c r="D11" s="15">
         <v>9</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>272</v>
+      </c>
+      <c r="F11" s="52">
+        <v>3</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>269</v>
@@ -1647,12 +1692,14 @@
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="15">
+      <c r="D12" s="15">
         <v>10</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>273</v>
+      </c>
+      <c r="F12" s="52">
+        <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>265</v>
@@ -1663,12 +1710,14 @@
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="15">
+      <c r="D13" s="15">
         <v>11</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>274</v>
+      </c>
+      <c r="F13" s="52">
+        <v>3</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>265</v>
@@ -1679,12 +1728,14 @@
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="15">
+      <c r="D14" s="15">
         <v>12</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>275</v>
+      </c>
+      <c r="F14" s="52">
+        <v>2</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>265</v>
@@ -1695,12 +1746,14 @@
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="15">
+      <c r="D15" s="15">
         <v>13</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>276</v>
+      </c>
+      <c r="F15" s="52">
+        <v>3</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>277</v>
@@ -1713,12 +1766,14 @@
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="15">
+      <c r="D16" s="15">
         <v>14</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>279</v>
+      </c>
+      <c r="F16" s="52">
+        <v>1</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>277</v>
@@ -1731,12 +1786,14 @@
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="15">
+      <c r="D17" s="15">
         <v>15</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>281</v>
+      </c>
+      <c r="F17" s="52">
+        <v>3</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>277</v>
@@ -1749,12 +1806,14 @@
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="20">
+      <c r="D18" s="20">
         <v>16</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>283</v>
+      </c>
+      <c r="F18" s="52">
+        <v>3</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>269</v>
@@ -1765,11 +1824,69 @@
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="D19" s="20">
+        <v>17</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="52">
+        <v>1</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="54"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="55">
+        <v>18</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="52">
+        <v>2</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="54"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1788,12 +1905,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="23" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="52" width="60.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="51" width="60.29071428571429" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="33" width="8.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="34" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="52" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="52" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="51" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="51" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1807,7 +1924,7 @@
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -1848,9 +1965,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="35"/>
-      <c r="B5" s="39" t="s">
-        <v>163</v>
-      </c>
+      <c r="B5" s="36"/>
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
       <c r="E5" s="36"/>
@@ -1858,15 +1973,15 @@
       <c r="G5" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="44"/>
+      <c r="A6" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="13" t="s">
@@ -1887,14 +2002,14 @@
       <c r="F7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
       <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="29">
         <v>8.03</v>
@@ -1903,17 +2018,17 @@
         <v>45355</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="44"/>
+      <c r="G8" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="15">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="29">
         <v>20.56</v>
@@ -1922,17 +2037,17 @@
         <v>45355</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="15">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="29">
         <v>34.45</v>
@@ -1941,11 +2056,11 @@
         <v>45355</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="45" t="s">
-        <v>169</v>
+      <c r="G10" s="44" t="s">
+        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
@@ -1953,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="29">
         <v>32.53</v>
@@ -1962,17 +2077,17 @@
         <v>45356</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="44"/>
+      <c r="G11" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="15">
         <v>5</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="29">
         <v>28.2</v>
@@ -1981,17 +2096,17 @@
         <v>45356</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="44"/>
+      <c r="G12" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="15">
         <v>6</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="29">
         <v>32.09</v>
@@ -2000,17 +2115,17 @@
         <v>45357</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="44"/>
+      <c r="G13" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="15">
         <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="29">
         <v>15.04</v>
@@ -2019,17 +2134,17 @@
         <v>45357</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="15">
         <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="29">
         <v>29.46</v>
@@ -2038,17 +2153,17 @@
         <v>45358</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="44"/>
+      <c r="G15" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="15">
         <v>9</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="29">
         <v>26.4</v>
@@ -2056,16 +2171,18 @@
       <c r="D16" s="18">
         <v>45358</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="15">
         <v>10</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="29">
         <v>24.52</v>
@@ -2075,14 +2192,14 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="15">
         <v>11</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="29">
         <v>7.19</v>
@@ -2092,14 +2209,14 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="15">
         <v>12</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="29">
         <v>13.33</v>
@@ -2109,14 +2226,14 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="G19" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
       <c r="A20" s="15">
         <v>13</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="29">
         <v>19.1</v>
@@ -2126,14 +2243,14 @@
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="G20" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="15">
         <v>14</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="29">
         <v>25.43</v>
@@ -2143,14 +2260,14 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="G21" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="15">
         <v>15</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="29">
         <v>37.1</v>
@@ -2160,14 +2277,14 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="G22" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="15">
         <v>16</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" s="29">
         <v>19.22</v>
@@ -2177,14 +2294,14 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="G23" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="15">
         <v>17</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="29">
         <v>9.48</v>
@@ -2194,14 +2311,14 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="G24" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="15">
         <v>18</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="29">
         <v>22.52</v>
@@ -2211,14 +2328,14 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="G25" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="15">
         <v>19</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="29">
         <v>10.07</v>
@@ -2228,14 +2345,14 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="G26" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="33">
       <c r="A27" s="15">
         <v>20</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" s="29">
         <v>18.28</v>
@@ -2245,14 +2362,14 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="G27" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="15">
         <v>21</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="29">
         <v>16.07</v>
@@ -2262,14 +2379,14 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="G28" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="15">
         <v>22</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="29">
         <v>12.29</v>
@@ -2279,14 +2396,14 @@
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="G29" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="15">
         <v>23</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="29">
         <v>13.4</v>
@@ -2296,14 +2413,14 @@
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="44"/>
+      <c r="G30" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="15">
         <v>24</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" s="29">
         <v>8.25</v>
@@ -2313,14 +2430,14 @@
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="44"/>
+      <c r="G31" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="15">
         <v>25</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="29">
         <v>5.13</v>
@@ -2330,14 +2447,14 @@
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="44"/>
+      <c r="G32" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="15">
         <v>26</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C33" s="29">
         <v>6.04</v>
@@ -2347,14 +2464,14 @@
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="44"/>
+      <c r="G33" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="15">
         <v>27</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C34" s="29">
         <v>6.09</v>
@@ -2364,14 +2481,14 @@
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="44"/>
+      <c r="G34" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="15">
         <v>28</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" s="29">
         <v>12.09</v>
@@ -2381,14 +2498,14 @@
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="44"/>
+      <c r="G35" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="15">
         <v>29</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" s="29">
         <v>12.09</v>
@@ -2398,14 +2515,14 @@
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="44"/>
+      <c r="G36" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="15">
         <v>30</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" s="29">
         <v>25.47</v>
@@ -2415,14 +2532,14 @@
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="44"/>
+      <c r="G37" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="15">
         <v>31</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" s="29">
         <v>10.16</v>
@@ -2432,14 +2549,14 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="44"/>
+      <c r="G38" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="15">
         <v>32</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="29">
         <v>17.23</v>
@@ -2449,14 +2566,14 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="44"/>
+      <c r="G39" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="15">
         <v>33</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" s="29">
         <v>13.18</v>
@@ -2466,14 +2583,14 @@
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="44"/>
+      <c r="G40" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="15">
         <v>34</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C41" s="29">
         <v>10.06</v>
@@ -2483,14 +2600,14 @@
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="44"/>
+      <c r="G41" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="15">
         <v>35</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="29">
         <v>2.3</v>
@@ -2500,14 +2617,14 @@
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="44"/>
+      <c r="G42" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="15">
         <v>36</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" s="29">
         <v>14.17</v>
@@ -2517,14 +2634,14 @@
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="44"/>
+      <c r="G43" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="15">
         <v>37</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" s="29">
         <v>27.06</v>
@@ -2534,20 +2651,20 @@
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="44"/>
+      <c r="G44" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="21"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="30"/>
       <c r="D45" s="31"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="25"/>
@@ -2575,14 +2692,14 @@
       <c r="F47" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="44"/>
+      <c r="G47" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="15">
         <v>1</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48" s="29">
         <v>17.33</v>
@@ -2592,14 +2709,14 @@
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="44"/>
+      <c r="G48" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="15">
         <v>2</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" s="29">
         <v>18.21</v>
@@ -2609,14 +2726,14 @@
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="44"/>
+      <c r="G49" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="15">
         <v>3</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C50" s="29">
         <v>13.01</v>
@@ -2626,14 +2743,14 @@
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="44"/>
+      <c r="G50" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="15">
         <v>4</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="29">
         <v>10.17</v>
@@ -2643,14 +2760,14 @@
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="44"/>
+      <c r="G51" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="15">
         <v>5</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" s="29">
         <v>16.56</v>
@@ -2660,14 +2777,14 @@
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="44"/>
+      <c r="G52" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="15">
         <v>6</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="29">
         <v>7.56</v>
@@ -2677,14 +2794,14 @@
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="44"/>
+      <c r="G53" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="15">
         <v>7</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C54" s="29">
         <v>12.49</v>
@@ -2694,14 +2811,14 @@
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="44"/>
+      <c r="G54" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="15">
         <v>8</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C55" s="29">
         <v>7.13</v>
@@ -2711,14 +2828,14 @@
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="44"/>
+      <c r="G55" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="15">
         <v>9</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C56" s="29">
         <v>18.22</v>
@@ -2728,14 +2845,14 @@
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="44"/>
+      <c r="G56" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="15">
         <v>10</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="29">
         <v>23.21</v>
@@ -2745,14 +2862,14 @@
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="44"/>
+      <c r="G57" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="15">
         <v>11</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" s="29">
         <v>28.28</v>
@@ -2762,14 +2879,14 @@
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="44"/>
+      <c r="G58" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="15">
         <v>12</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C59" s="29">
         <v>17.27</v>
@@ -2779,14 +2896,14 @@
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="44"/>
+      <c r="G59" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="15">
         <v>13</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C60" s="29">
         <v>11.51</v>
@@ -2796,14 +2913,14 @@
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="44"/>
+      <c r="G60" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="15">
         <v>14</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C61" s="29">
         <v>7.15</v>
@@ -2813,14 +2930,14 @@
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="44"/>
+      <c r="G61" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="15">
         <v>15</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C62" s="29">
         <v>9.02</v>
@@ -2830,20 +2947,20 @@
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="44"/>
+      <c r="G62" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A63" s="46"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="48"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A64" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="25"/>
@@ -2871,14 +2988,14 @@
       <c r="F65" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="44"/>
+      <c r="G65" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="15">
         <v>1</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" s="29">
         <v>26.05</v>
@@ -2888,14 +3005,14 @@
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="44"/>
+      <c r="G66" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="15">
         <v>2</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C67" s="29">
         <v>12.51</v>
@@ -2905,14 +3022,14 @@
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="44"/>
+      <c r="G67" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="15">
         <v>3</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C68" s="29">
         <v>13.31</v>
@@ -2922,14 +3039,14 @@
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="44"/>
+      <c r="G68" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="15">
         <v>4</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C69" s="29">
         <v>24.56</v>
@@ -2939,14 +3056,14 @@
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="44"/>
+      <c r="G69" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="15">
         <v>5</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C70" s="29">
         <v>18.08</v>
@@ -2956,14 +3073,14 @@
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="44"/>
+      <c r="G70" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="15">
         <v>6</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C71" s="29">
         <v>13.55</v>
@@ -2973,14 +3090,14 @@
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="44"/>
+      <c r="G71" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="15">
         <v>7</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C72" s="29">
         <v>29.41</v>
@@ -2990,14 +3107,14 @@
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="44"/>
+      <c r="G72" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="15">
         <v>8</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C73" s="29">
         <v>10.49</v>
@@ -3007,14 +3124,14 @@
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="44"/>
+      <c r="G73" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="15">
         <v>9</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C74" s="29">
         <v>16.02</v>
@@ -3024,14 +3141,14 @@
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
-      <c r="G74" s="44"/>
+      <c r="G74" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="15">
         <v>10</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" s="29">
         <v>10.48</v>
@@ -3041,14 +3158,14 @@
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
-      <c r="G75" s="44"/>
+      <c r="G75" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="15">
         <v>11</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" s="29">
         <v>20.49</v>
@@ -3058,16 +3175,16 @@
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
-      <c r="G76" s="44"/>
+      <c r="G76" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="21"/>
-      <c r="B77" s="44"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="30"/>
       <c r="D77" s="31"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A78" s="11" t="s">
@@ -3099,82 +3216,82 @@
       <c r="F79" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G79" s="44"/>
+      <c r="G79" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="15">
         <v>1</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C80" s="49">
-        <v>5.1209375</v>
+        <v>231</v>
+      </c>
+      <c r="C80" s="48">
+        <v>6.120821759259259</v>
       </c>
       <c r="D80" s="18">
         <v>45374</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="44"/>
+      <c r="G80" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="15">
         <v>2</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C81" s="49">
-        <v>5.1209375</v>
+        <v>231</v>
+      </c>
+      <c r="C81" s="48">
+        <v>6.120821759259259</v>
       </c>
       <c r="D81" s="18">
         <v>45375</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="44"/>
+      <c r="G81" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="15">
         <v>3</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C82" s="49">
-        <v>5.1209375</v>
+        <v>231</v>
+      </c>
+      <c r="C82" s="48">
+        <v>6.120821759259259</v>
       </c>
       <c r="D82" s="18">
         <v>45376</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="44"/>
+      <c r="G82" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="15">
         <v>4</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C83" s="49">
-        <v>5.1209375</v>
+        <v>231</v>
+      </c>
+      <c r="C83" s="48">
+        <v>6.120821759259259</v>
       </c>
       <c r="D83" s="18">
         <v>45377</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="44"/>
+      <c r="G83" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="15">
         <v>5</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" s="29">
         <v>10.13</v>
@@ -3184,14 +3301,14 @@
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="44"/>
+      <c r="G84" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="15">
         <v>6</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C85" s="29">
         <v>9.05</v>
@@ -3201,14 +3318,14 @@
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
-      <c r="G85" s="44"/>
+      <c r="G85" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="15">
         <v>7</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="29">
         <v>3.39</v>
@@ -3218,14 +3335,14 @@
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
-      <c r="G86" s="44"/>
+      <c r="G86" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="15">
         <v>8</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="29">
         <v>8.27</v>
@@ -3235,14 +3352,14 @@
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
-      <c r="G87" s="44"/>
+      <c r="G87" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="15">
         <v>9</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88" s="29">
         <v>7.21</v>
@@ -3252,14 +3369,14 @@
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
-      <c r="G88" s="44"/>
+      <c r="G88" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="15">
         <v>10</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C89" s="29">
         <v>9.04</v>
@@ -3269,14 +3386,14 @@
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="44"/>
+      <c r="G89" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="15">
         <v>11</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C90" s="29">
         <v>14.14</v>
@@ -3286,14 +3403,14 @@
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="44"/>
+      <c r="G90" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="15">
         <v>12</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C91" s="29">
         <v>14.01</v>
@@ -3303,14 +3420,14 @@
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="44"/>
+      <c r="G91" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="15">
         <v>13</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C92" s="29">
         <v>11.17</v>
@@ -3320,14 +3437,14 @@
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
-      <c r="G92" s="44"/>
+      <c r="G92" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="15">
         <v>14</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C93" s="15">
         <v>12</v>
@@ -3337,14 +3454,14 @@
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
-      <c r="G93" s="44"/>
+      <c r="G93" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="15">
         <v>15</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C94" s="29">
         <v>12.33</v>
@@ -3354,14 +3471,14 @@
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="44"/>
+      <c r="G94" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="15">
         <v>16</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" s="29">
         <v>10.57</v>
@@ -3371,14 +3488,14 @@
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
-      <c r="G95" s="44"/>
+      <c r="G95" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="15">
         <v>17</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C96" s="29">
         <v>10.13</v>
@@ -3388,14 +3505,14 @@
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="17"/>
-      <c r="G96" s="44"/>
+      <c r="G96" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="15">
         <v>18</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" s="29">
         <v>17.37</v>
@@ -3405,14 +3522,14 @@
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="17"/>
-      <c r="G97" s="44"/>
+      <c r="G97" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="15">
         <v>19</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C98" s="29">
         <v>9.28</v>
@@ -3422,14 +3539,14 @@
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="17"/>
-      <c r="G98" s="44"/>
+      <c r="G98" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="15">
         <v>20</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C99" s="29">
         <v>7.18</v>
@@ -3439,14 +3556,14 @@
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="17"/>
-      <c r="G99" s="44"/>
+      <c r="G99" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="15">
         <v>21</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C100" s="29">
         <v>7.54</v>
@@ -3456,14 +3573,14 @@
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="44"/>
+      <c r="G100" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="15">
         <v>22</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C101" s="29">
         <v>25.46</v>
@@ -3473,14 +3590,14 @@
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="44"/>
+      <c r="G101" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="15">
         <v>23</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" s="29">
         <v>8.47</v>
@@ -3490,14 +3607,14 @@
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="17"/>
-      <c r="G102" s="44"/>
+      <c r="G102" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="15">
         <v>24</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C103" s="29">
         <v>5.43</v>
@@ -3507,14 +3624,14 @@
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="17"/>
-      <c r="G103" s="44"/>
+      <c r="G103" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="15">
         <v>25</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C104" s="29">
         <v>12.35</v>
@@ -3524,14 +3641,14 @@
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="17"/>
-      <c r="G104" s="44"/>
+      <c r="G104" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="15">
         <v>26</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C105" s="29">
         <v>4.06</v>
@@ -3541,14 +3658,14 @@
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="17"/>
-      <c r="G105" s="44"/>
+      <c r="G105" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="15">
         <v>27</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C106" s="29">
         <v>14.59</v>
@@ -3558,14 +3675,14 @@
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="17"/>
-      <c r="G106" s="44"/>
+      <c r="G106" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="15">
         <v>28</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C107" s="29">
         <v>18.2</v>
@@ -3575,14 +3692,14 @@
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="17"/>
-      <c r="G107" s="44"/>
+      <c r="G107" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="15">
         <v>29</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C108" s="29">
         <v>13.41</v>
@@ -3592,14 +3709,14 @@
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="17"/>
-      <c r="G108" s="44"/>
+      <c r="G108" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="15">
         <v>30</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C109" s="29">
         <v>11.59</v>
@@ -3609,850 +3726,850 @@
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="17"/>
-      <c r="G109" s="44"/>
+      <c r="G109" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="21"/>
-      <c r="B110" s="44"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="30"/>
       <c r="D110" s="31"/>
-      <c r="E110" s="50"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="21"/>
-      <c r="B111" s="44"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="30"/>
       <c r="D111" s="31"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="21"/>
-      <c r="B112" s="44"/>
+      <c r="B112" s="43"/>
       <c r="C112" s="30"/>
       <c r="D112" s="31"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="21"/>
-      <c r="B113" s="44"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="30"/>
       <c r="D113" s="31"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="21"/>
-      <c r="B114" s="44"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="30"/>
       <c r="D114" s="31"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="21"/>
-      <c r="B115" s="44"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="30"/>
       <c r="D115" s="31"/>
-      <c r="E115" s="50"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="21"/>
-      <c r="B116" s="44"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="30"/>
       <c r="D116" s="31"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="21"/>
-      <c r="B117" s="44"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="30"/>
       <c r="D117" s="31"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="21"/>
-      <c r="B118" s="44"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="30"/>
       <c r="D118" s="31"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="21"/>
-      <c r="B119" s="44"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="30"/>
       <c r="D119" s="31"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="21"/>
-      <c r="B120" s="44"/>
+      <c r="B120" s="43"/>
       <c r="C120" s="30"/>
       <c r="D120" s="31"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="21"/>
-      <c r="B121" s="44"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="30"/>
       <c r="D121" s="31"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="21"/>
-      <c r="B122" s="44"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="30"/>
       <c r="D122" s="31"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="21"/>
-      <c r="B123" s="44"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="30"/>
       <c r="D123" s="31"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="21"/>
-      <c r="B124" s="44"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="30"/>
       <c r="D124" s="31"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="21"/>
-      <c r="B125" s="44"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="30"/>
       <c r="D125" s="31"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="21"/>
-      <c r="B126" s="44"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="30"/>
       <c r="D126" s="31"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="21"/>
-      <c r="B127" s="44"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="30"/>
       <c r="D127" s="31"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="21"/>
-      <c r="B128" s="44"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="30"/>
       <c r="D128" s="31"/>
-      <c r="E128" s="50"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="21"/>
-      <c r="B129" s="44"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="30"/>
       <c r="D129" s="31"/>
-      <c r="E129" s="50"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="21"/>
-      <c r="B130" s="44"/>
+      <c r="B130" s="43"/>
       <c r="C130" s="30"/>
       <c r="D130" s="31"/>
-      <c r="E130" s="50"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="21"/>
-      <c r="B131" s="44"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="30"/>
       <c r="D131" s="31"/>
-      <c r="E131" s="50"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="21"/>
-      <c r="B132" s="44"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="30"/>
       <c r="D132" s="31"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="21"/>
-      <c r="B133" s="44"/>
+      <c r="B133" s="43"/>
       <c r="C133" s="30"/>
       <c r="D133" s="31"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="21"/>
-      <c r="B134" s="44"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="30"/>
       <c r="D134" s="31"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="43"/>
+      <c r="G134" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="21"/>
-      <c r="B135" s="44"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="30"/>
       <c r="D135" s="31"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="21"/>
-      <c r="B136" s="44"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="30"/>
       <c r="D136" s="31"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="21"/>
-      <c r="B137" s="44"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="30"/>
       <c r="D137" s="31"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="21"/>
-      <c r="B138" s="44"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="30"/>
       <c r="D138" s="31"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="21"/>
-      <c r="B139" s="44"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="30"/>
       <c r="D139" s="31"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="43"/>
+      <c r="G139" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="21"/>
-      <c r="B140" s="44"/>
+      <c r="B140" s="43"/>
       <c r="C140" s="30"/>
       <c r="D140" s="31"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="21"/>
-      <c r="B141" s="44"/>
+      <c r="B141" s="43"/>
       <c r="C141" s="30"/>
       <c r="D141" s="31"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="21"/>
-      <c r="B142" s="44"/>
+      <c r="B142" s="43"/>
       <c r="C142" s="30"/>
       <c r="D142" s="31"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="44"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="21"/>
-      <c r="B143" s="44"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="30"/>
       <c r="D143" s="31"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="21"/>
-      <c r="B144" s="44"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="30"/>
       <c r="D144" s="31"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="21"/>
-      <c r="B145" s="44"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="30"/>
       <c r="D145" s="31"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44"/>
+      <c r="E145" s="49"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="21"/>
-      <c r="B146" s="44"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="30"/>
       <c r="D146" s="31"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="44"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="21"/>
-      <c r="B147" s="44"/>
+      <c r="B147" s="43"/>
       <c r="C147" s="30"/>
       <c r="D147" s="31"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="44"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="21"/>
-      <c r="B148" s="44"/>
+      <c r="B148" s="43"/>
       <c r="C148" s="30"/>
       <c r="D148" s="31"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="21"/>
-      <c r="B149" s="44"/>
+      <c r="B149" s="43"/>
       <c r="C149" s="30"/>
       <c r="D149" s="31"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="44"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="21"/>
-      <c r="B150" s="44"/>
+      <c r="B150" s="43"/>
       <c r="C150" s="30"/>
       <c r="D150" s="31"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="44"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="21"/>
-      <c r="B151" s="44"/>
+      <c r="B151" s="43"/>
       <c r="C151" s="30"/>
       <c r="D151" s="31"/>
-      <c r="E151" s="50"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="44"/>
+      <c r="E151" s="49"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="21"/>
-      <c r="B152" s="44"/>
+      <c r="B152" s="43"/>
       <c r="C152" s="30"/>
       <c r="D152" s="31"/>
-      <c r="E152" s="50"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="21"/>
-      <c r="B153" s="44"/>
+      <c r="B153" s="43"/>
       <c r="C153" s="30"/>
       <c r="D153" s="31"/>
-      <c r="E153" s="50"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="44"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="21"/>
-      <c r="B154" s="44"/>
+      <c r="B154" s="43"/>
       <c r="C154" s="30"/>
       <c r="D154" s="31"/>
-      <c r="E154" s="50"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="43"/>
+      <c r="G154" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="21"/>
-      <c r="B155" s="44"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="30"/>
       <c r="D155" s="31"/>
-      <c r="E155" s="50"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="44"/>
+      <c r="E155" s="49"/>
+      <c r="F155" s="43"/>
+      <c r="G155" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="21"/>
-      <c r="B156" s="44"/>
+      <c r="B156" s="43"/>
       <c r="C156" s="30"/>
       <c r="D156" s="31"/>
-      <c r="E156" s="50"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="43"/>
+      <c r="G156" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="21"/>
-      <c r="B157" s="44"/>
+      <c r="B157" s="43"/>
       <c r="C157" s="30"/>
       <c r="D157" s="31"/>
-      <c r="E157" s="50"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="44"/>
+      <c r="E157" s="49"/>
+      <c r="F157" s="43"/>
+      <c r="G157" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="21"/>
-      <c r="B158" s="44"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="30"/>
       <c r="D158" s="31"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="44"/>
+      <c r="E158" s="49"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="21"/>
-      <c r="B159" s="44"/>
+      <c r="B159" s="43"/>
       <c r="C159" s="30"/>
       <c r="D159" s="31"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="44"/>
+      <c r="E159" s="49"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="21"/>
-      <c r="B160" s="44"/>
+      <c r="B160" s="43"/>
       <c r="C160" s="30"/>
       <c r="D160" s="31"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
+      <c r="E160" s="49"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="21"/>
-      <c r="B161" s="44"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="30"/>
       <c r="D161" s="31"/>
-      <c r="E161" s="50"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="44"/>
+      <c r="E161" s="49"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="21"/>
-      <c r="B162" s="44"/>
+      <c r="B162" s="43"/>
       <c r="C162" s="30"/>
       <c r="D162" s="31"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="44"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="21"/>
-      <c r="B163" s="44"/>
+      <c r="B163" s="43"/>
       <c r="C163" s="30"/>
       <c r="D163" s="31"/>
-      <c r="E163" s="50"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="44"/>
+      <c r="E163" s="49"/>
+      <c r="F163" s="43"/>
+      <c r="G163" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="21"/>
-      <c r="B164" s="44"/>
+      <c r="B164" s="43"/>
       <c r="C164" s="30"/>
       <c r="D164" s="31"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="44"/>
-      <c r="G164" s="44"/>
+      <c r="E164" s="49"/>
+      <c r="F164" s="43"/>
+      <c r="G164" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="21"/>
-      <c r="B165" s="44"/>
+      <c r="B165" s="43"/>
       <c r="C165" s="30"/>
       <c r="D165" s="31"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
+      <c r="E165" s="49"/>
+      <c r="F165" s="43"/>
+      <c r="G165" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="21"/>
-      <c r="B166" s="44"/>
+      <c r="B166" s="43"/>
       <c r="C166" s="30"/>
       <c r="D166" s="31"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
+      <c r="E166" s="49"/>
+      <c r="F166" s="43"/>
+      <c r="G166" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="21"/>
-      <c r="B167" s="44"/>
+      <c r="B167" s="43"/>
       <c r="C167" s="30"/>
       <c r="D167" s="31"/>
-      <c r="E167" s="50"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
+      <c r="E167" s="49"/>
+      <c r="F167" s="43"/>
+      <c r="G167" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="21"/>
-      <c r="B168" s="44"/>
+      <c r="B168" s="43"/>
       <c r="C168" s="30"/>
       <c r="D168" s="31"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="43"/>
+      <c r="G168" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="21"/>
-      <c r="B169" s="44"/>
+      <c r="B169" s="43"/>
       <c r="C169" s="30"/>
       <c r="D169" s="31"/>
-      <c r="E169" s="50"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="44"/>
+      <c r="E169" s="49"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="21"/>
-      <c r="B170" s="44"/>
+      <c r="B170" s="43"/>
       <c r="C170" s="30"/>
       <c r="D170" s="31"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
+      <c r="E170" s="49"/>
+      <c r="F170" s="43"/>
+      <c r="G170" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="21"/>
-      <c r="B171" s="44"/>
+      <c r="B171" s="43"/>
       <c r="C171" s="30"/>
       <c r="D171" s="31"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="44"/>
-      <c r="G171" s="44"/>
+      <c r="E171" s="49"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="21"/>
-      <c r="B172" s="44"/>
+      <c r="B172" s="43"/>
       <c r="C172" s="30"/>
       <c r="D172" s="31"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="44"/>
-      <c r="G172" s="44"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="43"/>
+      <c r="G172" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="21"/>
-      <c r="B173" s="44"/>
+      <c r="B173" s="43"/>
       <c r="C173" s="30"/>
       <c r="D173" s="31"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="44"/>
-      <c r="G173" s="44"/>
+      <c r="E173" s="49"/>
+      <c r="F173" s="43"/>
+      <c r="G173" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="21"/>
-      <c r="B174" s="44"/>
+      <c r="B174" s="43"/>
       <c r="C174" s="30"/>
       <c r="D174" s="31"/>
-      <c r="E174" s="50"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="44"/>
+      <c r="E174" s="49"/>
+      <c r="F174" s="43"/>
+      <c r="G174" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="21"/>
-      <c r="B175" s="44"/>
+      <c r="B175" s="43"/>
       <c r="C175" s="30"/>
       <c r="D175" s="31"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="44"/>
+      <c r="E175" s="49"/>
+      <c r="F175" s="43"/>
+      <c r="G175" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="21"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="51"/>
+      <c r="C176" s="50"/>
       <c r="D176" s="31"/>
-      <c r="E176" s="44"/>
-      <c r="F176" s="44"/>
-      <c r="G176" s="44"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
+      <c r="G176" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A177" s="46"/>
+      <c r="A177" s="45"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="47"/>
-      <c r="D177" s="48"/>
+      <c r="C177" s="46"/>
+      <c r="D177" s="47"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A178" s="46"/>
+      <c r="A178" s="45"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="47"/>
-      <c r="D178" s="48"/>
+      <c r="C178" s="46"/>
+      <c r="D178" s="47"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A179" s="46"/>
+      <c r="A179" s="45"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="47"/>
-      <c r="D179" s="48"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="47"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A180" s="46"/>
+      <c r="A180" s="45"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="47"/>
-      <c r="D180" s="48"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="47"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A181" s="46"/>
+      <c r="A181" s="45"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="47"/>
-      <c r="D181" s="48"/>
+      <c r="C181" s="46"/>
+      <c r="D181" s="47"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A182" s="46"/>
+      <c r="A182" s="45"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="47"/>
-      <c r="D182" s="48"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="47"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A183" s="46"/>
+      <c r="A183" s="45"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="47"/>
-      <c r="D183" s="48"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="47"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A184" s="46"/>
+      <c r="A184" s="45"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="47"/>
-      <c r="D184" s="48"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="47"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A185" s="46"/>
+      <c r="A185" s="45"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="47"/>
-      <c r="D185" s="48"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="47"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A186" s="46"/>
+      <c r="A186" s="45"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="47"/>
-      <c r="D186" s="48"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="47"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A187" s="46"/>
+      <c r="A187" s="45"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="47"/>
-      <c r="D187" s="48"/>
+      <c r="C187" s="46"/>
+      <c r="D187" s="47"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A188" s="46"/>
+      <c r="A188" s="45"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="47"/>
-      <c r="D188" s="48"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="47"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A189" s="46"/>
+      <c r="A189" s="45"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="47"/>
-      <c r="D189" s="48"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="47"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A190" s="46"/>
+      <c r="A190" s="45"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="47"/>
-      <c r="D190" s="48"/>
+      <c r="C190" s="46"/>
+      <c r="D190" s="47"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A191" s="46"/>
+      <c r="A191" s="45"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="47"/>
-      <c r="D191" s="48"/>
+      <c r="C191" s="46"/>
+      <c r="D191" s="47"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A192" s="46"/>
+      <c r="A192" s="45"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="47"/>
-      <c r="D192" s="48"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="47"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A193" s="46"/>
+      <c r="A193" s="45"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="47"/>
-      <c r="D193" s="48"/>
+      <c r="C193" s="46"/>
+      <c r="D193" s="47"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A194" s="46"/>
+      <c r="A194" s="45"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="47"/>
-      <c r="D194" s="48"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="47"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A195" s="46"/>
+      <c r="A195" s="45"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="47"/>
-      <c r="D195" s="48"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="47"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A196" s="46"/>
+      <c r="A196" s="45"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="47"/>
-      <c r="D196" s="48"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="47"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A197" s="46"/>
+      <c r="A197" s="45"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="47"/>
-      <c r="D197" s="48"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="47"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A198" s="46"/>
+      <c r="A198" s="45"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="47"/>
-      <c r="D198" s="48"/>
+      <c r="C198" s="46"/>
+      <c r="D198" s="47"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A199" s="46"/>
+      <c r="A199" s="45"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="47"/>
-      <c r="D199" s="48"/>
+      <c r="C199" s="46"/>
+      <c r="D199" s="47"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A200" s="46"/>
+      <c r="A200" s="45"/>
       <c r="B200" s="2"/>
-      <c r="C200" s="47"/>
-      <c r="D200" s="48"/>
+      <c r="C200" s="46"/>
+      <c r="D200" s="47"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A201" s="46"/>
+      <c r="A201" s="45"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="47"/>
-      <c r="D201" s="48"/>
+      <c r="C201" s="46"/>
+      <c r="D201" s="47"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A202" s="46"/>
+      <c r="A202" s="45"/>
       <c r="B202" s="2"/>
-      <c r="C202" s="47"/>
-      <c r="D202" s="48"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="47"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A203" s="46"/>
+      <c r="A203" s="45"/>
       <c r="B203" s="2"/>
-      <c r="C203" s="47"/>
-      <c r="D203" s="48"/>
+      <c r="C203" s="46"/>
+      <c r="D203" s="47"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Index"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="291">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -883,7 +883,21 @@
     <t>Azure Basics</t>
   </si>
   <si>
-    <t/>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>CI/CD Pipelines</t>
+  </si>
+  <si>
+    <t>Microsoft Playwright certification Exams</t>
+  </si>
+  <si>
+    <t>Lambdatest
+V Skills</t>
+  </si>
+  <si>
+    <t>https://www.lambdatest.com/certifications/playwright-101
+https://www.vskills.in/certification/playwright-certification-course</t>
   </si>
 </sst>
 </file>
@@ -943,15 +957,15 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1003,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1107,16 +1121,7 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
@@ -1130,9 +1135,6 @@
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1158,20 +1160,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1478,31 +1480,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="57" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="51" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="24" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="51" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="51" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="53" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="41.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="22"/>
@@ -1514,7 +1516,7 @@
       <c r="E2" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="48" t="s">
         <v>259</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -1534,7 +1536,7 @@
       <c r="E3" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="21">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
@@ -1552,7 +1554,7 @@
       <c r="E4" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="21">
         <v>1</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -1570,7 +1572,7 @@
       <c r="E5" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="21">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
@@ -1588,7 +1590,7 @@
       <c r="E6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="21">
         <v>1</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -1606,13 +1608,13 @@
       <c r="E7" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="21">
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="49" t="s">
         <v>267</v>
       </c>
     </row>
@@ -1626,7 +1628,7 @@
       <c r="E8" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="21">
         <v>2</v>
       </c>
       <c r="G8" s="17" t="s">
@@ -1644,7 +1646,7 @@
       <c r="E9" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="21">
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
@@ -1662,7 +1664,7 @@
       <c r="E10" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="21">
         <v>3</v>
       </c>
       <c r="G10" s="17" t="s">
@@ -1680,7 +1682,7 @@
       <c r="E11" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="21">
         <v>3</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -1698,7 +1700,7 @@
       <c r="E12" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="21">
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -1716,7 +1718,7 @@
       <c r="E13" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="21">
         <v>3</v>
       </c>
       <c r="G13" s="17" t="s">
@@ -1734,7 +1736,7 @@
       <c r="E14" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="21">
         <v>2</v>
       </c>
       <c r="G14" s="17" t="s">
@@ -1752,13 +1754,13 @@
       <c r="E15" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="21">
         <v>3</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="49" t="s">
         <v>278</v>
       </c>
     </row>
@@ -1772,13 +1774,13 @@
       <c r="E16" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="21">
         <v>1</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="49" t="s">
         <v>280</v>
       </c>
     </row>
@@ -1792,13 +1794,13 @@
       <c r="E17" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="21">
         <v>3</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="49" t="s">
         <v>282</v>
       </c>
     </row>
@@ -1812,7 +1814,7 @@
       <c r="E18" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="21">
         <v>3</v>
       </c>
       <c r="G18" s="17" t="s">
@@ -1830,63 +1832,117 @@
       <c r="E19" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="21">
         <v>1</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H19" s="54"/>
+      <c r="H19" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="55">
+      <c r="D20" s="48">
         <v>18</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="21">
         <v>2</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H20" s="54"/>
+      <c r="H20" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
+      <c r="D21" s="48">
+        <v>19</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" s="21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="D22" s="48">
+        <v>20</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="21">
+        <v>1</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="57">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="D23" s="50">
+        <v>21</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="52">
+        <v>1</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1900,88 +1956,88 @@
   </sheetPr>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="23" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="51" width="60.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="60.29071428571429" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="33" width="8.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="34" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="51" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="51" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="21"/>
+      <c r="B1" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5">
-      <c r="A2" s="35">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="35">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="31.5">
-      <c r="A4" s="35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="21"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="13" t="s">
@@ -2002,7 +2058,7 @@
       <c r="F7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
       <c r="A8" s="15">
@@ -2021,7 +2077,7 @@
         <v>165</v>
       </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="15">
@@ -2040,7 +2096,7 @@
         <v>165</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="43"/>
+      <c r="G9" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="15">
@@ -2059,7 +2115,7 @@
         <v>165</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="40" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2080,7 +2136,7 @@
         <v>165</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="15">
@@ -2099,7 +2155,7 @@
         <v>165</v>
       </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="43"/>
+      <c r="G12" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="15">
@@ -2118,7 +2174,7 @@
         <v>165</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="43"/>
+      <c r="G13" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="15">
@@ -2137,7 +2193,7 @@
         <v>165</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="43"/>
+      <c r="G14" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="15">
@@ -2156,7 +2212,7 @@
         <v>165</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="43"/>
+      <c r="G15" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="15">
@@ -2175,7 +2231,7 @@
         <v>165</v>
       </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="43"/>
+      <c r="G16" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="15">
@@ -2192,7 +2248,7 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="43"/>
+      <c r="G17" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="15">
@@ -2209,7 +2265,7 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="43"/>
+      <c r="G18" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="15">
@@ -2226,7 +2282,7 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="43"/>
+      <c r="G19" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
       <c r="A20" s="15">
@@ -2243,7 +2299,7 @@
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="43"/>
+      <c r="G20" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="15">
@@ -2260,7 +2316,7 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="43"/>
+      <c r="G21" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="15">
@@ -2277,7 +2333,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="43"/>
+      <c r="G22" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="15">
@@ -2294,7 +2350,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="43"/>
+      <c r="G23" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="15">
@@ -2311,7 +2367,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="43"/>
+      <c r="G24" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="15">
@@ -2328,7 +2384,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="43"/>
+      <c r="G25" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="15">
@@ -2345,7 +2401,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="43"/>
+      <c r="G26" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="33">
       <c r="A27" s="15">
@@ -2362,7 +2418,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="43"/>
+      <c r="G27" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="15">
@@ -2379,7 +2435,7 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="43"/>
+      <c r="G28" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="15">
@@ -2396,7 +2452,7 @@
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="43"/>
+      <c r="G29" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="15">
@@ -2413,7 +2469,7 @@
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="43"/>
+      <c r="G30" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="15">
@@ -2430,7 +2486,7 @@
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="43"/>
+      <c r="G31" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="15">
@@ -2447,7 +2503,7 @@
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="43"/>
+      <c r="G32" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="15">
@@ -2464,7 +2520,7 @@
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="43"/>
+      <c r="G33" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="15">
@@ -2481,7 +2537,7 @@
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="43"/>
+      <c r="G34" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="15">
@@ -2498,7 +2554,7 @@
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="43"/>
+      <c r="G35" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="15">
@@ -2515,7 +2571,7 @@
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="43"/>
+      <c r="G36" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="15">
@@ -2532,7 +2588,7 @@
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="43"/>
+      <c r="G37" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="15">
@@ -2549,7 +2605,7 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="43"/>
+      <c r="G38" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="15">
@@ -2566,7 +2622,7 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="43"/>
+      <c r="G39" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="15">
@@ -2583,7 +2639,7 @@
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="43"/>
+      <c r="G40" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="15">
@@ -2600,7 +2656,7 @@
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="43"/>
+      <c r="G41" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="15">
@@ -2617,7 +2673,7 @@
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="43"/>
+      <c r="G42" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="15">
@@ -2634,7 +2690,7 @@
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="43"/>
+      <c r="G43" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="15">
@@ -2651,16 +2707,16 @@
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="43"/>
+      <c r="G44" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="21"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="30"/>
       <c r="D45" s="31"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="11" t="s">
@@ -2692,7 +2748,7 @@
       <c r="F47" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="43"/>
+      <c r="G47" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="15">
@@ -2709,7 +2765,7 @@
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="43"/>
+      <c r="G48" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="15">
@@ -2726,7 +2782,7 @@
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="43"/>
+      <c r="G49" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="15">
@@ -2743,7 +2799,7 @@
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="43"/>
+      <c r="G50" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="15">
@@ -2760,7 +2816,7 @@
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="43"/>
+      <c r="G51" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="15">
@@ -2777,7 +2833,7 @@
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="43"/>
+      <c r="G52" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="15">
@@ -2794,7 +2850,7 @@
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="43"/>
+      <c r="G53" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="15">
@@ -2811,7 +2867,7 @@
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="43"/>
+      <c r="G54" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="15">
@@ -2828,7 +2884,7 @@
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="43"/>
+      <c r="G55" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="15">
@@ -2845,7 +2901,7 @@
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="43"/>
+      <c r="G56" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="15">
@@ -2862,7 +2918,7 @@
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="43"/>
+      <c r="G57" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="15">
@@ -2879,7 +2935,7 @@
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="43"/>
+      <c r="G58" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="15">
@@ -2896,7 +2952,7 @@
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="43"/>
+      <c r="G59" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="15">
@@ -2913,7 +2969,7 @@
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="43"/>
+      <c r="G60" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="15">
@@ -2930,7 +2986,7 @@
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="43"/>
+      <c r="G61" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="15">
@@ -2947,13 +3003,13 @@
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="43"/>
+      <c r="G62" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A63" s="45"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="47"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="43"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -2988,7 +3044,7 @@
       <c r="F65" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="43"/>
+      <c r="G65" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="15">
@@ -3005,7 +3061,7 @@
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="43"/>
+      <c r="G66" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="15">
@@ -3022,7 +3078,7 @@
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="43"/>
+      <c r="G67" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="15">
@@ -3039,7 +3095,7 @@
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="43"/>
+      <c r="G68" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="15">
@@ -3056,7 +3112,7 @@
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="43"/>
+      <c r="G69" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="15">
@@ -3073,7 +3129,7 @@
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="43"/>
+      <c r="G70" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="15">
@@ -3090,7 +3146,7 @@
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="43"/>
+      <c r="G71" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="15">
@@ -3107,7 +3163,7 @@
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="43"/>
+      <c r="G72" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="15">
@@ -3124,7 +3180,7 @@
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="43"/>
+      <c r="G73" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="15">
@@ -3141,7 +3197,7 @@
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
-      <c r="G74" s="43"/>
+      <c r="G74" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="15">
@@ -3158,7 +3214,7 @@
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
-      <c r="G75" s="43"/>
+      <c r="G75" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="15">
@@ -3175,16 +3231,16 @@
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
-      <c r="G76" s="43"/>
+      <c r="G76" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="21"/>
-      <c r="B77" s="43"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="30"/>
       <c r="D77" s="31"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A78" s="11" t="s">
@@ -3216,7 +3272,7 @@
       <c r="F79" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G79" s="43"/>
+      <c r="G79" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="15">
@@ -3225,15 +3281,15 @@
       <c r="B80" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="48">
-        <v>6.120821759259259</v>
+      <c r="C80" s="44">
+        <v>9.120474537037037</v>
       </c>
       <c r="D80" s="18">
         <v>45374</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="43"/>
+      <c r="G80" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="15">
@@ -3242,15 +3298,15 @@
       <c r="B81" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C81" s="48">
-        <v>6.120821759259259</v>
+      <c r="C81" s="44">
+        <v>9.120474537037037</v>
       </c>
       <c r="D81" s="18">
         <v>45375</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="43"/>
+      <c r="G81" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="15">
@@ -3259,15 +3315,15 @@
       <c r="B82" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C82" s="48">
-        <v>6.120821759259259</v>
+      <c r="C82" s="44">
+        <v>9.120474537037037</v>
       </c>
       <c r="D82" s="18">
         <v>45376</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="43"/>
+      <c r="G82" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="15">
@@ -3276,15 +3332,15 @@
       <c r="B83" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C83" s="48">
-        <v>6.120821759259259</v>
+      <c r="C83" s="44">
+        <v>9.120474537037037</v>
       </c>
       <c r="D83" s="18">
         <v>45377</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="43"/>
+      <c r="G83" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="15">
@@ -3301,7 +3357,7 @@
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="43"/>
+      <c r="G84" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="15">
@@ -3318,7 +3374,7 @@
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
-      <c r="G85" s="43"/>
+      <c r="G85" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="15">
@@ -3335,7 +3391,7 @@
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
-      <c r="G86" s="43"/>
+      <c r="G86" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="15">
@@ -3352,7 +3408,7 @@
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
-      <c r="G87" s="43"/>
+      <c r="G87" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="15">
@@ -3369,7 +3425,7 @@
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
-      <c r="G88" s="43"/>
+      <c r="G88" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="15">
@@ -3386,7 +3442,7 @@
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="43"/>
+      <c r="G89" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="15">
@@ -3403,7 +3459,7 @@
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="43"/>
+      <c r="G90" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="15">
@@ -3420,7 +3476,7 @@
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="43"/>
+      <c r="G91" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="15">
@@ -3437,7 +3493,7 @@
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
-      <c r="G92" s="43"/>
+      <c r="G92" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="15">
@@ -3454,7 +3510,7 @@
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
-      <c r="G93" s="43"/>
+      <c r="G93" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="15">
@@ -3471,7 +3527,7 @@
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="43"/>
+      <c r="G94" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="15">
@@ -3488,7 +3544,7 @@
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
-      <c r="G95" s="43"/>
+      <c r="G95" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="15">
@@ -3505,7 +3561,7 @@
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="17"/>
-      <c r="G96" s="43"/>
+      <c r="G96" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="15">
@@ -3522,7 +3578,7 @@
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="17"/>
-      <c r="G97" s="43"/>
+      <c r="G97" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="15">
@@ -3539,7 +3595,7 @@
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="17"/>
-      <c r="G98" s="43"/>
+      <c r="G98" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="15">
@@ -3556,7 +3612,7 @@
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="17"/>
-      <c r="G99" s="43"/>
+      <c r="G99" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="15">
@@ -3573,7 +3629,7 @@
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="43"/>
+      <c r="G100" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="15">
@@ -3590,7 +3646,7 @@
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="43"/>
+      <c r="G101" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="15">
@@ -3607,9 +3663,9 @@
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="17"/>
-      <c r="G102" s="43"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="G102" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="33">
       <c r="A103" s="15">
         <v>24</v>
       </c>
@@ -3624,9 +3680,9 @@
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="17"/>
-      <c r="G103" s="43"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="G103" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="33.75">
       <c r="A104" s="15">
         <v>25</v>
       </c>
@@ -3641,9 +3697,9 @@
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="17"/>
-      <c r="G104" s="43"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="G104" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="33">
       <c r="A105" s="15">
         <v>26</v>
       </c>
@@ -3658,7 +3714,7 @@
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="17"/>
-      <c r="G105" s="43"/>
+      <c r="G105" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="15">
@@ -3675,7 +3731,7 @@
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="17"/>
-      <c r="G106" s="43"/>
+      <c r="G106" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="15">
@@ -3692,9 +3748,9 @@
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="17"/>
-      <c r="G107" s="43"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="G107" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="33">
       <c r="A108" s="15">
         <v>29</v>
       </c>
@@ -3709,7 +3765,7 @@
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="17"/>
-      <c r="G108" s="43"/>
+      <c r="G108" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="15">
@@ -3726,850 +3782,850 @@
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="17"/>
-      <c r="G109" s="43"/>
+      <c r="G109" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="21"/>
-      <c r="B110" s="43"/>
+      <c r="B110" s="35"/>
       <c r="C110" s="30"/>
       <c r="D110" s="31"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="21"/>
-      <c r="B111" s="43"/>
+      <c r="B111" s="35"/>
       <c r="C111" s="30"/>
       <c r="D111" s="31"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="43"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="21"/>
-      <c r="B112" s="43"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="30"/>
       <c r="D112" s="31"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="21"/>
-      <c r="B113" s="43"/>
+      <c r="B113" s="35"/>
       <c r="C113" s="30"/>
       <c r="D113" s="31"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="21"/>
-      <c r="B114" s="43"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="30"/>
       <c r="D114" s="31"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="21"/>
-      <c r="B115" s="43"/>
+      <c r="B115" s="35"/>
       <c r="C115" s="30"/>
       <c r="D115" s="31"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="21"/>
-      <c r="B116" s="43"/>
+      <c r="B116" s="35"/>
       <c r="C116" s="30"/>
       <c r="D116" s="31"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="21"/>
-      <c r="B117" s="43"/>
+      <c r="B117" s="35"/>
       <c r="C117" s="30"/>
       <c r="D117" s="31"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="43"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="21"/>
-      <c r="B118" s="43"/>
+      <c r="B118" s="35"/>
       <c r="C118" s="30"/>
       <c r="D118" s="31"/>
-      <c r="E118" s="49"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="43"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="21"/>
-      <c r="B119" s="43"/>
+      <c r="B119" s="35"/>
       <c r="C119" s="30"/>
       <c r="D119" s="31"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="43"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="21"/>
-      <c r="B120" s="43"/>
+      <c r="B120" s="35"/>
       <c r="C120" s="30"/>
       <c r="D120" s="31"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="43"/>
-      <c r="G120" s="43"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="21"/>
-      <c r="B121" s="43"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="30"/>
       <c r="D121" s="31"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="21"/>
-      <c r="B122" s="43"/>
+      <c r="B122" s="35"/>
       <c r="C122" s="30"/>
       <c r="D122" s="31"/>
-      <c r="E122" s="49"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="21"/>
-      <c r="B123" s="43"/>
+      <c r="B123" s="35"/>
       <c r="C123" s="30"/>
       <c r="D123" s="31"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="21"/>
-      <c r="B124" s="43"/>
+      <c r="B124" s="35"/>
       <c r="C124" s="30"/>
       <c r="D124" s="31"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="21"/>
-      <c r="B125" s="43"/>
+      <c r="B125" s="35"/>
       <c r="C125" s="30"/>
       <c r="D125" s="31"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="21"/>
-      <c r="B126" s="43"/>
+      <c r="B126" s="35"/>
       <c r="C126" s="30"/>
       <c r="D126" s="31"/>
-      <c r="E126" s="49"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="21"/>
-      <c r="B127" s="43"/>
+      <c r="B127" s="35"/>
       <c r="C127" s="30"/>
       <c r="D127" s="31"/>
-      <c r="E127" s="49"/>
-      <c r="F127" s="43"/>
-      <c r="G127" s="43"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="21"/>
-      <c r="B128" s="43"/>
+      <c r="B128" s="35"/>
       <c r="C128" s="30"/>
       <c r="D128" s="31"/>
-      <c r="E128" s="49"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="43"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="21"/>
-      <c r="B129" s="43"/>
+      <c r="B129" s="35"/>
       <c r="C129" s="30"/>
       <c r="D129" s="31"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="21"/>
-      <c r="B130" s="43"/>
+      <c r="B130" s="35"/>
       <c r="C130" s="30"/>
       <c r="D130" s="31"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="43"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="21"/>
-      <c r="B131" s="43"/>
+      <c r="B131" s="35"/>
       <c r="C131" s="30"/>
       <c r="D131" s="31"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="43"/>
-      <c r="G131" s="43"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="21"/>
-      <c r="B132" s="43"/>
+      <c r="B132" s="35"/>
       <c r="C132" s="30"/>
       <c r="D132" s="31"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="21"/>
-      <c r="B133" s="43"/>
+      <c r="B133" s="35"/>
       <c r="C133" s="30"/>
       <c r="D133" s="31"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="43"/>
-      <c r="G133" s="43"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="21"/>
-      <c r="B134" s="43"/>
+      <c r="B134" s="35"/>
       <c r="C134" s="30"/>
       <c r="D134" s="31"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="43"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="21"/>
-      <c r="B135" s="43"/>
+      <c r="B135" s="35"/>
       <c r="C135" s="30"/>
       <c r="D135" s="31"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="21"/>
-      <c r="B136" s="43"/>
+      <c r="B136" s="35"/>
       <c r="C136" s="30"/>
       <c r="D136" s="31"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="43"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="21"/>
-      <c r="B137" s="43"/>
+      <c r="B137" s="35"/>
       <c r="C137" s="30"/>
       <c r="D137" s="31"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="43"/>
-      <c r="G137" s="43"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="21"/>
-      <c r="B138" s="43"/>
+      <c r="B138" s="35"/>
       <c r="C138" s="30"/>
       <c r="D138" s="31"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="43"/>
-      <c r="G138" s="43"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="21"/>
-      <c r="B139" s="43"/>
+      <c r="B139" s="35"/>
       <c r="C139" s="30"/>
       <c r="D139" s="31"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="43"/>
-      <c r="G139" s="43"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="21"/>
-      <c r="B140" s="43"/>
+      <c r="B140" s="35"/>
       <c r="C140" s="30"/>
       <c r="D140" s="31"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="43"/>
-      <c r="G140" s="43"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="21"/>
-      <c r="B141" s="43"/>
+      <c r="B141" s="35"/>
       <c r="C141" s="30"/>
       <c r="D141" s="31"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="43"/>
-      <c r="G141" s="43"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="21"/>
-      <c r="B142" s="43"/>
+      <c r="B142" s="35"/>
       <c r="C142" s="30"/>
       <c r="D142" s="31"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="21"/>
-      <c r="B143" s="43"/>
+      <c r="B143" s="35"/>
       <c r="C143" s="30"/>
       <c r="D143" s="31"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="43"/>
-      <c r="G143" s="43"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="21"/>
-      <c r="B144" s="43"/>
+      <c r="B144" s="35"/>
       <c r="C144" s="30"/>
       <c r="D144" s="31"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="43"/>
-      <c r="G144" s="43"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="21"/>
-      <c r="B145" s="43"/>
+      <c r="B145" s="35"/>
       <c r="C145" s="30"/>
       <c r="D145" s="31"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="43"/>
-      <c r="G145" s="43"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="21"/>
-      <c r="B146" s="43"/>
+      <c r="B146" s="35"/>
       <c r="C146" s="30"/>
       <c r="D146" s="31"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="43"/>
-      <c r="G146" s="43"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="21"/>
-      <c r="B147" s="43"/>
+      <c r="B147" s="35"/>
       <c r="C147" s="30"/>
       <c r="D147" s="31"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="43"/>
-      <c r="G147" s="43"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="21"/>
-      <c r="B148" s="43"/>
+      <c r="B148" s="35"/>
       <c r="C148" s="30"/>
       <c r="D148" s="31"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="43"/>
-      <c r="G148" s="43"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="21"/>
-      <c r="B149" s="43"/>
+      <c r="B149" s="35"/>
       <c r="C149" s="30"/>
       <c r="D149" s="31"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="43"/>
-      <c r="G149" s="43"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="21"/>
-      <c r="B150" s="43"/>
+      <c r="B150" s="35"/>
       <c r="C150" s="30"/>
       <c r="D150" s="31"/>
-      <c r="E150" s="49"/>
-      <c r="F150" s="43"/>
-      <c r="G150" s="43"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="35"/>
+      <c r="G150" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="21"/>
-      <c r="B151" s="43"/>
+      <c r="B151" s="35"/>
       <c r="C151" s="30"/>
       <c r="D151" s="31"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="43"/>
-      <c r="G151" s="43"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="21"/>
-      <c r="B152" s="43"/>
+      <c r="B152" s="35"/>
       <c r="C152" s="30"/>
       <c r="D152" s="31"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="43"/>
-      <c r="G152" s="43"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="21"/>
-      <c r="B153" s="43"/>
+      <c r="B153" s="35"/>
       <c r="C153" s="30"/>
       <c r="D153" s="31"/>
-      <c r="E153" s="49"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="21"/>
-      <c r="B154" s="43"/>
+      <c r="B154" s="35"/>
       <c r="C154" s="30"/>
       <c r="D154" s="31"/>
-      <c r="E154" s="49"/>
-      <c r="F154" s="43"/>
-      <c r="G154" s="43"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="21"/>
-      <c r="B155" s="43"/>
+      <c r="B155" s="35"/>
       <c r="C155" s="30"/>
       <c r="D155" s="31"/>
-      <c r="E155" s="49"/>
-      <c r="F155" s="43"/>
-      <c r="G155" s="43"/>
+      <c r="E155" s="45"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="21"/>
-      <c r="B156" s="43"/>
+      <c r="B156" s="35"/>
       <c r="C156" s="30"/>
       <c r="D156" s="31"/>
-      <c r="E156" s="49"/>
-      <c r="F156" s="43"/>
-      <c r="G156" s="43"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="21"/>
-      <c r="B157" s="43"/>
+      <c r="B157" s="35"/>
       <c r="C157" s="30"/>
       <c r="D157" s="31"/>
-      <c r="E157" s="49"/>
-      <c r="F157" s="43"/>
-      <c r="G157" s="43"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="21"/>
-      <c r="B158" s="43"/>
+      <c r="B158" s="35"/>
       <c r="C158" s="30"/>
       <c r="D158" s="31"/>
-      <c r="E158" s="49"/>
-      <c r="F158" s="43"/>
-      <c r="G158" s="43"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="21"/>
-      <c r="B159" s="43"/>
+      <c r="B159" s="35"/>
       <c r="C159" s="30"/>
       <c r="D159" s="31"/>
-      <c r="E159" s="49"/>
-      <c r="F159" s="43"/>
-      <c r="G159" s="43"/>
+      <c r="E159" s="45"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="21"/>
-      <c r="B160" s="43"/>
+      <c r="B160" s="35"/>
       <c r="C160" s="30"/>
       <c r="D160" s="31"/>
-      <c r="E160" s="49"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="43"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="21"/>
-      <c r="B161" s="43"/>
+      <c r="B161" s="35"/>
       <c r="C161" s="30"/>
       <c r="D161" s="31"/>
-      <c r="E161" s="49"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="43"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="35"/>
+      <c r="G161" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="21"/>
-      <c r="B162" s="43"/>
+      <c r="B162" s="35"/>
       <c r="C162" s="30"/>
       <c r="D162" s="31"/>
-      <c r="E162" s="49"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="43"/>
+      <c r="E162" s="45"/>
+      <c r="F162" s="35"/>
+      <c r="G162" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="21"/>
-      <c r="B163" s="43"/>
+      <c r="B163" s="35"/>
       <c r="C163" s="30"/>
       <c r="D163" s="31"/>
-      <c r="E163" s="49"/>
-      <c r="F163" s="43"/>
-      <c r="G163" s="43"/>
+      <c r="E163" s="45"/>
+      <c r="F163" s="35"/>
+      <c r="G163" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="21"/>
-      <c r="B164" s="43"/>
+      <c r="B164" s="35"/>
       <c r="C164" s="30"/>
       <c r="D164" s="31"/>
-      <c r="E164" s="49"/>
-      <c r="F164" s="43"/>
-      <c r="G164" s="43"/>
+      <c r="E164" s="45"/>
+      <c r="F164" s="35"/>
+      <c r="G164" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="21"/>
-      <c r="B165" s="43"/>
+      <c r="B165" s="35"/>
       <c r="C165" s="30"/>
       <c r="D165" s="31"/>
-      <c r="E165" s="49"/>
-      <c r="F165" s="43"/>
-      <c r="G165" s="43"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="35"/>
+      <c r="G165" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="21"/>
-      <c r="B166" s="43"/>
+      <c r="B166" s="35"/>
       <c r="C166" s="30"/>
       <c r="D166" s="31"/>
-      <c r="E166" s="49"/>
-      <c r="F166" s="43"/>
-      <c r="G166" s="43"/>
+      <c r="E166" s="45"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="21"/>
-      <c r="B167" s="43"/>
+      <c r="B167" s="35"/>
       <c r="C167" s="30"/>
       <c r="D167" s="31"/>
-      <c r="E167" s="49"/>
-      <c r="F167" s="43"/>
-      <c r="G167" s="43"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="21"/>
-      <c r="B168" s="43"/>
+      <c r="B168" s="35"/>
       <c r="C168" s="30"/>
       <c r="D168" s="31"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="43"/>
-      <c r="G168" s="43"/>
+      <c r="E168" s="45"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="21"/>
-      <c r="B169" s="43"/>
+      <c r="B169" s="35"/>
       <c r="C169" s="30"/>
       <c r="D169" s="31"/>
-      <c r="E169" s="49"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="43"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="35"/>
+      <c r="G169" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="21"/>
-      <c r="B170" s="43"/>
+      <c r="B170" s="35"/>
       <c r="C170" s="30"/>
       <c r="D170" s="31"/>
-      <c r="E170" s="49"/>
-      <c r="F170" s="43"/>
-      <c r="G170" s="43"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="21"/>
-      <c r="B171" s="43"/>
+      <c r="B171" s="35"/>
       <c r="C171" s="30"/>
       <c r="D171" s="31"/>
-      <c r="E171" s="49"/>
-      <c r="F171" s="43"/>
-      <c r="G171" s="43"/>
+      <c r="E171" s="45"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="21"/>
-      <c r="B172" s="43"/>
+      <c r="B172" s="35"/>
       <c r="C172" s="30"/>
       <c r="D172" s="31"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="43"/>
-      <c r="G172" s="43"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="21"/>
-      <c r="B173" s="43"/>
+      <c r="B173" s="35"/>
       <c r="C173" s="30"/>
       <c r="D173" s="31"/>
-      <c r="E173" s="49"/>
-      <c r="F173" s="43"/>
-      <c r="G173" s="43"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="21"/>
-      <c r="B174" s="43"/>
+      <c r="B174" s="35"/>
       <c r="C174" s="30"/>
       <c r="D174" s="31"/>
-      <c r="E174" s="49"/>
-      <c r="F174" s="43"/>
-      <c r="G174" s="43"/>
+      <c r="E174" s="45"/>
+      <c r="F174" s="35"/>
+      <c r="G174" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="21"/>
-      <c r="B175" s="43"/>
+      <c r="B175" s="35"/>
       <c r="C175" s="30"/>
       <c r="D175" s="31"/>
-      <c r="E175" s="49"/>
-      <c r="F175" s="43"/>
-      <c r="G175" s="43"/>
+      <c r="E175" s="45"/>
+      <c r="F175" s="35"/>
+      <c r="G175" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="21"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="50"/>
+      <c r="C176" s="46"/>
       <c r="D176" s="31"/>
-      <c r="E176" s="43"/>
-      <c r="F176" s="43"/>
-      <c r="G176" s="43"/>
+      <c r="E176" s="35"/>
+      <c r="F176" s="35"/>
+      <c r="G176" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A177" s="45"/>
+      <c r="A177" s="41"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="46"/>
-      <c r="D177" s="47"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="43"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A178" s="45"/>
+      <c r="A178" s="41"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="46"/>
-      <c r="D178" s="47"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="43"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A179" s="45"/>
+      <c r="A179" s="41"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="46"/>
-      <c r="D179" s="47"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="43"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A180" s="45"/>
+      <c r="A180" s="41"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="46"/>
-      <c r="D180" s="47"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="43"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A181" s="45"/>
+      <c r="A181" s="41"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="46"/>
-      <c r="D181" s="47"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="43"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A182" s="45"/>
+      <c r="A182" s="41"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="46"/>
-      <c r="D182" s="47"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="43"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A183" s="45"/>
+      <c r="A183" s="41"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="46"/>
-      <c r="D183" s="47"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="43"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A184" s="45"/>
+      <c r="A184" s="41"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="46"/>
-      <c r="D184" s="47"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="43"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A185" s="45"/>
+      <c r="A185" s="41"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="46"/>
-      <c r="D185" s="47"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="43"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A186" s="45"/>
+      <c r="A186" s="41"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="46"/>
-      <c r="D186" s="47"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="43"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A187" s="45"/>
+      <c r="A187" s="41"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="46"/>
-      <c r="D187" s="47"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="43"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A188" s="45"/>
+      <c r="A188" s="41"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="46"/>
-      <c r="D188" s="47"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="43"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A189" s="45"/>
+      <c r="A189" s="41"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="46"/>
-      <c r="D189" s="47"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="43"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A190" s="45"/>
+      <c r="A190" s="41"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="46"/>
-      <c r="D190" s="47"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="43"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A191" s="45"/>
+      <c r="A191" s="41"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="46"/>
-      <c r="D191" s="47"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="43"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A192" s="45"/>
+      <c r="A192" s="41"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="46"/>
-      <c r="D192" s="47"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="43"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A193" s="45"/>
+      <c r="A193" s="41"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="46"/>
-      <c r="D193" s="47"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="43"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A194" s="45"/>
+      <c r="A194" s="41"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="46"/>
-      <c r="D194" s="47"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="43"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A195" s="45"/>
+      <c r="A195" s="41"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="46"/>
-      <c r="D195" s="47"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="43"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A196" s="45"/>
+      <c r="A196" s="41"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="46"/>
-      <c r="D196" s="47"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="43"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A197" s="45"/>
+      <c r="A197" s="41"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="46"/>
-      <c r="D197" s="47"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="43"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A198" s="45"/>
+      <c r="A198" s="41"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="46"/>
-      <c r="D198" s="47"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="43"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A199" s="45"/>
+      <c r="A199" s="41"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="46"/>
-      <c r="D199" s="47"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="43"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A200" s="45"/>
+      <c r="A200" s="41"/>
       <c r="B200" s="2"/>
-      <c r="C200" s="46"/>
-      <c r="D200" s="47"/>
+      <c r="C200" s="42"/>
+      <c r="D200" s="43"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A201" s="45"/>
+      <c r="A201" s="41"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="46"/>
-      <c r="D201" s="47"/>
+      <c r="C201" s="42"/>
+      <c r="D201" s="43"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A202" s="45"/>
+      <c r="A202" s="41"/>
       <c r="B202" s="2"/>
-      <c r="C202" s="46"/>
-      <c r="D202" s="47"/>
+      <c r="C202" s="42"/>
+      <c r="D202" s="43"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A203" s="45"/>
+      <c r="A203" s="41"/>
       <c r="B203" s="2"/>
-      <c r="C203" s="46"/>
-      <c r="D203" s="47"/>
+      <c r="C203" s="42"/>
+      <c r="D203" s="43"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Index"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="291">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -905,7 +905,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,12 +963,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1017,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1165,15 +1159,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1482,14 +1467,14 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="53" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="50" width="6.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="47" width="38.86214285714286" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="47" width="23.862142857142857" customWidth="1" bestFit="1"/>
@@ -1726,7 +1711,7 @@
       </c>
       <c r="H13" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -1744,7 +1729,7 @@
       </c>
       <c r="H14" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="46.5">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1764,7 +1749,7 @@
         <v>278</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1784,7 +1769,7 @@
         <v>280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1804,7 +1789,7 @@
         <v>282</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1822,7 +1807,7 @@
       </c>
       <c r="H18" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1840,7 +1825,7 @@
       </c>
       <c r="H19" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1898,19 +1883,19 @@
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="50">
+      <c r="D23" s="48">
         <v>21</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="21">
         <v>1</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="51" t="s">
+      <c r="H23" s="35" t="s">
         <v>290</v>
       </c>
     </row>
@@ -1918,21 +1903,21 @@
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="22"/>
@@ -1956,7 +1941,7 @@
   </sheetPr>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2246,7 +2231,9 @@
       <c r="D17" s="18">
         <v>45359</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="35"/>
     </row>
@@ -2263,7 +2250,9 @@
       <c r="D18" s="18">
         <v>45359</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="35"/>
     </row>
@@ -2280,7 +2269,9 @@
       <c r="D19" s="18">
         <v>45359</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="F19" s="17"/>
       <c r="G19" s="35"/>
     </row>
@@ -2297,7 +2288,9 @@
       <c r="D20" s="18">
         <v>45359</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="G20" s="35"/>
     </row>
@@ -2314,7 +2307,9 @@
       <c r="D21" s="18">
         <v>45360</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="F21" s="17"/>
       <c r="G21" s="35"/>
     </row>
@@ -3282,7 +3277,7 @@
         <v>231</v>
       </c>
       <c r="C80" s="44">
-        <v>9.120474537037037</v>
+        <v>10.120358796296296</v>
       </c>
       <c r="D80" s="18">
         <v>45374</v>
@@ -3299,7 +3294,7 @@
         <v>231</v>
       </c>
       <c r="C81" s="44">
-        <v>9.120474537037037</v>
+        <v>10.120358796296296</v>
       </c>
       <c r="D81" s="18">
         <v>45375</v>
@@ -3316,7 +3311,7 @@
         <v>231</v>
       </c>
       <c r="C82" s="44">
-        <v>9.120474537037037</v>
+        <v>10.120358796296296</v>
       </c>
       <c r="D82" s="18">
         <v>45376</v>
@@ -3333,7 +3328,7 @@
         <v>231</v>
       </c>
       <c r="C83" s="44">
-        <v>9.120474537037037</v>
+        <v>10.120358796296296</v>
       </c>
       <c r="D83" s="18">
         <v>45377</v>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Index"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="340">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Dynamically find the order from OrderHistory page using Playwright Script logic</t>
   </si>
   <si>
+    <t>08-Apr</t>
+  </si>
+  <si>
     <t>End to End code discussed in the Section for reference</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>End to end example of validating calendars with assertion in playwright</t>
   </si>
   <si>
+    <t>09-Apr</t>
+  </si>
+  <si>
     <t>code download</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>Parsing API response &amp; passing token to browser local storage with Playwright</t>
   </si>
   <si>
+    <t>10-Apr</t>
+  </si>
+  <si>
     <t>Place order API to create order and bypass the flow in UI with mix of web/API</t>
   </si>
   <si>
@@ -118,6 +127,9 @@
     <t>How to save session storage using Playwright and inject into new Browser context</t>
   </si>
   <si>
+    <t>11-Apr</t>
+  </si>
+  <si>
     <t>How to debug the API steps in script using Visual code debugging</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t>Understand the playwright route method and its parameters in intercepting - demo</t>
   </si>
   <si>
+    <t>12-Apr</t>
+  </si>
+  <si>
     <t>How to intercept Network request calls with Playwright - Example demo</t>
   </si>
   <si>
@@ -151,6 +166,9 @@
     <t>Traversing rows and columns of excel worksheet with excelJS library</t>
   </si>
   <si>
+    <t>13-Apr</t>
+  </si>
+  <si>
     <t>Build Util functions to read and update excel file strategically</t>
   </si>
   <si>
@@ -163,6 +181,9 @@
     <t>End to end example for excel edits and upload with assertions using Playwright</t>
   </si>
   <si>
+    <t>14-Apr</t>
+  </si>
+  <si>
     <t>What is page object pattern &amp; Importance of its implementation</t>
   </si>
   <si>
@@ -181,6 +202,9 @@
     <t>Implementing Parameterization in running tests with different data sets</t>
   </si>
   <si>
+    <t>15-Apr</t>
+  </si>
+  <si>
     <t>How to pass test data as fixture by extend test annotation behaviour</t>
   </si>
   <si>
@@ -205,6 +229,9 @@
     <t>Reason for test failures - Race condition - Fix them</t>
   </si>
   <si>
+    <t>16-Apr</t>
+  </si>
+  <si>
     <t>How to tag tests and control the execution from the command line parameters</t>
   </si>
   <si>
@@ -229,6 +256,9 @@
     <t>Create Step Definition files and associate with Cucumber.js config file</t>
   </si>
   <si>
+    <t>17-Apr</t>
+  </si>
+  <si>
     <t>Implement Code login into StepDefinition file and run Cucumber feature files</t>
   </si>
   <si>
@@ -244,6 +274,9 @@
     <t>Parameterization with Scenario outline &amp; run tests Parallel in Playwright</t>
   </si>
   <si>
+    <t>18-Apr</t>
+  </si>
+  <si>
     <t>Generate HTML reports for Cucumber Playwright &amp; Rerun failed Scenarios</t>
   </si>
   <si>
@@ -253,6 +286,9 @@
     <t>Introduction</t>
   </si>
   <si>
+    <t>19-Apr</t>
+  </si>
+  <si>
     <t>Playwright vs Cypress</t>
   </si>
   <si>
@@ -283,6 +319,9 @@
     <t>Logical Operators</t>
   </si>
   <si>
+    <t>20-Apr</t>
+  </si>
+  <si>
     <t>Conditional Statements</t>
   </si>
   <si>
@@ -304,6 +343,9 @@
     <t>Test Execution with CLI</t>
   </si>
   <si>
+    <t>21-Apr</t>
+  </si>
+  <si>
     <t>Test Execution with UI</t>
   </si>
   <si>
@@ -325,6 +367,9 @@
     <t>User-Facing Locators</t>
   </si>
   <si>
+    <t>22-Apr</t>
+  </si>
+  <si>
     <t>Child Elements</t>
   </si>
   <si>
@@ -343,6 +388,9 @@
     <t>Auto-Waiting</t>
   </si>
   <si>
+    <t>23-Apr</t>
+  </si>
+  <si>
     <t>Timeouts</t>
   </si>
   <si>
@@ -358,6 +406,9 @@
     <t>Lists and Dropdowns</t>
   </si>
   <si>
+    <t>24-Apr</t>
+  </si>
+  <si>
     <t>Tooltips</t>
   </si>
   <si>
@@ -373,6 +424,9 @@
     <t>Date Picker (Part 1)</t>
   </si>
   <si>
+    <t>25-Apr</t>
+  </si>
+  <si>
     <t>Date Picker (Part 2)</t>
   </si>
   <si>
@@ -388,6 +442,9 @@
     <t>First Page Object</t>
   </si>
   <si>
+    <t>26-Apr</t>
+  </si>
+  <si>
     <t>Navigation Page Object</t>
   </si>
   <si>
@@ -406,6 +463,9 @@
     <t>Page Objects Helper Base</t>
   </si>
   <si>
+    <t>27-Apr</t>
+  </si>
+  <si>
     <t>What is API</t>
   </si>
   <si>
@@ -424,6 +484,9 @@
     <t>Intercept Browser API Response</t>
   </si>
   <si>
+    <t>28-Apr</t>
+  </si>
+  <si>
     <t>Sharing Authentication State</t>
   </si>
   <si>
@@ -442,6 +505,9 @@
     <t>Parallel Execution</t>
   </si>
   <si>
+    <t>29-Apr</t>
+  </si>
+  <si>
     <t>Screenshots and Videos</t>
   </si>
   <si>
@@ -457,6 +523,9 @@
     <t>Project Setup and Teardown</t>
   </si>
   <si>
+    <t>30-Apr</t>
+  </si>
+  <si>
     <t>Global Setup and Teardown</t>
   </si>
   <si>
@@ -475,6 +544,9 @@
     <t>Playwright with Docker Container</t>
   </si>
   <si>
+    <t>01-May</t>
+  </si>
+  <si>
     <t>Final Words</t>
   </si>
   <si>
@@ -484,13 +556,25 @@
     <t>NA</t>
   </si>
   <si>
+    <t>02-May</t>
+  </si>
+  <si>
     <t>Revision Day 2</t>
   </si>
   <si>
+    <t>03-May</t>
+  </si>
+  <si>
     <t>Revision Day 3</t>
   </si>
   <si>
+    <t>04-May</t>
+  </si>
+  <si>
     <t>Revision Day 4</t>
+  </si>
+  <si>
+    <t>05-May</t>
   </si>
   <si>
     <t>Revision Day 5</t>
@@ -577,12 +661,18 @@
     <t>#18 - Callback Function In JavaScript</t>
   </si>
   <si>
+    <t>18-Mar</t>
+  </si>
+  <si>
     <t>#19 - Synchronous vs ASynchronous Behaviour in JavaScript</t>
   </si>
   <si>
     <t>#20 - Difference between Synchronization and ASynchronization Calls With Examples</t>
   </si>
   <si>
+    <t>19-Mar</t>
+  </si>
+  <si>
     <t>#21 - Promise in JavaScript || Pending, Fulfilment and Reject States</t>
   </si>
   <si>
@@ -595,6 +685,9 @@
     <t>#24 - Promise.all() vs Promise.AllSettled() in JavaScript</t>
   </si>
   <si>
+    <t>20-Mar</t>
+  </si>
+  <si>
     <t>#25 - Promise.race() in JavaScript</t>
   </si>
   <si>
@@ -613,6 +706,9 @@
     <t>#30 - Async - Await Concept in JavaScript With Easy Examples</t>
   </si>
   <si>
+    <t>21-Mar</t>
+  </si>
+  <si>
     <t>#31 - Fetch API Data with Async-Await in javaScript</t>
   </si>
   <si>
@@ -625,6 +721,9 @@
     <t>#34 - Template Literals in JavaScript || Backtick Concept</t>
   </si>
   <si>
+    <t>22-Mar</t>
+  </si>
+  <si>
     <t>#35 - Remove Duplicate Elements From Array In JavaScript</t>
   </si>
   <si>
@@ -640,6 +739,9 @@
     <t>#1 - What is TypeScript || Install Typescript || TypeScript vs JavaScript</t>
   </si>
   <si>
+    <t>23-Mar</t>
+  </si>
+  <si>
     <t>#2 - Type, Type Inference, Type Annotations in TypeScript</t>
   </si>
   <si>
@@ -652,6 +754,9 @@
     <t>#5 - Enum in TypeScript</t>
   </si>
   <si>
+    <t>24-Mar</t>
+  </si>
+  <si>
     <t>#6 - Union Type in TypeScript</t>
   </si>
   <si>
@@ -667,12 +772,18 @@
     <t>#10 - Switch Case In TypeScript || If Else vs Switch Case</t>
   </si>
   <si>
+    <t>25-Mar</t>
+  </si>
+  <si>
     <t>#11 - Loops in TypeScript || For,  For..Of,  For..In,  While,  D0-While Loops</t>
   </si>
   <si>
     <t>#12 - Functions in TypeScript || Anonymous Function</t>
   </si>
   <si>
+    <t>26-Mar</t>
+  </si>
+  <si>
     <t>#13 - Arrow Functions in TypeScript</t>
   </si>
   <si>
@@ -688,6 +799,9 @@
     <t>#1 - Playwright with TypeScript - Setup &amp; Installation | First Script</t>
   </si>
   <si>
+    <t>27-Mar</t>
+  </si>
+  <si>
     <t>#2 - Time Travel Debugging - UI Mode Feature In Playwright - Typescript</t>
   </si>
   <si>
@@ -697,6 +811,9 @@
     <t>#4 - Login Page Script With Playwright- TypeScript ||How To Launch Chrome, Chromium, Firefox, WebKit</t>
   </si>
   <si>
+    <t>28-Mar</t>
+  </si>
+  <si>
     <t>#5 - BrowserContext in Playwright || Handle Two different user sessions with BrowserContext</t>
   </si>
   <si>
@@ -706,6 +823,9 @@
     <t>#7 - Locators (ID, ClassName, Text, CSS Selector, XPath) in Playwright - Typescript</t>
   </si>
   <si>
+    <t>29-Mar</t>
+  </si>
+  <si>
     <t>#8 - Data-Test-Id or Test-Data-ID - Locate by test id in Playwright+Typescript</t>
   </si>
   <si>
@@ -715,15 +835,30 @@
     <t>#10 - Open Browser without Incognito Mode (Normal Mode) with Playwright</t>
   </si>
   <si>
+    <t>30-Mar</t>
+  </si>
+  <si>
     <t>#11 - Chaining Locators in Playwright + Typescript</t>
   </si>
   <si>
     <t>Complete 3 hours JavaScript Tutorial for Automation Testing</t>
   </si>
   <si>
+    <t>31-Mar</t>
+  </si>
+  <si>
+    <t>01-Apr</t>
+  </si>
+  <si>
+    <t>02-Apr</t>
+  </si>
+  <si>
     <t>Introduction to Playwright Features - Part 1</t>
   </si>
   <si>
+    <t>03-Apr</t>
+  </si>
+  <si>
     <t>Introduction to Playwright Features - Part 2</t>
   </si>
   <si>
@@ -745,6 +880,9 @@
     <t>Importance of Playwright configuration file and its details to run the tests</t>
   </si>
   <si>
+    <t>04-Apr</t>
+  </si>
+  <si>
     <t>Running Playwright tests in multiple browsers - chrome, Firefox 7 Webkit</t>
   </si>
   <si>
@@ -760,6 +898,9 @@
     <t>Understanding how wait mechanism works if list of elements are returned</t>
   </si>
   <si>
+    <t>05-Apr</t>
+  </si>
+  <si>
     <t>Techniques to wait dynamically for new page in Service based applications</t>
   </si>
   <si>
@@ -775,6 +916,9 @@
     <t>Handling Child windows &amp; Tabs with Playwright by switching browser context</t>
   </si>
   <si>
+    <t>06-Apr</t>
+  </si>
+  <si>
     <t>What is Playwright Inspector? And how to debug the playwright script</t>
   </si>
   <si>
@@ -788,6 +932,9 @@
   </si>
   <si>
     <t>Write the Script to dynamically find the product to buy from list of products</t>
+  </si>
+  <si>
+    <t>07-Apr</t>
   </si>
   <si>
     <t>Add assertions for the actions performed and implement necessary Sync steps</t>
@@ -1499,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>6</v>
@@ -1519,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="F3" s="21">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="H3" s="17"/>
     </row>
@@ -1537,13 +1684,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="H4" s="17"/>
     </row>
@@ -1555,13 +1702,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="F5" s="21">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="H5" s="17"/>
     </row>
@@ -1579,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H6" s="17"/>
     </row>
@@ -1591,16 +1738,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="F7" s="21">
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -1611,13 +1758,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="F8" s="21">
         <v>2</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -1629,13 +1776,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="F9" s="21">
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="H9" s="17"/>
     </row>
@@ -1647,13 +1794,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="F10" s="21">
         <v>3</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="H10" s="17"/>
     </row>
@@ -1665,13 +1812,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="F11" s="21">
         <v>3</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="H11" s="17"/>
     </row>
@@ -1683,13 +1830,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="F12" s="21">
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H12" s="17"/>
     </row>
@@ -1701,13 +1848,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="F13" s="21">
         <v>3</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H13" s="17"/>
     </row>
@@ -1719,13 +1866,13 @@
         <v>12</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="F14" s="21">
         <v>2</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H14" s="17"/>
     </row>
@@ -1737,16 +1884,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="F15" s="21">
         <v>3</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
@@ -1757,16 +1904,16 @@
         <v>14</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="F16" s="21">
         <v>1</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33">
@@ -1777,16 +1924,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="F17" s="21">
         <v>3</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -1797,13 +1944,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="F18" s="21">
         <v>3</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="H18" s="17"/>
     </row>
@@ -1815,13 +1962,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="F19" s="21">
         <v>1</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H19" s="35"/>
     </row>
@@ -1833,13 +1980,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H20" s="35"/>
     </row>
@@ -1851,13 +1998,13 @@
         <v>19</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="F21" s="21">
         <v>1</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H21" s="35"/>
     </row>
@@ -1869,13 +2016,13 @@
         <v>20</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="F22" s="21">
         <v>1</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H22" s="35"/>
     </row>
@@ -1887,16 +2034,16 @@
         <v>21</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F23" s="21">
         <v>1</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -1941,7 +2088,7 @@
   </sheetPr>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1957,7 +2104,7 @@
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="21"/>
       <c r="B1" s="35" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="31"/>
@@ -1970,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="31"/>
@@ -1983,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
@@ -1996,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="31"/>
@@ -2015,7 +2162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="36" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
@@ -2050,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C8" s="29">
         <v>8.03</v>
@@ -2059,7 +2206,7 @@
         <v>45355</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="35"/>
@@ -2069,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C9" s="29">
         <v>20.56</v>
@@ -2078,7 +2225,7 @@
         <v>45355</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="35"/>
@@ -2088,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C10" s="29">
         <v>34.45</v>
@@ -2097,11 +2244,11 @@
         <v>45355</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="40" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
@@ -2109,7 +2256,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C11" s="29">
         <v>32.53</v>
@@ -2118,7 +2265,7 @@
         <v>45356</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="35"/>
@@ -2128,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C12" s="29">
         <v>28.2</v>
@@ -2137,7 +2284,7 @@
         <v>45356</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="35"/>
@@ -2147,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C13" s="29">
         <v>32.09</v>
@@ -2156,7 +2303,7 @@
         <v>45357</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="35"/>
@@ -2166,7 +2313,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C14" s="29">
         <v>15.04</v>
@@ -2175,7 +2322,7 @@
         <v>45357</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="35"/>
@@ -2185,7 +2332,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C15" s="29">
         <v>29.46</v>
@@ -2194,7 +2341,7 @@
         <v>45358</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="35"/>
@@ -2204,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C16" s="29">
         <v>26.4</v>
@@ -2213,7 +2360,7 @@
         <v>45358</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="35"/>
@@ -2223,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C17" s="29">
         <v>24.52</v>
@@ -2232,7 +2379,7 @@
         <v>45359</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="35"/>
@@ -2242,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C18" s="29">
         <v>7.19</v>
@@ -2251,7 +2398,7 @@
         <v>45359</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="35"/>
@@ -2261,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C19" s="29">
         <v>13.33</v>
@@ -2270,7 +2417,7 @@
         <v>45359</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="35"/>
@@ -2280,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C20" s="29">
         <v>19.1</v>
@@ -2289,7 +2436,7 @@
         <v>45359</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="35"/>
@@ -2299,7 +2446,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C21" s="29">
         <v>25.43</v>
@@ -2308,7 +2455,7 @@
         <v>45360</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="35"/>
@@ -2318,7 +2465,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C22" s="29">
         <v>37.1</v>
@@ -2326,7 +2473,9 @@
       <c r="D22" s="18">
         <v>45360</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F22" s="17"/>
       <c r="G22" s="35"/>
     </row>
@@ -2335,7 +2484,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C23" s="29">
         <v>19.22</v>
@@ -2343,7 +2492,9 @@
       <c r="D23" s="18">
         <v>45361</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F23" s="17"/>
       <c r="G23" s="35"/>
     </row>
@@ -2352,7 +2503,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C24" s="29">
         <v>9.48</v>
@@ -2360,7 +2511,9 @@
       <c r="D24" s="18">
         <v>45361</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F24" s="17"/>
       <c r="G24" s="35"/>
     </row>
@@ -2369,7 +2522,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C25" s="29">
         <v>22.52</v>
@@ -2378,7 +2531,9 @@
         <v>45361</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>212</v>
+      </c>
       <c r="G25" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
@@ -2386,7 +2541,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="C26" s="29">
         <v>10.07</v>
@@ -2395,7 +2550,9 @@
         <v>45361</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="17" t="s">
+        <v>212</v>
+      </c>
       <c r="G26" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="33">
@@ -2403,7 +2560,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="C27" s="29">
         <v>18.28</v>
@@ -2412,7 +2569,9 @@
         <v>45362</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="G27" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
@@ -2420,7 +2579,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="C28" s="29">
         <v>16.07</v>
@@ -2429,7 +2588,9 @@
         <v>45362</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="G28" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -2437,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C29" s="29">
         <v>12.29</v>
@@ -2446,7 +2607,9 @@
         <v>45362</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="G29" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -2454,7 +2617,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C30" s="29">
         <v>13.4</v>
@@ -2463,15 +2626,17 @@
         <v>45362</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="F30" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="G30" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="15">
         <v>24</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C31" s="29">
         <v>8.25</v>
@@ -2480,15 +2645,17 @@
         <v>45363</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="G31" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="15">
         <v>25</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C32" s="29">
         <v>5.13</v>
@@ -2497,7 +2664,9 @@
         <v>45363</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="F32" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="G32" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -2505,7 +2674,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C33" s="29">
         <v>6.04</v>
@@ -2514,7 +2683,9 @@
         <v>45363</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="G33" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
@@ -2522,7 +2693,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C34" s="29">
         <v>6.09</v>
@@ -2531,7 +2702,9 @@
         <v>45363</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="F34" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="G34" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -2539,7 +2712,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C35" s="29">
         <v>12.09</v>
@@ -2548,7 +2721,9 @@
         <v>45363</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="G35" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
@@ -2556,7 +2731,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C36" s="29">
         <v>12.09</v>
@@ -2565,7 +2740,9 @@
         <v>45363</v>
       </c>
       <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="G36" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
@@ -2573,7 +2750,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C37" s="29">
         <v>25.47</v>
@@ -2582,7 +2759,9 @@
         <v>45364</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="G37" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -2590,7 +2769,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="C38" s="29">
         <v>10.16</v>
@@ -2599,7 +2778,9 @@
         <v>45364</v>
       </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="G38" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -2607,7 +2788,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="C39" s="29">
         <v>17.23</v>
@@ -2616,7 +2797,9 @@
         <v>45364</v>
       </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="G39" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
@@ -2624,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C40" s="29">
         <v>13.18</v>
@@ -2633,7 +2816,9 @@
         <v>45364</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="G40" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -2641,7 +2826,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C41" s="29">
         <v>10.06</v>
@@ -2650,7 +2835,9 @@
         <v>45365</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="G41" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -2658,7 +2845,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="C42" s="29">
         <v>2.3</v>
@@ -2667,7 +2854,9 @@
         <v>45365</v>
       </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="G42" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
@@ -2675,7 +2864,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C43" s="29">
         <v>14.17</v>
@@ -2684,7 +2873,9 @@
         <v>45365</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="F43" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="G43" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -2692,7 +2883,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C44" s="29">
         <v>27.06</v>
@@ -2701,7 +2892,9 @@
         <v>45365</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="F44" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="G44" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -2715,7 +2908,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="11" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="25"/>
@@ -2750,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="C48" s="29">
         <v>17.33</v>
@@ -2759,7 +2952,9 @@
         <v>45366</v>
       </c>
       <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="F48" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="G48" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -2767,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C49" s="29">
         <v>18.21</v>
@@ -2776,7 +2971,9 @@
         <v>45366</v>
       </c>
       <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="F49" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="G49" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -2784,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C50" s="29">
         <v>13.01</v>
@@ -2793,7 +2990,9 @@
         <v>45366</v>
       </c>
       <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="F50" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="G50" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -2801,7 +3000,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="C51" s="29">
         <v>10.17</v>
@@ -2810,7 +3009,9 @@
         <v>45366</v>
       </c>
       <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="F51" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="G51" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -2818,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C52" s="29">
         <v>16.56</v>
@@ -2827,7 +3028,9 @@
         <v>45367</v>
       </c>
       <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="F52" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="G52" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -2835,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C53" s="29">
         <v>7.56</v>
@@ -2844,7 +3047,9 @@
         <v>45367</v>
       </c>
       <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="F53" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="G53" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -2852,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="C54" s="29">
         <v>12.49</v>
@@ -2861,7 +3066,9 @@
         <v>45367</v>
       </c>
       <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="F54" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="G54" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -2869,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C55" s="29">
         <v>7.13</v>
@@ -2878,7 +3085,9 @@
         <v>45367</v>
       </c>
       <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="G55" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
@@ -2886,7 +3095,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C56" s="29">
         <v>18.22</v>
@@ -2895,7 +3104,9 @@
         <v>45367</v>
       </c>
       <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="F56" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="G56" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -2903,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C57" s="29">
         <v>23.21</v>
@@ -2912,7 +3123,9 @@
         <v>45368</v>
       </c>
       <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="F57" s="17" t="s">
+        <v>249</v>
+      </c>
       <c r="G57" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -2920,7 +3133,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C58" s="29">
         <v>28.28</v>
@@ -2929,7 +3142,9 @@
         <v>45368</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="F58" s="17" t="s">
+        <v>249</v>
+      </c>
       <c r="G58" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
@@ -2937,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="C59" s="29">
         <v>17.27</v>
@@ -2946,7 +3161,9 @@
         <v>45369</v>
       </c>
       <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="F59" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="G59" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
@@ -2954,7 +3171,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="C60" s="29">
         <v>11.51</v>
@@ -2963,7 +3180,9 @@
         <v>45369</v>
       </c>
       <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="F60" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="G60" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -2971,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C61" s="29">
         <v>7.15</v>
@@ -2980,7 +3199,9 @@
         <v>45369</v>
       </c>
       <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="F61" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="G61" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
@@ -2988,7 +3209,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="C62" s="29">
         <v>9.02</v>
@@ -2997,7 +3218,9 @@
         <v>45369</v>
       </c>
       <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="F62" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="G62" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -3011,7 +3234,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A64" s="11" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="25"/>
@@ -3046,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="C66" s="29">
         <v>26.05</v>
@@ -3055,7 +3278,9 @@
         <v>45370</v>
       </c>
       <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="F66" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="G66" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
@@ -3063,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C67" s="29">
         <v>12.51</v>
@@ -3072,7 +3297,9 @@
         <v>45370</v>
       </c>
       <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="F67" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="G67" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
@@ -3080,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="C68" s="29">
         <v>13.31</v>
@@ -3089,7 +3316,9 @@
         <v>45370</v>
       </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+      <c r="F68" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="G68" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
@@ -3097,7 +3326,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="C69" s="29">
         <v>24.56</v>
@@ -3106,7 +3335,9 @@
         <v>45371</v>
       </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="F69" s="17" t="s">
+        <v>262</v>
+      </c>
       <c r="G69" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
@@ -3114,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="C70" s="29">
         <v>18.08</v>
@@ -3123,7 +3354,9 @@
         <v>45371</v>
       </c>
       <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="F70" s="17" t="s">
+        <v>262</v>
+      </c>
       <c r="G70" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
@@ -3131,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="C71" s="29">
         <v>13.55</v>
@@ -3140,7 +3373,9 @@
         <v>45371</v>
       </c>
       <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
+      <c r="F71" s="17" t="s">
+        <v>262</v>
+      </c>
       <c r="G71" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
@@ -3148,7 +3383,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="C72" s="29">
         <v>29.41</v>
@@ -3157,7 +3392,9 @@
         <v>45372</v>
       </c>
       <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="F72" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="G72" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -3165,7 +3402,7 @@
         <v>8</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="C73" s="29">
         <v>10.49</v>
@@ -3174,7 +3411,9 @@
         <v>45372</v>
       </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
+      <c r="F73" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="G73" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -3182,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="C74" s="29">
         <v>16.02</v>
@@ -3191,7 +3430,9 @@
         <v>45372</v>
       </c>
       <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="F74" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="G74" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -3199,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="C75" s="29">
         <v>10.48</v>
@@ -3208,7 +3449,9 @@
         <v>45373</v>
       </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
+      <c r="F75" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="G75" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -3216,7 +3459,7 @@
         <v>11</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="C76" s="29">
         <v>20.49</v>
@@ -3225,7 +3468,9 @@
         <v>45373</v>
       </c>
       <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
+      <c r="F76" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="G76" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -3274,16 +3519,18 @@
         <v>1</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C80" s="44">
-        <v>10.120358796296296</v>
+        <v>12.120127314814814</v>
       </c>
       <c r="D80" s="18">
         <v>45374</v>
       </c>
       <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
+      <c r="F80" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="G80" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
@@ -3291,16 +3538,18 @@
         <v>2</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C81" s="44">
-        <v>10.120358796296296</v>
+        <v>12.120127314814814</v>
       </c>
       <c r="D81" s="18">
         <v>45375</v>
       </c>
       <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
+      <c r="F81" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="G81" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
@@ -3308,16 +3557,18 @@
         <v>3</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C82" s="44">
-        <v>10.120358796296296</v>
+        <v>12.120127314814814</v>
       </c>
       <c r="D82" s="18">
         <v>45376</v>
       </c>
       <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
+      <c r="F82" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="G82" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
@@ -3325,16 +3576,18 @@
         <v>4</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C83" s="44">
-        <v>10.120358796296296</v>
+        <v>12.120127314814814</v>
       </c>
       <c r="D83" s="18">
         <v>45377</v>
       </c>
       <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
+      <c r="F83" s="19" t="s">
+        <v>275</v>
+      </c>
       <c r="G83" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
@@ -3342,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="C84" s="29">
         <v>10.13</v>
@@ -3351,7 +3604,9 @@
         <v>45378</v>
       </c>
       <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
+      <c r="F84" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="G84" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -3359,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="C85" s="29">
         <v>9.05</v>
@@ -3368,7 +3623,9 @@
         <v>45378</v>
       </c>
       <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
+      <c r="F85" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="G85" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -3376,7 +3633,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="C86" s="29">
         <v>3.39</v>
@@ -3385,7 +3642,9 @@
         <v>45378</v>
       </c>
       <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
+      <c r="F86" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="G86" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -3393,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="C87" s="29">
         <v>8.27</v>
@@ -3402,7 +3661,9 @@
         <v>45378</v>
       </c>
       <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
+      <c r="F87" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="G87" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -3410,7 +3671,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="C88" s="29">
         <v>7.21</v>
@@ -3419,7 +3680,9 @@
         <v>45378</v>
       </c>
       <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
+      <c r="F88" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="G88" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
@@ -3427,7 +3690,7 @@
         <v>10</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="C89" s="29">
         <v>9.04</v>
@@ -3436,7 +3699,9 @@
         <v>45378</v>
       </c>
       <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="F89" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="G89" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -3444,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C90" s="29">
         <v>14.14</v>
@@ -3453,7 +3718,9 @@
         <v>45378</v>
       </c>
       <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
+      <c r="F90" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="G90" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -3461,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="C91" s="29">
         <v>14.01</v>
@@ -3470,7 +3737,9 @@
         <v>46840</v>
       </c>
       <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
+      <c r="F91" s="17" t="s">
+        <v>285</v>
+      </c>
       <c r="G91" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -3478,7 +3747,7 @@
         <v>13</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="C92" s="29">
         <v>11.17</v>
@@ -3487,7 +3756,9 @@
         <v>46840</v>
       </c>
       <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
+      <c r="F92" s="17" t="s">
+        <v>285</v>
+      </c>
       <c r="G92" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -3495,7 +3766,7 @@
         <v>14</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="C93" s="15">
         <v>12</v>
@@ -3504,7 +3775,9 @@
         <v>46840</v>
       </c>
       <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
+      <c r="F93" s="17" t="s">
+        <v>285</v>
+      </c>
       <c r="G93" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -3512,7 +3785,7 @@
         <v>15</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C94" s="29">
         <v>12.33</v>
@@ -3521,7 +3794,9 @@
         <v>46840</v>
       </c>
       <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
+      <c r="F94" s="17" t="s">
+        <v>285</v>
+      </c>
       <c r="G94" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
@@ -3529,7 +3804,7 @@
         <v>16</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="C95" s="29">
         <v>10.57</v>
@@ -3538,7 +3813,9 @@
         <v>46840</v>
       </c>
       <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
+      <c r="F95" s="17" t="s">
+        <v>285</v>
+      </c>
       <c r="G95" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -3546,7 +3823,7 @@
         <v>17</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="C96" s="29">
         <v>10.13</v>
@@ -3555,7 +3832,9 @@
         <v>45380</v>
       </c>
       <c r="E96" s="18"/>
-      <c r="F96" s="17"/>
+      <c r="F96" s="17" t="s">
+        <v>291</v>
+      </c>
       <c r="G96" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -3563,7 +3842,7 @@
         <v>18</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="C97" s="29">
         <v>17.37</v>
@@ -3572,7 +3851,9 @@
         <v>45380</v>
       </c>
       <c r="E97" s="18"/>
-      <c r="F97" s="17"/>
+      <c r="F97" s="17" t="s">
+        <v>291</v>
+      </c>
       <c r="G97" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -3580,7 +3861,7 @@
         <v>19</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="C98" s="29">
         <v>9.28</v>
@@ -3589,7 +3870,9 @@
         <v>45380</v>
       </c>
       <c r="E98" s="18"/>
-      <c r="F98" s="17"/>
+      <c r="F98" s="17" t="s">
+        <v>291</v>
+      </c>
       <c r="G98" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -3597,7 +3880,7 @@
         <v>20</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="C99" s="29">
         <v>7.18</v>
@@ -3606,7 +3889,9 @@
         <v>45380</v>
       </c>
       <c r="E99" s="18"/>
-      <c r="F99" s="17"/>
+      <c r="F99" s="17" t="s">
+        <v>291</v>
+      </c>
       <c r="G99" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
@@ -3614,7 +3899,7 @@
         <v>21</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="C100" s="29">
         <v>7.54</v>
@@ -3623,7 +3908,9 @@
         <v>45380</v>
       </c>
       <c r="E100" s="18"/>
-      <c r="F100" s="17"/>
+      <c r="F100" s="17" t="s">
+        <v>291</v>
+      </c>
       <c r="G100" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
@@ -3631,7 +3918,7 @@
         <v>22</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="C101" s="29">
         <v>25.46</v>
@@ -3640,7 +3927,9 @@
         <v>45381</v>
       </c>
       <c r="E101" s="18"/>
-      <c r="F101" s="17"/>
+      <c r="F101" s="17" t="s">
+        <v>297</v>
+      </c>
       <c r="G101" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
@@ -3648,7 +3937,7 @@
         <v>23</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="C102" s="29">
         <v>8.47</v>
@@ -3657,7 +3946,9 @@
         <v>45381</v>
       </c>
       <c r="E102" s="18"/>
-      <c r="F102" s="17"/>
+      <c r="F102" s="17" t="s">
+        <v>297</v>
+      </c>
       <c r="G102" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="33">
@@ -3665,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="C103" s="29">
         <v>5.43</v>
@@ -3674,7 +3965,9 @@
         <v>45381</v>
       </c>
       <c r="E103" s="18"/>
-      <c r="F103" s="17"/>
+      <c r="F103" s="17" t="s">
+        <v>297</v>
+      </c>
       <c r="G103" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="33.75">
@@ -3682,7 +3975,7 @@
         <v>25</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="C104" s="29">
         <v>12.35</v>
@@ -3691,7 +3984,9 @@
         <v>45381</v>
       </c>
       <c r="E104" s="18"/>
-      <c r="F104" s="17"/>
+      <c r="F104" s="17" t="s">
+        <v>297</v>
+      </c>
       <c r="G104" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="33">
@@ -3699,7 +3994,7 @@
         <v>26</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="C105" s="29">
         <v>4.06</v>
@@ -3708,7 +4003,9 @@
         <v>45381</v>
       </c>
       <c r="E105" s="18"/>
-      <c r="F105" s="17"/>
+      <c r="F105" s="17" t="s">
+        <v>297</v>
+      </c>
       <c r="G105" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
@@ -3716,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="C106" s="29">
         <v>14.59</v>
@@ -3725,7 +4022,9 @@
         <v>45382</v>
       </c>
       <c r="E106" s="18"/>
-      <c r="F106" s="17"/>
+      <c r="F106" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="G106" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
@@ -3733,7 +4032,7 @@
         <v>28</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="C107" s="29">
         <v>18.2</v>
@@ -3742,7 +4041,9 @@
         <v>45382</v>
       </c>
       <c r="E107" s="18"/>
-      <c r="F107" s="17"/>
+      <c r="F107" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="G107" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="33">
@@ -3750,7 +4051,7 @@
         <v>29</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="C108" s="29">
         <v>13.41</v>
@@ -3759,7 +4060,9 @@
         <v>45382</v>
       </c>
       <c r="E108" s="18"/>
-      <c r="F108" s="17"/>
+      <c r="F108" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="G108" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
@@ -3767,7 +4070,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="C109" s="29">
         <v>11.59</v>
@@ -3776,7 +4079,9 @@
         <v>45382</v>
       </c>
       <c r="E109" s="18"/>
-      <c r="F109" s="17"/>
+      <c r="F109" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="G109" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
@@ -4643,7 +4948,7 @@
   </sheetPr>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4702,7 +5007,9 @@
         <v>45383</v>
       </c>
       <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -4710,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="29">
         <v>1.08</v>
@@ -4719,7 +5026,9 @@
         <v>45383</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -4727,7 +5036,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="29">
         <v>13.03</v>
@@ -4736,7 +5045,9 @@
         <v>45383</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -4744,7 +5055,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="29">
         <v>19.1</v>
@@ -4753,7 +5064,9 @@
         <v>45383</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -4761,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="29">
         <v>0.16</v>
@@ -4770,7 +5083,9 @@
         <v>45383</v>
       </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -4778,7 +5093,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="29">
         <v>14.01</v>
@@ -4787,7 +5102,9 @@
         <v>45383</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -4795,7 +5112,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="29">
         <v>8.52</v>
@@ -4804,7 +5121,9 @@
         <v>45384</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -4812,7 +5131,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="29">
         <v>0.18</v>
@@ -4821,7 +5140,9 @@
         <v>45384</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -4829,7 +5150,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="29">
         <v>8.35</v>
@@ -4838,7 +5159,9 @@
         <v>45384</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -4846,7 +5169,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="29">
         <v>7.35</v>
@@ -4855,7 +5178,9 @@
         <v>45384</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -4863,7 +5188,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="29">
         <v>11.4</v>
@@ -4872,7 +5197,9 @@
         <v>45384</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -4880,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="29">
         <v>11.09</v>
@@ -4889,7 +5216,9 @@
         <v>45384</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -4897,7 +5226,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="29">
         <v>15.16</v>
@@ -4906,7 +5235,9 @@
         <v>45384</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -4914,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="29">
         <v>9.31</v>
@@ -4923,7 +5254,9 @@
         <v>45385</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -4931,7 +5264,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" s="29">
         <v>9.16</v>
@@ -4940,7 +5273,9 @@
         <v>45385</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -4948,7 +5283,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="29">
         <v>14.09</v>
@@ -4957,7 +5292,9 @@
         <v>45385</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -4965,7 +5302,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="29">
         <v>14.54</v>
@@ -4974,7 +5311,9 @@
         <v>45385</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -4982,7 +5321,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" s="29">
         <v>8.57</v>
@@ -4991,7 +5330,9 @@
         <v>45385</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -4999,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" s="29">
         <v>16.55</v>
@@ -5008,7 +5349,9 @@
         <v>45386</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -5016,7 +5359,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22" s="15">
         <v>8</v>
@@ -5025,7 +5368,9 @@
         <v>45386</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -5033,7 +5378,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C23" s="29">
         <v>4.25</v>
@@ -5042,7 +5387,9 @@
         <v>45386</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -5050,7 +5397,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C24" s="29">
         <v>10.16</v>
@@ -5059,7 +5406,9 @@
         <v>45386</v>
       </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -5067,7 +5416,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C25" s="29">
         <v>24.08</v>
@@ -5076,7 +5425,9 @@
         <v>45386</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -5084,7 +5435,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="29">
         <v>0.29</v>
@@ -5093,7 +5444,9 @@
         <v>45387</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -5101,7 +5454,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C27" s="29">
         <v>24.46</v>
@@ -5110,7 +5463,9 @@
         <v>45387</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -5118,7 +5473,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="29">
         <v>0.19</v>
@@ -5127,7 +5482,9 @@
         <v>45387</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -5135,7 +5492,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C29" s="29">
         <v>15.03</v>
@@ -5144,7 +5501,9 @@
         <v>45387</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -5152,7 +5511,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C30" s="29">
         <v>5.51</v>
@@ -5161,7 +5520,9 @@
         <v>45387</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="F30" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
@@ -5169,7 +5530,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C31" s="29">
         <v>8.45</v>
@@ -5178,7 +5539,9 @@
         <v>45387</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
@@ -5186,7 +5549,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C32" s="29">
         <v>0.18</v>
@@ -5195,7 +5558,9 @@
         <v>45387</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="F32" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="33">
@@ -5203,7 +5568,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C33" s="29">
         <v>8.36</v>
@@ -5212,7 +5577,9 @@
         <v>45387</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="33">
@@ -5220,7 +5587,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C34" s="29">
         <v>16.52</v>
@@ -5229,7 +5596,9 @@
         <v>45388</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="F34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="33">
@@ -5237,7 +5606,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C35" s="29">
         <v>13.16</v>
@@ -5246,7 +5615,9 @@
         <v>45388</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="33">
@@ -5254,7 +5625,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C36" s="29">
         <v>17.01</v>
@@ -5263,7 +5634,9 @@
         <v>45388</v>
       </c>
       <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="G36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="33">
@@ -5271,7 +5644,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C37" s="29">
         <v>15.07</v>
@@ -5280,7 +5653,9 @@
         <v>45388</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="G37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="33">
@@ -5288,7 +5663,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C38" s="29">
         <v>10.21</v>
@@ -5297,7 +5672,9 @@
         <v>45389</v>
       </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
@@ -5305,7 +5682,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39" s="29">
         <v>0.34</v>
@@ -5314,7 +5691,9 @@
         <v>45389</v>
       </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="G39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="33">
@@ -5322,7 +5701,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C40" s="29">
         <v>14.22</v>
@@ -5331,7 +5710,9 @@
         <v>45389</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="G40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="33">
@@ -5339,7 +5720,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C41" s="29">
         <v>10.5</v>
@@ -5348,7 +5729,9 @@
         <v>45389</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="G41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="33">
@@ -5356,7 +5739,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C42" s="29">
         <v>7.57</v>
@@ -5365,7 +5748,9 @@
         <v>45389</v>
       </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="G42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="33">
@@ -5373,7 +5758,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C43" s="29">
         <v>5.11</v>
@@ -5382,7 +5767,9 @@
         <v>45389</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="F43" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="G43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="33">
@@ -5390,7 +5777,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C44" s="29">
         <v>10.07</v>
@@ -5399,7 +5786,9 @@
         <v>45389</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="F44" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="G44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="33">
@@ -5407,7 +5796,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C45" s="29">
         <v>7.39</v>
@@ -5416,7 +5805,9 @@
         <v>45390</v>
       </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="33">
@@ -5424,7 +5815,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C46" s="29">
         <v>9.22</v>
@@ -5433,7 +5824,9 @@
         <v>45390</v>
       </c>
       <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="F46" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="33">
@@ -5441,7 +5834,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C47" s="29">
         <v>9.29</v>
@@ -5450,7 +5843,9 @@
         <v>45390</v>
       </c>
       <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="F47" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="33">
@@ -5458,7 +5853,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C48" s="29">
         <v>7.16</v>
@@ -5467,7 +5862,9 @@
         <v>45390</v>
       </c>
       <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="F48" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="33">
@@ -5475,7 +5872,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C49" s="29">
         <v>6.1</v>
@@ -5484,7 +5881,9 @@
         <v>45390</v>
       </c>
       <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="F49" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="33">
@@ -5492,7 +5891,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C50" s="29">
         <v>6.36</v>
@@ -5501,7 +5900,9 @@
         <v>45390</v>
       </c>
       <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="F50" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="33">
@@ -5509,7 +5910,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C51" s="29">
         <v>7.32</v>
@@ -5518,7 +5919,9 @@
         <v>45390</v>
       </c>
       <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="F51" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="33">
@@ -5526,7 +5929,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C52" s="29">
         <v>6.15</v>
@@ -5535,7 +5938,9 @@
         <v>45390</v>
       </c>
       <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="F52" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="33">
@@ -5543,7 +5948,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C53" s="29">
         <v>6.07</v>
@@ -5552,7 +5957,9 @@
         <v>45391</v>
       </c>
       <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="F53" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="G53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -5560,7 +5967,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C54" s="29">
         <v>5.04</v>
@@ -5569,7 +5976,9 @@
         <v>45391</v>
       </c>
       <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="F54" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="G54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -5577,7 +5986,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C55" s="29">
         <v>9.41</v>
@@ -5586,7 +5995,9 @@
         <v>45391</v>
       </c>
       <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="G55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
@@ -5594,7 +6005,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C56" s="29">
         <v>6.12</v>
@@ -5603,7 +6014,9 @@
         <v>45391</v>
       </c>
       <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="F56" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="G56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -5611,7 +6024,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C57" s="29">
         <v>4.11</v>
@@ -5620,7 +6033,9 @@
         <v>45391</v>
       </c>
       <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="F57" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="G57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -5628,7 +6043,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C58" s="29">
         <v>9.3</v>
@@ -5637,7 +6052,9 @@
         <v>45391</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="F58" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="G58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
@@ -5645,7 +6062,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C59" s="29">
         <v>8.06</v>
@@ -5654,7 +6071,9 @@
         <v>45391</v>
       </c>
       <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="F59" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="G59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
@@ -5662,7 +6081,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C60" s="29">
         <v>10.35</v>
@@ -5671,7 +6090,9 @@
         <v>45391</v>
       </c>
       <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="F60" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="G60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -5679,7 +6100,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C61" s="29">
         <v>9.22</v>
@@ -5688,7 +6109,9 @@
         <v>45392</v>
       </c>
       <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="F61" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="G61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
@@ -5696,7 +6119,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C62" s="29">
         <v>8.05</v>
@@ -5705,7 +6128,9 @@
         <v>45392</v>
       </c>
       <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="F62" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="G62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
@@ -5713,7 +6138,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C63" s="29">
         <v>14.14</v>
@@ -5722,7 +6147,9 @@
         <v>45392</v>
       </c>
       <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="F63" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="G63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
@@ -5730,7 +6157,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C64" s="29">
         <v>14.38</v>
@@ -5739,7 +6166,9 @@
         <v>45392</v>
       </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="G64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
@@ -5747,7 +6176,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C65" s="29">
         <v>13.16</v>
@@ -5756,7 +6185,9 @@
         <v>45392</v>
       </c>
       <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
+      <c r="F65" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="G65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
@@ -5764,7 +6195,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C66" s="29">
         <v>5.57</v>
@@ -5773,7 +6204,9 @@
         <v>45393</v>
       </c>
       <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="F66" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="G66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
@@ -5781,7 +6214,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C67" s="29">
         <v>12.55</v>
@@ -5790,7 +6223,9 @@
         <v>45393</v>
       </c>
       <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="F67" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="G67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
@@ -5798,7 +6233,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C68" s="29">
         <v>0.15</v>
@@ -5807,7 +6242,9 @@
         <v>45393</v>
       </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+      <c r="F68" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="G68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
@@ -5856,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C72" s="29">
         <v>4.13</v>
@@ -5865,7 +6302,9 @@
         <v>45394</v>
       </c>
       <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="F72" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -5873,7 +6312,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C73" s="29">
         <v>6.33</v>
@@ -5882,7 +6321,9 @@
         <v>45394</v>
       </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
+      <c r="F73" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -5890,7 +6331,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C74" s="29">
         <v>7.05</v>
@@ -5899,7 +6340,9 @@
         <v>45394</v>
       </c>
       <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="F74" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -5907,7 +6350,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C75" s="29">
         <v>5.05</v>
@@ -5916,7 +6359,9 @@
         <v>45394</v>
       </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
+      <c r="F75" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -5924,7 +6369,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C76" s="29">
         <v>2.29</v>
@@ -5933,7 +6378,9 @@
         <v>45394</v>
       </c>
       <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
+      <c r="F76" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -5941,7 +6388,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C77" s="29">
         <v>4.42</v>
@@ -5950,7 +6397,9 @@
         <v>45394</v>
       </c>
       <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
+      <c r="F77" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -5958,7 +6407,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C78" s="29">
         <v>11.17</v>
@@ -5967,7 +6416,9 @@
         <v>45394</v>
       </c>
       <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="F78" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -5975,7 +6426,7 @@
         <v>8</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C79" s="29">
         <v>6.17</v>
@@ -5984,7 +6435,9 @@
         <v>45394</v>
       </c>
       <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
+      <c r="F79" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -5992,7 +6445,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C80" s="29">
         <v>9.02</v>
@@ -6001,7 +6454,9 @@
         <v>45394</v>
       </c>
       <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
+      <c r="F80" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
@@ -6009,7 +6464,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C81" s="29">
         <v>8.02</v>
@@ -6018,7 +6473,9 @@
         <v>45394</v>
       </c>
       <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
+      <c r="F81" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="G81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
@@ -6026,7 +6483,7 @@
         <v>11</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C82" s="29">
         <v>9.4</v>
@@ -6035,7 +6492,9 @@
         <v>45395</v>
       </c>
       <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
+      <c r="F82" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="G82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
@@ -6043,7 +6502,7 @@
         <v>12</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C83" s="29">
         <v>8.21</v>
@@ -6052,7 +6511,9 @@
         <v>45395</v>
       </c>
       <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
+      <c r="F83" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="G83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
@@ -6060,7 +6521,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C84" s="29">
         <v>9.29</v>
@@ -6069,7 +6530,9 @@
         <v>45395</v>
       </c>
       <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
+      <c r="F84" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="G84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -6077,7 +6540,7 @@
         <v>14</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C85" s="29">
         <v>15.19</v>
@@ -6086,7 +6549,9 @@
         <v>45395</v>
       </c>
       <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
+      <c r="F85" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="G85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -6094,7 +6559,7 @@
         <v>15</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C86" s="29">
         <v>6.57</v>
@@ -6103,7 +6568,9 @@
         <v>45395</v>
       </c>
       <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
+      <c r="F86" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="G86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -6111,7 +6578,7 @@
         <v>16</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C87" s="29">
         <v>6.18</v>
@@ -6120,7 +6587,9 @@
         <v>45395</v>
       </c>
       <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
+      <c r="F87" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="G87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -6128,7 +6597,7 @@
         <v>17</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C88" s="29">
         <v>5.48</v>
@@ -6137,7 +6606,9 @@
         <v>45395</v>
       </c>
       <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
+      <c r="F88" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="G88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
@@ -6145,7 +6616,7 @@
         <v>18</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C89" s="29">
         <v>7.1</v>
@@ -6154,7 +6625,9 @@
         <v>45396</v>
       </c>
       <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="F89" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="G89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -6162,7 +6635,7 @@
         <v>19</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C90" s="29">
         <v>6.34</v>
@@ -6171,7 +6644,9 @@
         <v>45396</v>
       </c>
       <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
+      <c r="F90" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="G90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -6179,7 +6654,7 @@
         <v>20</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C91" s="29">
         <v>7.14</v>
@@ -6188,7 +6663,9 @@
         <v>45396</v>
       </c>
       <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
+      <c r="F91" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="G91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -6196,7 +6673,7 @@
         <v>21</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C92" s="29">
         <v>9.45</v>
@@ -6205,7 +6682,9 @@
         <v>45396</v>
       </c>
       <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
+      <c r="F92" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="G92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -6213,7 +6692,7 @@
         <v>22</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C93" s="29">
         <v>7.12</v>
@@ -6222,7 +6701,9 @@
         <v>45396</v>
       </c>
       <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
+      <c r="F93" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="G93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -6230,7 +6711,7 @@
         <v>23</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C94" s="29">
         <v>5.46</v>
@@ -6239,7 +6720,9 @@
         <v>45396</v>
       </c>
       <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
+      <c r="F94" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="G94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
@@ -6247,7 +6730,7 @@
         <v>24</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C95" s="29">
         <v>13.51</v>
@@ -6256,7 +6739,9 @@
         <v>45396</v>
       </c>
       <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
+      <c r="F95" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="G95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -6264,7 +6749,7 @@
         <v>25</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C96" s="29">
         <v>12.21</v>
@@ -6273,7 +6758,9 @@
         <v>45397</v>
       </c>
       <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
+      <c r="F96" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="G96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -6281,7 +6768,7 @@
         <v>26</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C97" s="29">
         <v>8.45</v>
@@ -6290,7 +6777,9 @@
         <v>45397</v>
       </c>
       <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
+      <c r="F97" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="G97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -6298,7 +6787,7 @@
         <v>27</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C98" s="29">
         <v>12.35</v>
@@ -6307,7 +6796,9 @@
         <v>45397</v>
       </c>
       <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
+      <c r="F98" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="G98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -6315,7 +6806,7 @@
         <v>28</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C99" s="29">
         <v>5.39</v>
@@ -6324,7 +6815,9 @@
         <v>45397</v>
       </c>
       <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
+      <c r="F99" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="G99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
@@ -6332,7 +6825,7 @@
         <v>29</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C100" s="29">
         <v>9.59</v>
@@ -6341,7 +6834,9 @@
         <v>45397</v>
       </c>
       <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
+      <c r="F100" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="G100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
@@ -6349,7 +6844,7 @@
         <v>30</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C101" s="29">
         <v>9.57</v>
@@ -6358,7 +6853,9 @@
         <v>45397</v>
       </c>
       <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
+      <c r="F101" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="G101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
@@ -6366,7 +6863,7 @@
         <v>31</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C102" s="29">
         <v>17.55</v>
@@ -6375,7 +6872,9 @@
         <v>45398</v>
       </c>
       <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
+      <c r="F102" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="G102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
@@ -6383,7 +6882,7 @@
         <v>32</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C103" s="29">
         <v>12.14</v>
@@ -6392,7 +6891,9 @@
         <v>45398</v>
       </c>
       <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
+      <c r="F103" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="G103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
@@ -6400,7 +6901,7 @@
         <v>33</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C104" s="29">
         <v>8.33</v>
@@ -6409,7 +6910,9 @@
         <v>45398</v>
       </c>
       <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
+      <c r="F104" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="G104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
@@ -6417,7 +6920,7 @@
         <v>34</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C105" s="29">
         <v>7.41</v>
@@ -6426,7 +6929,9 @@
         <v>45398</v>
       </c>
       <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
+      <c r="F105" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="G105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
@@ -6434,7 +6939,7 @@
         <v>35</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C106" s="29">
         <v>8.54</v>
@@ -6443,7 +6948,9 @@
         <v>45398</v>
       </c>
       <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
+      <c r="F106" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="G106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
@@ -6451,7 +6958,7 @@
         <v>36</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C107" s="29">
         <v>16.08</v>
@@ -6460,7 +6967,9 @@
         <v>45399</v>
       </c>
       <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
+      <c r="F107" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="G107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -6468,7 +6977,7 @@
         <v>37</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C108" s="29">
         <v>7.01</v>
@@ -6477,7 +6986,9 @@
         <v>45399</v>
       </c>
       <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
+      <c r="F108" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="G108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
@@ -6485,7 +6996,7 @@
         <v>38</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C109" s="29">
         <v>7.29</v>
@@ -6494,7 +7005,9 @@
         <v>45399</v>
       </c>
       <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
+      <c r="F109" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="G109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
@@ -6502,7 +7015,7 @@
         <v>39</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C110" s="29">
         <v>16.33</v>
@@ -6511,7 +7024,9 @@
         <v>45399</v>
       </c>
       <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
+      <c r="F110" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="G110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
@@ -6519,7 +7034,7 @@
         <v>40</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C111" s="29">
         <v>10.58</v>
@@ -6528,7 +7043,9 @@
         <v>45399</v>
       </c>
       <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
+      <c r="F111" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="G111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
@@ -6536,7 +7053,7 @@
         <v>41</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C112" s="29">
         <v>7.33</v>
@@ -6545,7 +7062,9 @@
         <v>45400</v>
       </c>
       <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
+      <c r="F112" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="G112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
@@ -6553,7 +7072,7 @@
         <v>42</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C113" s="29">
         <v>17.3</v>
@@ -6562,7 +7081,9 @@
         <v>45400</v>
       </c>
       <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
+      <c r="F113" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="G113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
@@ -6570,7 +7091,7 @@
         <v>43</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C114" s="29">
         <v>16.01</v>
@@ -6579,7 +7100,9 @@
         <v>45400</v>
       </c>
       <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
+      <c r="F114" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="G114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
@@ -6587,7 +7110,7 @@
         <v>44</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C115" s="29">
         <v>10.06</v>
@@ -6596,7 +7119,9 @@
         <v>45400</v>
       </c>
       <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
+      <c r="F115" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="G115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
@@ -6604,7 +7129,7 @@
         <v>45</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C116" s="29">
         <v>7.13</v>
@@ -6613,7 +7138,9 @@
         <v>45400</v>
       </c>
       <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
+      <c r="F116" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="G116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
@@ -6621,7 +7148,7 @@
         <v>46</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C117" s="29">
         <v>9.06</v>
@@ -6630,7 +7157,9 @@
         <v>45401</v>
       </c>
       <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
+      <c r="F117" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="G117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
@@ -6638,7 +7167,7 @@
         <v>47</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C118" s="29">
         <v>10.49</v>
@@ -6647,7 +7176,9 @@
         <v>45401</v>
       </c>
       <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
+      <c r="F118" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="G118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
@@ -6655,7 +7186,7 @@
         <v>48</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C119" s="29">
         <v>8.08</v>
@@ -6664,7 +7195,9 @@
         <v>45401</v>
       </c>
       <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
+      <c r="F119" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="G119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
@@ -6672,7 +7205,7 @@
         <v>49</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C120" s="29">
         <v>13.4</v>
@@ -6681,7 +7214,9 @@
         <v>45401</v>
       </c>
       <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
+      <c r="F120" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="G120" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
@@ -6689,7 +7224,7 @@
         <v>50</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C121" s="29">
         <v>12.54</v>
@@ -6698,7 +7233,9 @@
         <v>45401</v>
       </c>
       <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
+      <c r="F121" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="G121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
@@ -6706,7 +7243,7 @@
         <v>51</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C122" s="29">
         <v>9.57</v>
@@ -6715,7 +7252,9 @@
         <v>45401</v>
       </c>
       <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
+      <c r="F122" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="G122" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
@@ -6723,7 +7262,7 @@
         <v>52</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C123" s="29">
         <v>7.29</v>
@@ -6732,7 +7271,9 @@
         <v>45402</v>
       </c>
       <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
+      <c r="F123" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="G123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
@@ -6740,7 +7281,7 @@
         <v>53</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C124" s="29">
         <v>10.29</v>
@@ -6749,7 +7290,9 @@
         <v>45402</v>
       </c>
       <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
+      <c r="F124" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="G124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
@@ -6757,7 +7300,7 @@
         <v>54</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C125" s="29">
         <v>9.01</v>
@@ -6766,7 +7309,9 @@
         <v>45402</v>
       </c>
       <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
+      <c r="F125" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="G125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
@@ -6774,7 +7319,7 @@
         <v>55</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C126" s="29">
         <v>7.38</v>
@@ -6783,7 +7328,9 @@
         <v>45402</v>
       </c>
       <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
+      <c r="F126" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="G126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
@@ -6791,7 +7338,7 @@
         <v>56</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C127" s="29">
         <v>9.29</v>
@@ -6800,7 +7347,9 @@
         <v>45402</v>
       </c>
       <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
+      <c r="F127" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="G127" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
@@ -6808,7 +7357,7 @@
         <v>57</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C128" s="29">
         <v>23.01</v>
@@ -6817,7 +7366,9 @@
         <v>45402</v>
       </c>
       <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
+      <c r="F128" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="G128" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
@@ -6825,7 +7376,7 @@
         <v>58</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C129" s="29">
         <v>15.51</v>
@@ -6834,7 +7385,9 @@
         <v>45403</v>
       </c>
       <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
+      <c r="F129" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="G129" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
@@ -6842,7 +7395,7 @@
         <v>59</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C130" s="29">
         <v>9.19</v>
@@ -6851,7 +7404,9 @@
         <v>45403</v>
       </c>
       <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
+      <c r="F130" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="G130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
@@ -6859,7 +7414,7 @@
         <v>60</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C131" s="29">
         <v>9.27</v>
@@ -6868,7 +7423,9 @@
         <v>45403</v>
       </c>
       <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
+      <c r="F131" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="G131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
@@ -6876,7 +7433,7 @@
         <v>61</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C132" s="29">
         <v>5.56</v>
@@ -6885,7 +7442,9 @@
         <v>45403</v>
       </c>
       <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
+      <c r="F132" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="G132" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
@@ -6893,7 +7452,7 @@
         <v>62</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C133" s="29">
         <v>8.48</v>
@@ -6902,7 +7461,9 @@
         <v>45403</v>
       </c>
       <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
+      <c r="F133" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="G133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
@@ -6910,7 +7471,7 @@
         <v>63</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C134" s="29">
         <v>8.42</v>
@@ -6919,7 +7480,9 @@
         <v>45403</v>
       </c>
       <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
+      <c r="F134" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="G134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
@@ -6927,7 +7490,7 @@
         <v>64</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C135" s="29">
         <v>10.04</v>
@@ -6936,7 +7499,9 @@
         <v>45404</v>
       </c>
       <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
+      <c r="F135" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="G135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
@@ -6944,7 +7509,7 @@
         <v>65</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C136" s="29">
         <v>8.35</v>
@@ -6953,7 +7518,9 @@
         <v>45404</v>
       </c>
       <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
+      <c r="F136" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="G136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
@@ -6961,7 +7528,7 @@
         <v>66</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C137" s="29">
         <v>19.21</v>
@@ -6970,7 +7537,9 @@
         <v>45404</v>
       </c>
       <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
+      <c r="F137" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="G137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
@@ -6978,7 +7547,7 @@
         <v>67</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C138" s="29">
         <v>12.06</v>
@@ -6987,7 +7556,9 @@
         <v>45404</v>
       </c>
       <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
+      <c r="F138" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="G138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
@@ -6995,7 +7566,7 @@
         <v>68</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C139" s="29">
         <v>12.52</v>
@@ -7004,7 +7575,9 @@
         <v>45404</v>
       </c>
       <c r="E139" s="17"/>
-      <c r="F139" s="17"/>
+      <c r="F139" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="G139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
@@ -7012,7 +7585,7 @@
         <v>69</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C140" s="29">
         <v>14.16</v>
@@ -7021,7 +7594,9 @@
         <v>45405</v>
       </c>
       <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
+      <c r="F140" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="G140" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
@@ -7029,7 +7604,7 @@
         <v>70</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C141" s="29">
         <v>12.49</v>
@@ -7038,7 +7613,9 @@
         <v>45405</v>
       </c>
       <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
+      <c r="F141" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="G141" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
@@ -7046,7 +7623,7 @@
         <v>71</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C142" s="29">
         <v>3.5</v>
@@ -7055,7 +7632,9 @@
         <v>45405</v>
       </c>
       <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
+      <c r="F142" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="G142" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
@@ -7063,7 +7642,7 @@
         <v>72</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C143" s="29">
         <v>7.54</v>
@@ -7072,7 +7651,9 @@
         <v>45405</v>
       </c>
       <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
+      <c r="F143" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="G143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
@@ -7080,7 +7661,7 @@
         <v>73</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C144" s="29">
         <v>6.43</v>
@@ -7089,7 +7670,9 @@
         <v>45405</v>
       </c>
       <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
+      <c r="F144" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="G144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
@@ -7097,7 +7680,7 @@
         <v>74</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C145" s="29">
         <v>9.41</v>
@@ -7106,7 +7689,9 @@
         <v>45405</v>
       </c>
       <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
+      <c r="F145" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="G145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
@@ -7114,7 +7699,7 @@
         <v>75</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="C146" s="29">
         <v>19.37</v>
@@ -7123,7 +7708,9 @@
         <v>45406</v>
       </c>
       <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
+      <c r="F146" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="G146" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
@@ -7131,7 +7718,7 @@
         <v>76</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C147" s="29">
         <v>0.56</v>
@@ -7140,7 +7727,9 @@
         <v>45406</v>
       </c>
       <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
+      <c r="F147" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="G147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
@@ -7148,16 +7737,18 @@
         <v>77</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D148" s="18">
         <v>45407</v>
       </c>
       <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
+      <c r="F148" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="G148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
@@ -7165,16 +7756,18 @@
         <v>78</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D149" s="18">
         <v>45408</v>
       </c>
       <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
+      <c r="F149" s="17" t="s">
+        <v>180</v>
+      </c>
       <c r="G149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
@@ -7182,16 +7775,18 @@
         <v>79</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D150" s="18">
         <v>45409</v>
       </c>
       <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
+      <c r="F150" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="G150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
@@ -7199,16 +7794,18 @@
         <v>80</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D151" s="18">
         <v>45410</v>
       </c>
       <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
+      <c r="F151" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="G151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
@@ -7216,16 +7813,18 @@
         <v>81</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D152" s="18">
         <v>45411</v>
       </c>
       <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
+      <c r="F152" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="G152" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
@@ -7233,16 +7832,18 @@
         <v>82</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D153" s="18">
         <v>45412</v>
       </c>
       <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
+      <c r="F153" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="G153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
@@ -7451,7 +8052,9 @@
       <c r="F3" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="20"/>
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
       <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
@@ -7461,7 +8064,9 @@
       <c r="F4" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="21"/>
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
       <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
@@ -7471,7 +8076,9 @@
       <c r="F5" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="21"/>
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
       <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
@@ -7481,7 +8088,9 @@
       <c r="F6" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="21"/>
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
       <c r="B7" s="22" t="s">
         <v>11</v>
       </c>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Index"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="340">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -594,8 +594,7 @@
     <t>Revise previous days topics Next days - find a way to achive this</t>
   </si>
   <si>
-    <t>Practise more programs outside the course aswel, 
-Generate your own programs and scenarios and try to implement it</t>
+    <t>Practise more programs outside the course aswel, Generate your own programs and scenarios and try to implement it</t>
   </si>
   <si>
     <t>JavaScript - YouTube - NaveenAutoLabs</t>
@@ -2088,13 +2087,13 @@
   </sheetPr>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="7.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="47" width="60.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="33" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="33" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="34" width="7.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="47" width="12.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="47" width="15.43357142857143" customWidth="1" bestFit="1"/>
@@ -2138,7 +2137,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -2530,7 +2529,9 @@
       <c r="D25" s="18">
         <v>45361</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F25" s="17" t="s">
         <v>212</v>
       </c>
@@ -2549,7 +2550,9 @@
       <c r="D26" s="18">
         <v>45361</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F26" s="17" t="s">
         <v>212</v>
       </c>
@@ -2568,7 +2571,9 @@
       <c r="D27" s="18">
         <v>45362</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F27" s="17" t="s">
         <v>215</v>
       </c>
@@ -2587,7 +2592,9 @@
       <c r="D28" s="18">
         <v>45362</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F28" s="17" t="s">
         <v>215</v>
       </c>
@@ -2669,7 +2676,7 @@
       </c>
       <c r="G32" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="15">
         <v>26</v>
       </c>
@@ -3522,7 +3529,7 @@
         <v>272</v>
       </c>
       <c r="C80" s="44">
-        <v>12.120127314814814</v>
+        <v>14.119895833333333</v>
       </c>
       <c r="D80" s="18">
         <v>45374</v>
@@ -3541,7 +3548,7 @@
         <v>272</v>
       </c>
       <c r="C81" s="44">
-        <v>12.120127314814814</v>
+        <v>14.119895833333333</v>
       </c>
       <c r="D81" s="18">
         <v>45375</v>
@@ -3560,7 +3567,7 @@
         <v>272</v>
       </c>
       <c r="C82" s="44">
-        <v>12.120127314814814</v>
+        <v>14.119895833333333</v>
       </c>
       <c r="D82" s="18">
         <v>45376</v>
@@ -3579,7 +3586,7 @@
         <v>272</v>
       </c>
       <c r="C83" s="44">
-        <v>12.120127314814814</v>
+        <v>14.119895833333333</v>
       </c>
       <c r="D83" s="18">
         <v>45377</v>
@@ -4948,7 +4955,7 @@
   </sheetPr>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="340">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -2111,7 +2111,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="47.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="G7" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33.75">
       <c r="A11" s="15">
         <v>4</v>
       </c>
@@ -2613,7 +2613,9 @@
       <c r="D29" s="18">
         <v>45362</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F29" s="17" t="s">
         <v>215</v>
       </c>
@@ -2632,7 +2634,9 @@
       <c r="D30" s="18">
         <v>45362</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F30" s="17" t="s">
         <v>215</v>
       </c>
@@ -2651,7 +2655,9 @@
       <c r="D31" s="18">
         <v>45363</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F31" s="17" t="s">
         <v>220</v>
       </c>
@@ -2670,7 +2676,9 @@
       <c r="D32" s="18">
         <v>45363</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F32" s="17" t="s">
         <v>220</v>
       </c>
@@ -2689,7 +2697,9 @@
       <c r="D33" s="18">
         <v>45363</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F33" s="17" t="s">
         <v>220</v>
       </c>
@@ -2708,7 +2718,9 @@
       <c r="D34" s="18">
         <v>45363</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F34" s="17" t="s">
         <v>220</v>
       </c>
@@ -3529,7 +3541,7 @@
         <v>272</v>
       </c>
       <c r="C80" s="44">
-        <v>14.119895833333333</v>
+        <v>15.119780092592592</v>
       </c>
       <c r="D80" s="18">
         <v>45374</v>
@@ -3548,7 +3560,7 @@
         <v>272</v>
       </c>
       <c r="C81" s="44">
-        <v>14.119895833333333</v>
+        <v>15.119780092592592</v>
       </c>
       <c r="D81" s="18">
         <v>45375</v>
@@ -3567,7 +3579,7 @@
         <v>272</v>
       </c>
       <c r="C82" s="44">
-        <v>14.119895833333333</v>
+        <v>15.119780092592592</v>
       </c>
       <c r="D82" s="18">
         <v>45376</v>
@@ -3586,7 +3598,7 @@
         <v>272</v>
       </c>
       <c r="C83" s="44">
-        <v>14.119895833333333</v>
+        <v>15.119780092592592</v>
       </c>
       <c r="D83" s="18">
         <v>45377</v>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="341">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -841,6 +841,9 @@
   </si>
   <si>
     <t>Complete 3 hours JavaScript Tutorial for Automation Testing</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
   </si>
   <si>
     <t>31-Mar</t>
@@ -1645,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>6</v>
@@ -1665,13 +1668,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F3" s="21">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H3" s="17"/>
     </row>
@@ -1683,13 +1686,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H4" s="17"/>
     </row>
@@ -1701,13 +1704,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F5" s="21">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H5" s="17"/>
     </row>
@@ -1725,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H6" s="17"/>
     </row>
@@ -1737,16 +1740,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F7" s="21">
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -1757,13 +1760,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F8" s="21">
         <v>2</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -1775,13 +1778,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F9" s="21">
         <v>2</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H9" s="17"/>
     </row>
@@ -1793,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F10" s="21">
         <v>3</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H10" s="17"/>
     </row>
@@ -1811,13 +1814,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F11" s="21">
         <v>3</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H11" s="17"/>
     </row>
@@ -1829,13 +1832,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F12" s="21">
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H12" s="17"/>
     </row>
@@ -1847,13 +1850,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F13" s="21">
         <v>3</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H13" s="17"/>
     </row>
@@ -1865,13 +1868,13 @@
         <v>12</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F14" s="21">
         <v>2</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H14" s="17"/>
     </row>
@@ -1883,16 +1886,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F15" s="21">
         <v>3</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
@@ -1903,16 +1906,16 @@
         <v>14</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F16" s="21">
         <v>1</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33">
@@ -1923,16 +1926,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F17" s="21">
         <v>3</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -1943,13 +1946,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F18" s="21">
         <v>3</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H18" s="17"/>
     </row>
@@ -1961,13 +1964,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F19" s="21">
         <v>1</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H19" s="35"/>
     </row>
@@ -1979,13 +1982,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H20" s="35"/>
     </row>
@@ -1997,13 +2000,13 @@
         <v>19</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F21" s="21">
         <v>1</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H21" s="35"/>
     </row>
@@ -2015,13 +2018,13 @@
         <v>20</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F22" s="21">
         <v>1</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H22" s="35"/>
     </row>
@@ -2033,16 +2036,16 @@
         <v>21</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F23" s="21">
         <v>1</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -2421,7 +2424,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33.75">
       <c r="A20" s="15">
         <v>13</v>
       </c>
@@ -2558,7 +2561,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="33.75">
       <c r="A27" s="15">
         <v>20</v>
       </c>
@@ -2705,7 +2708,7 @@
       </c>
       <c r="G33" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="15">
         <v>27</v>
       </c>
@@ -2726,7 +2729,7 @@
       </c>
       <c r="G34" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="33.75">
       <c r="A35" s="15">
         <v>28</v>
       </c>
@@ -2739,13 +2742,15 @@
       <c r="D35" s="18">
         <v>45363</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F35" s="17" t="s">
         <v>220</v>
       </c>
       <c r="G35" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="15">
         <v>29</v>
       </c>
@@ -2764,7 +2769,7 @@
       </c>
       <c r="G36" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="15">
         <v>30</v>
       </c>
@@ -2783,7 +2788,7 @@
       </c>
       <c r="G37" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="15">
         <v>31</v>
       </c>
@@ -2802,7 +2807,7 @@
       </c>
       <c r="G38" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="33.75">
       <c r="A39" s="15">
         <v>32</v>
       </c>
@@ -2821,7 +2826,7 @@
       </c>
       <c r="G39" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="15">
         <v>33</v>
       </c>
@@ -2840,7 +2845,7 @@
       </c>
       <c r="G40" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="15">
         <v>34</v>
       </c>
@@ -2859,7 +2864,7 @@
       </c>
       <c r="G41" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="15">
         <v>35</v>
       </c>
@@ -2878,7 +2883,7 @@
       </c>
       <c r="G42" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="15">
         <v>36</v>
       </c>
@@ -2897,7 +2902,7 @@
       </c>
       <c r="G43" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="15">
         <v>37</v>
       </c>
@@ -2916,7 +2921,7 @@
       </c>
       <c r="G44" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="21"/>
       <c r="B45" s="35"/>
       <c r="C45" s="30"/>
@@ -2925,7 +2930,7 @@
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A46" s="11" t="s">
         <v>236</v>
       </c>
@@ -2936,7 +2941,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="13" t="s">
         <v>1</v>
       </c>
@@ -2957,7 +2962,7 @@
       </c>
       <c r="G47" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="33.75">
       <c r="A48" s="15">
         <v>1</v>
       </c>
@@ -2976,7 +2981,7 @@
       </c>
       <c r="G48" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="15">
         <v>2</v>
       </c>
@@ -2995,7 +3000,7 @@
       </c>
       <c r="G49" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="15">
         <v>3</v>
       </c>
@@ -3014,7 +3019,7 @@
       </c>
       <c r="G50" s="35"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="15">
         <v>4</v>
       </c>
@@ -3541,14 +3546,16 @@
         <v>272</v>
       </c>
       <c r="C80" s="44">
-        <v>15.119780092592592</v>
+        <v>17.11954861111111</v>
       </c>
       <c r="D80" s="18">
         <v>45374</v>
       </c>
-      <c r="E80" s="19"/>
+      <c r="E80" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="F80" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G80" s="35"/>
     </row>
@@ -3560,14 +3567,14 @@
         <v>272</v>
       </c>
       <c r="C81" s="44">
-        <v>15.119780092592592</v>
+        <v>17.11954861111111</v>
       </c>
       <c r="D81" s="18">
         <v>45375</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G81" s="35"/>
     </row>
@@ -3579,14 +3586,14 @@
         <v>272</v>
       </c>
       <c r="C82" s="44">
-        <v>15.119780092592592</v>
+        <v>17.11954861111111</v>
       </c>
       <c r="D82" s="18">
         <v>45376</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G82" s="35"/>
     </row>
@@ -3598,14 +3605,14 @@
         <v>272</v>
       </c>
       <c r="C83" s="44">
-        <v>15.119780092592592</v>
+        <v>17.11954861111111</v>
       </c>
       <c r="D83" s="18">
         <v>45377</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G83" s="35"/>
     </row>
@@ -3614,7 +3621,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C84" s="29">
         <v>10.13</v>
@@ -3624,7 +3631,7 @@
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G84" s="35"/>
     </row>
@@ -3633,7 +3640,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C85" s="29">
         <v>9.05</v>
@@ -3643,7 +3650,7 @@
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G85" s="35"/>
     </row>
@@ -3652,7 +3659,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C86" s="29">
         <v>3.39</v>
@@ -3662,7 +3669,7 @@
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G86" s="35"/>
     </row>
@@ -3671,7 +3678,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C87" s="29">
         <v>8.27</v>
@@ -3681,7 +3688,7 @@
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G87" s="35"/>
     </row>
@@ -3690,7 +3697,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C88" s="29">
         <v>7.21</v>
@@ -3700,7 +3707,7 @@
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G88" s="35"/>
     </row>
@@ -3709,7 +3716,7 @@
         <v>10</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C89" s="29">
         <v>9.04</v>
@@ -3719,7 +3726,7 @@
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G89" s="35"/>
     </row>
@@ -3728,7 +3735,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C90" s="29">
         <v>14.14</v>
@@ -3738,7 +3745,7 @@
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G90" s="35"/>
     </row>
@@ -3747,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C91" s="29">
         <v>14.01</v>
@@ -3757,7 +3764,7 @@
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G91" s="35"/>
     </row>
@@ -3766,7 +3773,7 @@
         <v>13</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C92" s="29">
         <v>11.17</v>
@@ -3776,7 +3783,7 @@
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G92" s="35"/>
     </row>
@@ -3785,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C93" s="15">
         <v>12</v>
@@ -3795,7 +3802,7 @@
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G93" s="35"/>
     </row>
@@ -3804,7 +3811,7 @@
         <v>15</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C94" s="29">
         <v>12.33</v>
@@ -3814,7 +3821,7 @@
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G94" s="35"/>
     </row>
@@ -3823,7 +3830,7 @@
         <v>16</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C95" s="29">
         <v>10.57</v>
@@ -3833,7 +3840,7 @@
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G95" s="35"/>
     </row>
@@ -3842,7 +3849,7 @@
         <v>17</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C96" s="29">
         <v>10.13</v>
@@ -3852,7 +3859,7 @@
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G96" s="35"/>
     </row>
@@ -3861,7 +3868,7 @@
         <v>18</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C97" s="29">
         <v>17.37</v>
@@ -3871,7 +3878,7 @@
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G97" s="35"/>
     </row>
@@ -3880,7 +3887,7 @@
         <v>19</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C98" s="29">
         <v>9.28</v>
@@ -3890,7 +3897,7 @@
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G98" s="35"/>
     </row>
@@ -3899,7 +3906,7 @@
         <v>20</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C99" s="29">
         <v>7.18</v>
@@ -3909,7 +3916,7 @@
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G99" s="35"/>
     </row>
@@ -3918,7 +3925,7 @@
         <v>21</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C100" s="29">
         <v>7.54</v>
@@ -3928,7 +3935,7 @@
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G100" s="35"/>
     </row>
@@ -3937,7 +3944,7 @@
         <v>22</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C101" s="29">
         <v>25.46</v>
@@ -3947,7 +3954,7 @@
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G101" s="35"/>
     </row>
@@ -3956,7 +3963,7 @@
         <v>23</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C102" s="29">
         <v>8.47</v>
@@ -3966,7 +3973,7 @@
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G102" s="35"/>
     </row>
@@ -3975,7 +3982,7 @@
         <v>24</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C103" s="29">
         <v>5.43</v>
@@ -3985,7 +3992,7 @@
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G103" s="35"/>
     </row>
@@ -3994,7 +4001,7 @@
         <v>25</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C104" s="29">
         <v>12.35</v>
@@ -4004,7 +4011,7 @@
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G104" s="35"/>
     </row>
@@ -4013,7 +4020,7 @@
         <v>26</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C105" s="29">
         <v>4.06</v>
@@ -4023,7 +4030,7 @@
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G105" s="35"/>
     </row>
@@ -4032,7 +4039,7 @@
         <v>27</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C106" s="29">
         <v>14.59</v>
@@ -4042,7 +4049,7 @@
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G106" s="35"/>
     </row>
@@ -4051,7 +4058,7 @@
         <v>28</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C107" s="29">
         <v>18.2</v>
@@ -4061,7 +4068,7 @@
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G107" s="35"/>
     </row>
@@ -4070,7 +4077,7 @@
         <v>29</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C108" s="29">
         <v>13.41</v>
@@ -4080,7 +4087,7 @@
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G108" s="35"/>
     </row>
@@ -4089,7 +4096,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C109" s="29">
         <v>11.59</v>
@@ -4099,7 +4106,7 @@
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G109" s="35"/>
     </row>

--- a/001EffortTracker/KT Plan.xlsx
+++ b/001EffortTracker/KT Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Index"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="343">
   <si>
     <t>Playwright: Web Automation Testing From Zero to Hero - Artem Bondar</t>
   </si>
@@ -1047,6 +1047,12 @@
   <si>
     <t>https://www.lambdatest.com/certifications/playwright-101
 https://www.vskills.in/certification/playwright-certification-course</t>
+  </si>
+  <si>
+    <t>JavaScript &amp; Node.js course for Testers, QA and SDETs - 2024</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/javascript-and-nodejs-essentials-for-test-automation</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1622,7 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2048,15 +2054,25 @@
         <v>340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="40.5">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="D24" s="48">
+        <v>22</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="22"/>
@@ -2090,7 +2106,7 @@
   </sheetPr>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
